--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EFAF9C-68A4-41E3-AAF0-4238BD4C2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9361BF6C-B9D8-4B68-8B32-0AF13F91D79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="1635" windowWidth="10245" windowHeight="11070" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
   <sheets>
     <sheet name="VO list" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="167">
   <si>
     <t>Play_VO_Alarm_Defective_Modules</t>
   </si>
@@ -458,9 +459,6 @@
     <t>Module_State_Dead</t>
   </si>
   <si>
-    <t>Note: Call fighters is the same with catfight and figther add 1 to supplement</t>
-  </si>
-  <si>
     <t>Note: Manual Coding</t>
   </si>
   <si>
@@ -534,13 +532,22 @@
   </si>
   <si>
     <t>Manual coding</t>
+  </si>
+  <si>
+    <t>Manual Coding</t>
+  </si>
+  <si>
+    <t>SM rendered</t>
+  </si>
+  <si>
+    <t>Note: Call fighters is the same with catfight and figther add 1 to supplement, SM rendered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,78 +1063,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
   <dimension ref="A3:R956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A832" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D844" sqref="D844"/>
+    <sheetView tabSelected="1" topLeftCell="A946" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F894" sqref="F894"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.09765625" style="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15">
       <c r="B6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15">
       <c r="B7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15">
       <c r="D8" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15">
       <c r="E9" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15">
       <c r="E10" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15">
       <c r="D11" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15">
       <c r="E12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15">
       <c r="D13" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15">
       <c r="E14" s="1" t="s">
         <v>138</v>
       </c>
@@ -1135,12 +1145,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="15">
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1148,4718 +1158,4814 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="D17" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E18" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="15">
       <c r="D19" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="15">
       <c r="E20" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="15">
       <c r="E21" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="15">
       <c r="D22" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="15">
       <c r="E23" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="15">
       <c r="D24" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="15">
       <c r="E25" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" ht="15">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" ht="15">
       <c r="D27" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" ht="15">
       <c r="E28" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" ht="15">
       <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" ht="15">
       <c r="E30" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" ht="15">
       <c r="E31" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" ht="15">
       <c r="D32" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" ht="15">
       <c r="E33" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" ht="15">
       <c r="D34" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" ht="15">
       <c r="E35" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" ht="15">
       <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" ht="15">
       <c r="D37" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" ht="15">
       <c r="E38" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" ht="15">
       <c r="D39" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" ht="15">
       <c r="E40" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" ht="15">
       <c r="E41" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" ht="15">
       <c r="D42" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" ht="15">
       <c r="E43" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" ht="15">
       <c r="D44" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" ht="15">
       <c r="E45" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" ht="15">
       <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" ht="15">
       <c r="D47" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" ht="15">
       <c r="E48" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15">
       <c r="D49" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15">
       <c r="E50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15">
       <c r="E51" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15">
       <c r="D52" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15">
       <c r="E53" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15">
       <c r="D54" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15">
       <c r="E55" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15">
       <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15">
       <c r="B58" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15">
       <c r="C59" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15">
       <c r="C60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15">
       <c r="C61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15">
       <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15">
       <c r="B64" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15">
       <c r="B65" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15">
       <c r="C66" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15">
       <c r="C67" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15">
       <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15">
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B71" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D72" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D73" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D74" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D75" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B76" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C77" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D78" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D79" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D80" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D81" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="C82" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D83" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D84" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D85" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D86" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="C87" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D88" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D89" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D90" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D91" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="C92" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D93" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D94" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D95" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D96" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15">
       <c r="B98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15">
       <c r="D99" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15">
       <c r="D100" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="A101" s="6"/>
       <c r="D101" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15">
       <c r="D102" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15">
       <c r="D103" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15">
       <c r="D104" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15">
       <c r="D105" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15">
       <c r="B106" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15">
       <c r="C107" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15">
       <c r="D108" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15">
       <c r="D109" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15">
       <c r="D111" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15">
       <c r="D112" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" ht="15">
       <c r="D113" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" ht="15">
       <c r="D114" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" ht="15">
       <c r="C115" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" ht="15">
       <c r="D116" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" ht="15">
       <c r="D117" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D118" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="3:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" s="7" customFormat="1" ht="15">
       <c r="D119" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" ht="15">
       <c r="D120" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" ht="15">
       <c r="D121" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" ht="15">
       <c r="D122" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" ht="15">
       <c r="C123" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" ht="15">
       <c r="D124" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" ht="15">
       <c r="D125" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D126" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" ht="15">
       <c r="D127" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" ht="15">
       <c r="D128" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15">
       <c r="D129" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15">
       <c r="D130" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15">
       <c r="C131" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15">
       <c r="D132" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15">
       <c r="D133" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D134" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15">
       <c r="D135" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15">
       <c r="D136" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15">
       <c r="D137" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15">
       <c r="D138" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F139" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15">
       <c r="B140" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15">
       <c r="D141" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15">
       <c r="D142" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15">
       <c r="D143" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15">
       <c r="D144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" ht="15">
       <c r="D145" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" ht="15">
       <c r="D146" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" ht="15">
       <c r="B147" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" ht="15">
       <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" ht="15">
       <c r="D149" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" ht="15">
       <c r="D150" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" ht="15">
       <c r="D151" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" ht="15">
       <c r="D152" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" ht="15">
       <c r="D153" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" ht="15">
       <c r="D154" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" ht="15">
       <c r="C155" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" ht="15">
       <c r="D156" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" ht="15">
       <c r="D157" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" ht="15">
       <c r="D158" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" ht="15">
       <c r="D159" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" ht="15">
       <c r="D160" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15">
       <c r="D161" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15">
       <c r="C162" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15">
       <c r="D163" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15">
       <c r="D164" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15">
       <c r="D165" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15">
       <c r="D166" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15">
       <c r="D167" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15">
       <c r="D168" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15">
       <c r="C169" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15">
       <c r="D170" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15">
       <c r="D171" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15">
       <c r="D172" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15">
       <c r="D173" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15">
       <c r="D174" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15">
       <c r="D175" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A176" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F176" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" ht="15">
       <c r="B177" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" ht="15">
       <c r="D178" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" ht="15">
       <c r="D179" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" ht="15">
       <c r="B180" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" ht="15">
       <c r="C181" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" ht="15">
       <c r="D182" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" ht="15">
       <c r="D183" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" ht="15">
       <c r="C184" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" ht="15">
       <c r="D185" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" ht="15">
       <c r="D186" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" ht="15">
       <c r="C187" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" ht="15">
       <c r="D188" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" ht="15">
       <c r="D189" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" ht="15">
       <c r="C190" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" ht="15">
       <c r="D191" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" ht="15">
       <c r="D192" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A193" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15">
       <c r="B194" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15">
       <c r="B195" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15">
       <c r="C196" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15">
       <c r="C197" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15">
       <c r="C198" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15">
       <c r="C199" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15">
       <c r="B201" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15">
       <c r="D202" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15">
       <c r="D203" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15">
       <c r="D204" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15">
       <c r="D205" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15">
       <c r="D206" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15">
       <c r="D207" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15">
       <c r="B208" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:4" ht="15">
       <c r="C209" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:4" ht="15">
       <c r="D210" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:4" ht="15">
       <c r="D211" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:4" ht="15">
       <c r="D212" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:4" ht="15">
       <c r="D213" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:4" ht="15">
       <c r="D214" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:4" ht="15">
       <c r="D215" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:4" ht="15">
       <c r="C216" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:4" ht="15">
       <c r="D217" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:4" ht="15">
       <c r="D218" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:4" ht="15">
       <c r="D219" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:4" ht="15">
       <c r="D220" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:4" ht="15">
       <c r="D221" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:4" ht="15">
       <c r="D222" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:4" ht="15">
       <c r="C223" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:4" ht="15">
       <c r="D224" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="15">
       <c r="D225" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="15">
       <c r="D226" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15">
       <c r="D227" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15">
       <c r="D228" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15">
       <c r="D229" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15">
       <c r="C230" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15">
       <c r="D231" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15">
       <c r="D232" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15">
       <c r="D233" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15">
       <c r="D234" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15">
       <c r="D235" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15">
       <c r="D236" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15">
       <c r="B238" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15">
       <c r="D239" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15">
       <c r="D240" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" ht="15">
       <c r="D241" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" ht="15">
       <c r="D242" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" ht="15">
       <c r="B243" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" ht="15">
       <c r="C244" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" ht="15">
       <c r="D245" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" ht="15">
       <c r="D246" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" ht="15">
       <c r="D247" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" ht="15">
       <c r="D248" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" ht="15">
       <c r="C249" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" ht="15">
       <c r="D250" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" ht="15">
       <c r="D251" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" ht="15">
       <c r="D252" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" ht="15">
       <c r="D253" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" ht="15">
       <c r="C254" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" ht="15">
       <c r="D255" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" ht="15">
       <c r="D256" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="15">
       <c r="D257" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15">
       <c r="D258" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="15">
       <c r="C259" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15">
       <c r="D260" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15">
       <c r="D261" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15">
       <c r="D262" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="15">
       <c r="D263" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A264" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F264" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15">
       <c r="B265" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="15">
       <c r="B266" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="15">
       <c r="C267" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15">
       <c r="C268" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15">
       <c r="C269" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15">
       <c r="C270" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15">
       <c r="B272" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15">
       <c r="D273" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="15">
       <c r="B274" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="15">
       <c r="C275" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15">
       <c r="D276" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="15">
       <c r="C277" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15">
       <c r="D278" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="15">
       <c r="C279" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="15">
       <c r="D280" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15">
       <c r="C281" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="15">
       <c r="D282" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A283" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F283" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15">
       <c r="B284" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="15">
       <c r="B285" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="15">
       <c r="C286" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="15">
       <c r="C287" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15">
       <c r="C288" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="15">
       <c r="C289" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="290" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A290" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15">
       <c r="B291" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="15">
       <c r="D292" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="15">
       <c r="E293" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="15">
       <c r="E294" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="15">
       <c r="E295" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="15">
       <c r="E296" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="15">
       <c r="E297" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="15">
       <c r="B298" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="15">
       <c r="C299" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="15">
       <c r="D300" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="15">
       <c r="E301" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="15">
       <c r="E302" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="15">
       <c r="E303" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="15">
       <c r="E304" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:5" ht="15">
       <c r="E305" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:5" ht="15">
       <c r="C306" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:5" ht="15">
       <c r="D307" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:5" ht="15">
       <c r="E308" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:5" ht="15">
       <c r="E309" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:5" ht="15">
       <c r="E310" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:5" ht="15">
       <c r="E311" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:5" ht="15">
       <c r="E312" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:5" ht="15">
       <c r="C313" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:5" ht="15">
       <c r="D314" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:5" ht="15">
       <c r="E315" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="316" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:5" ht="15">
       <c r="E316" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:5" ht="15">
       <c r="E317" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="318" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:5" ht="15">
       <c r="E318" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:5" ht="15">
       <c r="E319" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:5" ht="15">
       <c r="C320" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="15">
       <c r="D321" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="15">
       <c r="E322" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="15">
       <c r="E323" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="15">
       <c r="E324" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="15">
       <c r="E325" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="15">
       <c r="E326" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A327" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="15">
       <c r="B328" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="15">
       <c r="B329" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="15">
       <c r="C330" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="15">
       <c r="C331" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="15">
       <c r="C332" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="15">
       <c r="C333" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="334" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A334" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15">
       <c r="B335" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="15">
       <c r="B336" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="15">
       <c r="C337" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="15">
       <c r="C338" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="15">
       <c r="C339" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="15">
       <c r="C340" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="341" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A341" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F341" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="15">
       <c r="B342" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="15">
       <c r="B343" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="15">
       <c r="C344" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="15">
       <c r="C345" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="15">
       <c r="C346" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="15">
       <c r="C347" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="348" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A348" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F348" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="15">
       <c r="B349" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="15">
       <c r="B350" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="15">
       <c r="C351" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="15">
       <c r="C352" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="15">
       <c r="C353" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="15">
       <c r="C354" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="355" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A355" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F355" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="15">
       <c r="B356" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="15">
       <c r="B357" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="15">
       <c r="C358" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="15">
       <c r="C359" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="15">
       <c r="C360" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="15">
       <c r="C361" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="362" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A362" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F362" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="15">
       <c r="B363" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="15">
       <c r="B364" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="15">
       <c r="C365" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="15">
       <c r="C366" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="15">
       <c r="C367" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="15">
       <c r="C368" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A369" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="15">
       <c r="B370" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="15">
       <c r="B371" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="15">
       <c r="C372" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="15">
       <c r="C373" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="15">
       <c r="C374" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="15">
       <c r="C375" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A376" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F376" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="15">
       <c r="B377" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="15">
       <c r="D378" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="15">
       <c r="E379" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15">
       <c r="E380" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="15">
       <c r="E381" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="15">
       <c r="E382" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="15">
       <c r="E383" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="15">
       <c r="E384" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="385" spans="4:5" ht="15">
+      <c r="E385" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="386" spans="4:5" ht="15">
+      <c r="E386" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="385" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E385" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="386" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E386" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="387" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:5" ht="15">
       <c r="D387" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="388" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:5" ht="15">
       <c r="E388" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="389" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:5" ht="15">
       <c r="E389" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="390" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:5" ht="15">
       <c r="E390" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="391" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:5" ht="15">
       <c r="E391" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="392" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:5" ht="15">
       <c r="E392" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="393" spans="4:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="393" spans="4:5" ht="15">
       <c r="E393" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="394" spans="4:5" ht="15">
+      <c r="E394" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="395" spans="4:5" ht="15">
+      <c r="E395" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="394" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E394" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="395" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E395" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="396" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:5" ht="15">
       <c r="D396" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="397" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:5" ht="15">
       <c r="E397" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="398" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:5" ht="15">
       <c r="E398" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="399" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:5" ht="15">
       <c r="E399" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="400" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:5" ht="15">
       <c r="E400" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:5" ht="15">
       <c r="E401" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" ht="15">
       <c r="E402" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" ht="15">
+      <c r="E403" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5" ht="15">
+      <c r="E404" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E403" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E404" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:5" ht="15">
       <c r="B405" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:5" ht="15">
       <c r="C406" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:5" ht="15">
       <c r="D407" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:5" ht="15">
       <c r="E408" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:5" ht="15">
       <c r="E409" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:5" ht="15">
       <c r="E410" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:5" ht="15">
       <c r="E411" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:5" ht="15">
       <c r="E412" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" ht="15">
       <c r="E413" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" ht="15">
+      <c r="E414" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5" ht="15">
+      <c r="E415" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E414" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E415" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:5" ht="15">
       <c r="D416" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="417" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:5" ht="15">
       <c r="E417" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="418" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:5" ht="15">
       <c r="E418" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="419" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:5" ht="15">
       <c r="E419" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="420" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:5" ht="15">
       <c r="E420" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="421" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:5" ht="15">
       <c r="E421" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="422" spans="4:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="422" spans="4:5" ht="15">
       <c r="E422" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="423" spans="4:5" ht="15">
+      <c r="E423" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="424" spans="4:5" ht="15">
+      <c r="E424" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="423" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E423" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="424" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E424" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="425" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:5" ht="15">
       <c r="D425" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="426" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:5" ht="15">
       <c r="E426" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="427" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:5" ht="15">
       <c r="E427" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="428" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:5" ht="15">
       <c r="E428" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="429" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:5" ht="15">
       <c r="E429" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="430" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:5" ht="15">
       <c r="E430" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="431" spans="4:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="431" spans="4:5" ht="15">
       <c r="E431" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="432" spans="4:5" ht="15">
+      <c r="E432" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="433" spans="3:5" ht="15">
+      <c r="E433" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="432" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E432" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E433" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="434" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:5" ht="15">
       <c r="C434" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="435" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:5" ht="15">
       <c r="D435" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="436" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:5" ht="15">
       <c r="E436" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="437" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:5" ht="15">
       <c r="E437" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="438" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:5" ht="15">
       <c r="E438" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="439" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:5" ht="15">
       <c r="E439" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="440" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:5" ht="15">
       <c r="E440" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="441" spans="3:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="441" spans="3:5" ht="15">
       <c r="E441" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="442" spans="3:5" ht="15">
+      <c r="E442" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="443" spans="3:5" ht="15">
+      <c r="E443" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="442" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E442" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="443" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E443" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="444" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:5" ht="15">
       <c r="D444" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="445" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:5" ht="15">
       <c r="E445" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="446" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:5" ht="15">
       <c r="E446" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="447" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:5" ht="15">
       <c r="E447" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="448" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:5" ht="15">
       <c r="E448" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="449" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:5" ht="15">
       <c r="E449" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="450" spans="3:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="450" spans="3:5" ht="15">
       <c r="E450" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="451" spans="3:5" ht="15">
+      <c r="E451" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="452" spans="3:5" ht="15">
+      <c r="E452" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="451" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E451" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="452" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E452" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="453" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:5" ht="15">
       <c r="D453" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="454" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:5" ht="15">
       <c r="E454" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:5" ht="15">
       <c r="E455" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="456" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:5" ht="15">
       <c r="E456" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="457" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:5" ht="15">
       <c r="E457" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="458" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:5" ht="15">
       <c r="E458" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="459" spans="3:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="459" spans="3:5" ht="15">
       <c r="E459" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="460" spans="3:5" ht="15">
+      <c r="E460" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="461" spans="3:5" ht="15">
+      <c r="E461" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="460" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E460" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="461" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E461" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="462" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:5" ht="15">
       <c r="C462" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="463" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:5" ht="15">
       <c r="D463" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="464" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:5" ht="15">
       <c r="E464" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="465" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:5" ht="15">
       <c r="E465" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="466" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:5" ht="15">
       <c r="E466" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="467" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:5" ht="15">
       <c r="E467" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="468" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:5" ht="15">
       <c r="E468" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="469" spans="4:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="469" spans="4:5" ht="15">
       <c r="E469" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="470" spans="4:5" ht="15">
+      <c r="E470" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="471" spans="4:5" ht="15">
+      <c r="E471" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="470" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E470" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="471" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E471" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="472" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:5" ht="15">
       <c r="D472" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="473" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:5" ht="15">
       <c r="E473" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="474" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:5" ht="15">
       <c r="E474" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="475" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:5" ht="15">
       <c r="E475" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="476" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:5" ht="15">
       <c r="E476" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="477" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:5" ht="15">
       <c r="E477" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="478" spans="4:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="478" spans="4:5" ht="15">
       <c r="E478" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="479" spans="4:5" ht="15">
+      <c r="E479" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="480" spans="4:5" ht="15">
+      <c r="E480" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="479" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E479" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="480" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E480" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="481" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:5" ht="15">
       <c r="D481" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:5" ht="15">
       <c r="E482" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="483" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:5" ht="15">
       <c r="E483" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:5" ht="15">
       <c r="E484" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="485" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:5" ht="15">
       <c r="E485" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="486" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:5" ht="15">
       <c r="E486" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="487" spans="3:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="487" spans="3:5" ht="15">
       <c r="E487" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="488" spans="3:5" ht="15">
+      <c r="E488" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="489" spans="3:5" ht="15">
+      <c r="E489" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="488" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E488" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="489" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E489" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="490" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:5" ht="15">
       <c r="C490" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="491" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:5" ht="15">
       <c r="D491" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="492" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:5" ht="15">
       <c r="E492" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="493" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:5" ht="15">
       <c r="E493" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="494" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:5" ht="15">
       <c r="E494" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="495" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:5" ht="15">
       <c r="E495" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="496" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:5" ht="15">
       <c r="E496" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="497" spans="4:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="497" spans="4:5" ht="15">
       <c r="E497" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="498" spans="4:5" ht="15">
+      <c r="E498" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="499" spans="4:5" ht="15">
+      <c r="E499" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="498" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E498" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="499" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E499" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="500" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:5" ht="15">
       <c r="D500" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="501" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:5" ht="15">
       <c r="E501" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="502" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:5" ht="15">
       <c r="E502" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="503" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:5" ht="15">
       <c r="E503" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="504" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:5" ht="15">
       <c r="E504" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="505" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:5" ht="15">
       <c r="E505" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="506" spans="4:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="506" spans="4:5" ht="15">
       <c r="E506" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="507" spans="4:5" ht="15">
+      <c r="E507" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="508" spans="4:5" ht="15">
+      <c r="E508" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="507" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E507" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="508" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E508" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="509" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:5" ht="15">
       <c r="D509" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="510" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:5" ht="15">
       <c r="E510" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="511" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:5" ht="15">
       <c r="E511" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="512" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:5" ht="15">
       <c r="E512" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="15">
       <c r="E513" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="15">
       <c r="E514" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="15">
       <c r="E515" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" ht="15">
+      <c r="E516" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="15">
+      <c r="E517" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E516" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E517" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A518" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F518" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" ht="15">
       <c r="B519" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="15">
       <c r="B520" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="15">
       <c r="C521" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="15">
       <c r="C522" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="15">
       <c r="C523" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="15">
       <c r="C524" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="525" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A525" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F525" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="15">
       <c r="B526" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="15">
       <c r="G527" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="15">
       <c r="G528" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="529" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="7:7" ht="15">
       <c r="G529" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="530" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="7:7" ht="15">
       <c r="G530" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="531" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="7:7" ht="15">
       <c r="G531" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="532" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="7:7" ht="15">
       <c r="G532" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="533" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="7:7" ht="15">
       <c r="G533" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="534" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="7:7" ht="15">
       <c r="G534" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="535" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="7:7" ht="15">
       <c r="G535" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="536" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="7:7" ht="15">
       <c r="G536" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="537" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="7:7" ht="15">
       <c r="G537" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="538" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="7:7" ht="15">
       <c r="G538" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="539" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="7:7" ht="15">
       <c r="G539" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="540" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="7:7" ht="15">
       <c r="G540" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="541" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="7:7" ht="15">
       <c r="G541" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="542" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="7:7" ht="15">
       <c r="G542" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="543" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="7:7" ht="15">
       <c r="G543" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="544" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="7:7" ht="15">
       <c r="G544" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:7" ht="15">
       <c r="G545" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:7" ht="15">
       <c r="G546" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="547" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:7" ht="15">
       <c r="G547" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:7" ht="15">
       <c r="G548" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:7" ht="15">
       <c r="G549" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:7" ht="15">
       <c r="G550" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:7" ht="15">
       <c r="G551" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:7" ht="15">
       <c r="G552" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="553" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:7" ht="15">
       <c r="G553" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="554" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:7" ht="15">
       <c r="G554" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:7" ht="15">
       <c r="B555" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:7" ht="15">
       <c r="C556" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:7" ht="15">
       <c r="G557" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:7" ht="15">
       <c r="G558" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:7" ht="15">
       <c r="G559" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:7" ht="15">
       <c r="G560" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="561" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="7:7" ht="15">
       <c r="G561" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="562" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="7:7" ht="15">
       <c r="G562" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="563" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="7:7" ht="15">
       <c r="G563" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="564" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="7:7" ht="15">
       <c r="G564" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="565" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="7:7" ht="15">
       <c r="G565" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="566" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="7:7" ht="15">
       <c r="G566" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="567" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="7:7" ht="15">
       <c r="G567" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="568" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="7:7" ht="15">
       <c r="G568" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="569" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="7:7" ht="15">
       <c r="G569" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="570" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="7:7" ht="15">
       <c r="G570" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="571" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="7:7" ht="15">
       <c r="G571" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="572" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="7:7" ht="15">
       <c r="G572" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="573" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="7:7" ht="15">
       <c r="G573" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="574" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="7:7" ht="15">
       <c r="G574" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="575" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="7:7" ht="15">
       <c r="G575" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="576" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="7:7" ht="15">
       <c r="G576" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:7" ht="15">
       <c r="G577" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:7" ht="15">
       <c r="G578" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:7" ht="15">
       <c r="G579" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:7" ht="15">
       <c r="G580" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:7" ht="15">
       <c r="G581" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:7" ht="15">
       <c r="G582" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:7" ht="15">
       <c r="G583" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:7" ht="15">
       <c r="G584" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:7" ht="15">
       <c r="C585" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:7" ht="15">
       <c r="G586" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:7" ht="15">
       <c r="G587" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:7" ht="15">
       <c r="G588" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:7" ht="15">
       <c r="G589" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:7" ht="15">
       <c r="G590" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:7" ht="15">
       <c r="G591" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:7" ht="15">
       <c r="G592" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="593" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="7:7" ht="15">
       <c r="G593" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="594" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="7:7" ht="15">
       <c r="G594" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="595" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="7:7" ht="15">
       <c r="G595" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="596" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="7:7" ht="15">
       <c r="G596" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="597" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="7:7" ht="15">
       <c r="G597" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="598" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="7:7" ht="15">
       <c r="G598" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="599" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="7:7" ht="15">
       <c r="G599" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="600" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="7:7" ht="15">
       <c r="G600" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="601" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="7:7" ht="15">
       <c r="G601" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="602" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="7:7" ht="15">
       <c r="G602" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="603" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="7:7" ht="15">
       <c r="G603" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="604" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="7:7" ht="15">
       <c r="G604" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="605" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="7:7" ht="15">
       <c r="G605" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="606" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="7:7" ht="15">
       <c r="G606" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="607" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="7:7" ht="15">
       <c r="G607" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="608" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="7:7" ht="15">
       <c r="G608" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:7" ht="15">
       <c r="G609" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:7" ht="15">
       <c r="G610" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:7" ht="15">
       <c r="G611" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:7" ht="15">
       <c r="G612" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:7" ht="15">
       <c r="G613" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:7" ht="15">
       <c r="C614" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:7" ht="15">
       <c r="G615" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:7" ht="15">
       <c r="G616" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:7" ht="15">
       <c r="G617" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:7" ht="15">
       <c r="G618" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:7" ht="15">
       <c r="G619" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:7" ht="15">
       <c r="G620" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:7" ht="15">
       <c r="G621" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:7" ht="15">
       <c r="G622" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:7" ht="15">
       <c r="G623" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:7" ht="15">
       <c r="G624" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="625" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="7:7" ht="15">
       <c r="G625" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="626" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="7:7" ht="15">
       <c r="G626" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="627" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="7:7" ht="15">
       <c r="G627" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="628" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="7:7" ht="15">
       <c r="G628" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="629" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="7:7" ht="15">
       <c r="G629" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="630" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="7:7" ht="15">
       <c r="G630" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="631" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="7:7" ht="15">
       <c r="G631" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="632" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="7:7" ht="15">
       <c r="G632" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="633" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="7:7" ht="15">
       <c r="G633" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="634" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="7:7" ht="15">
       <c r="G634" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="635" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="7:7" ht="15">
       <c r="G635" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="636" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="7:7" ht="15">
       <c r="G636" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="637" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="7:7" ht="15">
       <c r="G637" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="638" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="7:7" ht="15">
       <c r="G638" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="639" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="7:7" ht="15">
       <c r="G639" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="640" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="7:7" ht="15">
       <c r="G640" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:7" ht="15">
       <c r="G641" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:7" ht="15">
       <c r="G642" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:7" ht="15">
       <c r="C643" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:7" ht="15">
       <c r="G644" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:7" ht="15">
       <c r="G645" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:7" ht="15">
       <c r="G646" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:7" ht="15">
       <c r="G647" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:7" ht="15">
       <c r="G648" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:7" ht="15">
       <c r="G649" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:7" ht="15">
       <c r="G650" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:7" ht="15">
       <c r="G651" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:7" ht="15">
       <c r="G652" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:7" ht="15">
       <c r="G653" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:7" ht="15">
       <c r="G654" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:7" ht="15">
       <c r="G655" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:7" ht="15">
       <c r="G656" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="15">
       <c r="G657" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="15">
       <c r="G658" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="15">
       <c r="G659" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="15">
       <c r="G660" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="15">
       <c r="G661" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="15">
       <c r="G662" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="15">
       <c r="G663" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="15">
       <c r="G664" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="15">
       <c r="G665" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="15">
       <c r="G666" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="15">
       <c r="G667" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" ht="15">
       <c r="G668" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="15">
       <c r="G669" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="15">
       <c r="G670" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" ht="15">
       <c r="G671" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="672" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A672" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F672" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="673" spans="2:7" ht="15">
       <c r="B673" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:7" ht="15">
       <c r="G674" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:7" ht="15">
       <c r="G675" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:7" ht="15">
       <c r="G676" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:7" ht="15">
       <c r="G677" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:7" ht="15">
       <c r="G678" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:7" ht="15">
       <c r="G679" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:7" ht="15">
       <c r="G680" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:7" ht="15">
       <c r="G681" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:7" ht="15">
       <c r="G682" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:7" ht="15">
       <c r="G683" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:7" ht="15">
       <c r="G684" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:7" ht="15">
       <c r="G685" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:7" ht="15">
       <c r="G686" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:7" ht="15">
       <c r="G687" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:7" ht="15">
       <c r="G688" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:7" ht="15">
       <c r="G689" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:7" ht="15">
       <c r="G690" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:7" ht="15">
       <c r="G691" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:7" ht="15">
       <c r="G692" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:7" ht="15">
       <c r="G693" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:7" ht="15">
       <c r="G694" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:7" ht="15">
       <c r="G695" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:7" ht="15">
       <c r="G696" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:7" ht="15">
       <c r="G697" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:7" ht="15">
       <c r="G698" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:7" ht="15">
       <c r="G699" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:7" ht="15">
       <c r="G700" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:7" ht="15">
       <c r="G701" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:7" ht="15">
       <c r="B702" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:7" ht="15">
       <c r="C703" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:7" ht="15">
       <c r="G704" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="705" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="7:7" ht="15">
       <c r="G705" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="706" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="7:7" ht="15">
       <c r="G706" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="707" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="7:7" ht="15">
       <c r="G707" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="708" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="7:7" ht="15">
       <c r="G708" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="709" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="7:7" ht="15">
       <c r="G709" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="710" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="7:7" ht="15">
       <c r="G710" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="711" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="7:7" ht="15">
       <c r="G711" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="712" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="7:7" ht="15">
       <c r="G712" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="713" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="7:7" ht="15">
       <c r="G713" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="714" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="7:7" ht="15">
       <c r="G714" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="715" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="7:7" ht="15">
       <c r="G715" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="716" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="7:7" ht="15">
       <c r="G716" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="717" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="7:7" ht="15">
       <c r="G717" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="718" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="7:7" ht="15">
       <c r="G718" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="719" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="7:7" ht="15">
       <c r="G719" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="720" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="7:7" ht="15">
       <c r="G720" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="721" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:7" ht="15">
       <c r="G721" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="722" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:7" ht="15">
       <c r="G722" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="723" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:7" ht="15">
       <c r="G723" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="724" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:7" ht="15">
       <c r="G724" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="725" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:7" ht="15">
       <c r="G725" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="726" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:7" ht="15">
       <c r="G726" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="727" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:7" ht="15">
       <c r="G727" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="728" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:7" ht="15">
       <c r="G728" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="729" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:7" ht="15">
       <c r="G729" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="730" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:7" ht="15">
       <c r="G730" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="731" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:7" ht="15">
       <c r="G731" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="732" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:7" ht="15">
       <c r="C732" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="733" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:7" ht="15">
       <c r="G733" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="734" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:7" ht="15">
       <c r="G734" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="735" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:7" ht="15">
       <c r="G735" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="736" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:7" ht="15">
       <c r="G736" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="737" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="7:7" ht="15">
       <c r="G737" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="738" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="7:7" ht="15">
       <c r="G738" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="739" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="7:7" ht="15">
       <c r="G739" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="740" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="7:7" ht="15">
       <c r="G740" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="741" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="7:7" ht="15">
       <c r="G741" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="742" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="7:7" ht="15">
       <c r="G742" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="743" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="7:7" ht="15">
       <c r="G743" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="744" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="7:7" ht="15">
       <c r="G744" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="745" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="7:7" ht="15">
       <c r="G745" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="746" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="7:7" ht="15">
       <c r="G746" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="747" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="7:7" ht="15">
       <c r="G747" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="748" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="7:7" ht="15">
       <c r="G748" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="749" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="7:7" ht="15">
       <c r="G749" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="750" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="7:7" ht="15">
       <c r="G750" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="751" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="7:7" ht="15">
       <c r="G751" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="752" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="7:7" ht="15">
       <c r="G752" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="753" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:7" ht="15">
       <c r="G753" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="754" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:7" ht="15">
       <c r="G754" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="755" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:7" ht="15">
       <c r="G755" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="756" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:7" ht="15">
       <c r="G756" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="757" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:7" ht="15">
       <c r="G757" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="758" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:7" ht="15">
       <c r="G758" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="759" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:7" ht="15">
       <c r="G759" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="760" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:7" ht="15">
       <c r="G760" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="761" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:7" ht="15">
       <c r="C761" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="762" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:7" ht="15">
       <c r="G762" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="763" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:7" ht="15">
       <c r="G763" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="764" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:7" ht="15">
       <c r="G764" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="765" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:7" ht="15">
       <c r="G765" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="766" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:7" ht="15">
       <c r="G766" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="767" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:7" ht="15">
       <c r="G767" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="768" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:7" ht="15">
       <c r="G768" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="769" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="7:7" ht="15">
       <c r="G769" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="770" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="7:7" ht="15">
       <c r="G770" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="771" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="7:7" ht="15">
       <c r="G771" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="772" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="7:7" ht="15">
       <c r="G772" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="773" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="7:7" ht="15">
       <c r="G773" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="774" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="7:7" ht="15">
       <c r="G774" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="775" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="7:7" ht="15">
       <c r="G775" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="776" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="7:7" ht="15">
       <c r="G776" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="777" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="7:7" ht="15">
       <c r="G777" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="778" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="7:7" ht="15">
       <c r="G778" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="779" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="7:7" ht="15">
       <c r="G779" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="780" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="7:7" ht="15">
       <c r="G780" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="781" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="7:7" ht="15">
       <c r="G781" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="782" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="7:7" ht="15">
       <c r="G782" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="783" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="7:7" ht="15">
       <c r="G783" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="784" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="7:7" ht="15">
       <c r="G784" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="785" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:7" ht="15">
       <c r="G785" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="786" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:7" ht="15">
       <c r="G786" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="787" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:7" ht="15">
       <c r="G787" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="788" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:7" ht="15">
       <c r="G788" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="789" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:7" ht="15">
       <c r="G789" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="790" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:7" ht="15">
       <c r="C790" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="791" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:7" ht="15">
       <c r="G791" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="792" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:7" ht="15">
       <c r="G792" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="793" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:7" ht="15">
       <c r="G793" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="794" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:7" ht="15">
       <c r="G794" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="795" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:7" ht="15">
       <c r="G795" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="796" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:7" ht="15">
       <c r="G796" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="797" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:7" ht="15">
       <c r="G797" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="798" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:7" ht="15">
       <c r="G798" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="799" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:7" ht="15">
       <c r="G799" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="800" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:7" ht="15">
       <c r="G800" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="801" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="7:7" ht="15">
       <c r="G801" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="802" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="7:7" ht="15">
       <c r="G802" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="803" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="7:7" ht="15">
       <c r="G803" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="804" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="7:7" ht="15">
       <c r="G804" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="805" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="7:7" ht="15">
       <c r="G805" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="806" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="7:7" ht="15">
       <c r="G806" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="807" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="7:7" ht="15">
       <c r="G807" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="808" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="7:7" ht="15">
       <c r="G808" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="809" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="7:7" ht="15">
       <c r="G809" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="810" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="7:7" ht="15">
       <c r="G810" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="811" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="7:7" ht="15">
       <c r="G811" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="812" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="7:7" ht="15">
       <c r="G812" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="813" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="7:7" ht="15">
       <c r="G813" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="814" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="7:7" ht="15">
       <c r="G814" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="815" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="7:7" ht="15">
       <c r="G815" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="816" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="7:7" ht="15">
       <c r="G816" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" ht="15">
       <c r="G817" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" ht="15">
       <c r="G818" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="819" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A819" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F819" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" ht="15">
       <c r="B820" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" ht="15">
       <c r="B821" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" ht="15">
       <c r="C822" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" ht="15">
       <c r="C823" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" ht="15">
       <c r="C824" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" ht="15">
       <c r="C825" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="826" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A826" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F826" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" ht="15">
       <c r="B827" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" ht="15">
       <c r="D828" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="15">
       <c r="D829" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" ht="15">
       <c r="D830" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" ht="15">
       <c r="B831" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" ht="15">
       <c r="C832" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" ht="15">
       <c r="D833" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" ht="15">
       <c r="D834" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" ht="15">
       <c r="D835" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" ht="15">
       <c r="C836" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" ht="15">
       <c r="D837" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" ht="15">
       <c r="D838" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" ht="15">
       <c r="D839" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" ht="15">
       <c r="C840" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" ht="15">
       <c r="D841" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" ht="15">
       <c r="D842" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" ht="15">
       <c r="D843" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" ht="15">
       <c r="C844" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" ht="15">
       <c r="D845" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" ht="15">
       <c r="D846" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" ht="15">
       <c r="D847" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="848" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" s="3" customFormat="1" ht="15">
       <c r="A848" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="849" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:4" ht="15">
       <c r="B849" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="850" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:4" ht="15">
       <c r="D850" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="851" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:4" ht="15">
       <c r="D851" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="852" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:4" ht="15">
       <c r="D852" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="853" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:4" ht="15">
       <c r="D853" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="854" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:4" ht="15">
       <c r="B854" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="855" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:4" ht="15">
       <c r="C855" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="856" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:4" ht="15">
       <c r="D856" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="857" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:4" ht="15">
       <c r="D857" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="858" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:4" ht="15">
       <c r="D858" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="859" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:4" ht="15">
       <c r="D859" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="860" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:4" ht="15">
       <c r="C860" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="861" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:4" ht="15">
       <c r="D861" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="862" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:4" ht="15">
       <c r="D862" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="863" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:4" ht="15">
       <c r="D863" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="864" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:4" ht="15">
       <c r="D864" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" ht="15">
       <c r="C865" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" ht="15">
       <c r="D866" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" ht="15">
       <c r="D867" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" ht="15">
       <c r="D868" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" ht="15">
       <c r="D869" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" ht="15">
       <c r="C870" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" ht="15">
       <c r="D871" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" ht="15">
       <c r="D872" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" ht="15">
       <c r="D873" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" ht="15">
       <c r="D874" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="875" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A875" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F875" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" ht="15">
       <c r="B876" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" ht="15">
       <c r="D877" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" ht="15">
       <c r="B878" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" ht="15">
       <c r="C879" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" ht="15">
       <c r="D880" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" ht="15">
       <c r="C881" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" ht="15">
       <c r="D882" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" ht="15">
       <c r="C883" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" ht="15">
       <c r="D884" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" ht="15">
       <c r="C885" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" ht="15">
       <c r="D886" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="887" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A887" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F887" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="15">
       <c r="B888" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" ht="15">
       <c r="B889" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" ht="15">
       <c r="C890" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" ht="15">
       <c r="C891" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" ht="15">
       <c r="C892" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" ht="15">
       <c r="C893" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="894" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A894" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F894" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" ht="15">
       <c r="B895" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" ht="15">
       <c r="B896" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" ht="15">
       <c r="C897" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" ht="15">
       <c r="C898" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" ht="15">
       <c r="C899" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" ht="15">
       <c r="C900" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="901" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A901" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F901" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" ht="15">
       <c r="B902" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" ht="15">
       <c r="B903" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" ht="15">
       <c r="C904" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" ht="15">
       <c r="C905" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" ht="15">
       <c r="C906" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" ht="15">
       <c r="C907" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="908" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A908" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F908" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" ht="15">
       <c r="B909" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" ht="15">
       <c r="B910" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" ht="15">
       <c r="C911" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" ht="15">
       <c r="C912" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" ht="15">
       <c r="C913" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" ht="15">
       <c r="C914" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="915" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A915" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F915" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" ht="15">
       <c r="B916" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" ht="15">
       <c r="B917" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" ht="15">
       <c r="C918" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" ht="15">
       <c r="C919" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" ht="15">
       <c r="C920" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" ht="15">
       <c r="C921" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="922" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A922" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F922" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" ht="15">
       <c r="B923" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" ht="15">
       <c r="B924" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" ht="15">
       <c r="C925" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" ht="15">
       <c r="C926" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" ht="15">
       <c r="C927" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" ht="15">
       <c r="C928" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="929" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A929" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F929" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" ht="15">
       <c r="B930" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" ht="15">
       <c r="B931" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" ht="15">
       <c r="C932" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" ht="15">
       <c r="C933" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" ht="15">
       <c r="C934" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" ht="15">
       <c r="C935" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="936" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A936" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F936" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" ht="15">
       <c r="B937" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" ht="15">
       <c r="B938" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" ht="15">
       <c r="C939" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" ht="15">
       <c r="C940" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" ht="15">
       <c r="C941" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" ht="15">
       <c r="C942" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="943" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A943" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F943" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" ht="15">
       <c r="B944" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" ht="15">
       <c r="B945" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" ht="15">
       <c r="C946" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" ht="15">
       <c r="C947" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" ht="15">
       <c r="C948" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" ht="15">
       <c r="C949" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="950" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A950" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F950" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" ht="15">
       <c r="B951" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" ht="15">
       <c r="B952" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" ht="15">
       <c r="C953" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" ht="15">
       <c r="C954" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" ht="15">
       <c r="C955" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" ht="15">
       <c r="C956" s="1" t="s">
         <v>43</v>
       </c>
@@ -5916,9 +6022,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -5929,7 +6035,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -5940,7 +6046,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -5951,7 +6057,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -5962,7 +6068,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -5973,7 +6079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -5984,7 +6090,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5995,7 +6101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -6006,7 +6112,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -6017,7 +6123,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -6028,7 +6134,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -6039,7 +6145,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -6050,7 +6156,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -6061,7 +6167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -6072,7 +6178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -6083,7 +6189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -6094,7 +6200,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -6105,7 +6211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6116,7 +6222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -6127,7 +6233,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -6138,7 +6244,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -6149,7 +6255,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -6160,130 +6266,130 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -6301,7 +6407,7 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6316,94 +6422,94 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="4" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9361BF6C-B9D8-4B68-8B32-0AF13F91D79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C4D33E-8F22-408C-B043-A0AA9905F3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="167">
   <si>
     <t>Play_VO_Alarm_Defective_Modules</t>
   </si>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
   <dimension ref="A3:R956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A946" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F894" sqref="F894"/>
+    <sheetView tabSelected="1" topLeftCell="A930" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H946" sqref="H946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
@@ -1077,12 +1077,12 @@
     <col min="6" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="15">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="14.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1090,54 +1090,54 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15">
+    <row r="5" spans="1:18">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18" ht="14.4">
       <c r="B6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15">
+    <row r="7" spans="1:18" ht="14.4">
       <c r="B7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15">
+    <row r="8" spans="1:18">
       <c r="D8" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15">
+    <row r="9" spans="1:18">
       <c r="E9" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15">
+    <row r="10" spans="1:18">
       <c r="E10" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15">
+    <row r="11" spans="1:18">
       <c r="D11" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15">
+    <row r="12" spans="1:18">
       <c r="E12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15">
+    <row r="13" spans="1:18">
       <c r="D13" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15">
+    <row r="14" spans="1:18">
       <c r="E14" s="1" t="s">
         <v>138</v>
       </c>
@@ -1145,12 +1145,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15">
+    <row r="15" spans="1:18">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" ht="15">
+    <row r="16" spans="1:18" s="5" customFormat="1">
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1158,202 +1158,202 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="17" spans="3:5" s="5" customFormat="1">
       <c r="D17" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="18" spans="3:5" s="5" customFormat="1">
       <c r="E18" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="15">
+    <row r="19" spans="3:5">
       <c r="D19" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="15">
+    <row r="20" spans="3:5">
       <c r="E20" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="15">
+    <row r="21" spans="3:5">
       <c r="E21" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15">
+    <row r="22" spans="3:5">
       <c r="D22" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="15">
+    <row r="23" spans="3:5">
       <c r="E23" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="15">
+    <row r="24" spans="3:5">
       <c r="D24" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="15">
+    <row r="25" spans="3:5">
       <c r="E25" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="15">
+    <row r="26" spans="3:5">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="15">
+    <row r="27" spans="3:5">
       <c r="D27" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="15">
+    <row r="28" spans="3:5">
       <c r="E28" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="3:5" ht="15">
+    <row r="29" spans="3:5">
       <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="15">
+    <row r="30" spans="3:5">
       <c r="E30" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="3:5" ht="15">
+    <row r="31" spans="3:5">
       <c r="E31" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="15">
+    <row r="32" spans="3:5">
       <c r="D32" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="15">
+    <row r="33" spans="3:5">
       <c r="E33" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="15">
+    <row r="34" spans="3:5">
       <c r="D34" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="15">
+    <row r="35" spans="3:5">
       <c r="E35" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="3:5" ht="15">
+    <row r="36" spans="3:5">
       <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="3:5" ht="15">
+    <row r="37" spans="3:5">
       <c r="D37" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="3:5" ht="15">
+    <row r="38" spans="3:5">
       <c r="E38" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="15">
+    <row r="39" spans="3:5">
       <c r="D39" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="3:5" ht="15">
+    <row r="40" spans="3:5">
       <c r="E40" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="15">
+    <row r="41" spans="3:5">
       <c r="E41" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="15">
+    <row r="42" spans="3:5">
       <c r="D42" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="3:5" ht="15">
+    <row r="43" spans="3:5">
       <c r="E43" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="15">
+    <row r="44" spans="3:5">
       <c r="D44" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="3:5" ht="15">
+    <row r="45" spans="3:5">
       <c r="E45" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="3:5" ht="15">
+    <row r="46" spans="3:5">
       <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="15">
+    <row r="47" spans="3:5">
       <c r="D47" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="15">
+    <row r="48" spans="3:5">
       <c r="E48" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15">
+    <row r="49" spans="1:6">
       <c r="D49" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15">
+    <row r="50" spans="1:6">
       <c r="E50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15">
+    <row r="51" spans="1:6">
       <c r="E51" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15">
+    <row r="52" spans="1:6">
       <c r="D52" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15">
+    <row r="53" spans="1:6">
       <c r="E53" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15">
+    <row r="54" spans="1:6">
       <c r="D54" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15">
+    <row r="55" spans="1:6">
       <c r="E55" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="56" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -1361,37 +1361,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15">
+    <row r="57" spans="1:6">
       <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15">
+    <row r="58" spans="1:6">
       <c r="B58" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15">
+    <row r="59" spans="1:6">
       <c r="C59" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15">
+    <row r="60" spans="1:6">
       <c r="C60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15">
+    <row r="61" spans="1:6">
       <c r="C61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15">
+    <row r="62" spans="1:6">
       <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="63" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -1399,37 +1399,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15">
+    <row r="64" spans="1:6">
       <c r="B64" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15">
+    <row r="65" spans="1:6">
       <c r="B65" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15">
+    <row r="66" spans="1:6">
       <c r="C66" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15">
+    <row r="67" spans="1:6">
       <c r="C67" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15">
+    <row r="68" spans="1:6">
       <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15">
+    <row r="69" spans="1:6">
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="70" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1437,137 +1437,137 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="71" spans="1:6" s="5" customFormat="1">
       <c r="B71" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="72" spans="1:6" s="5" customFormat="1">
       <c r="D72" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="73" spans="1:6" s="5" customFormat="1">
       <c r="D73" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="74" spans="1:6" s="5" customFormat="1">
       <c r="D74" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="75" spans="1:6" s="5" customFormat="1">
       <c r="D75" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="76" spans="1:6" s="5" customFormat="1">
       <c r="B76" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="77" spans="1:6" s="5" customFormat="1">
       <c r="C77" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="78" spans="1:6" s="5" customFormat="1">
       <c r="D78" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="79" spans="1:6" s="5" customFormat="1">
       <c r="D79" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="80" spans="1:6" s="5" customFormat="1">
       <c r="D80" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="81" spans="3:4" s="5" customFormat="1">
       <c r="D81" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="82" spans="3:4" s="5" customFormat="1">
       <c r="C82" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="83" spans="3:4" s="5" customFormat="1">
       <c r="D83" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="84" spans="3:4" s="5" customFormat="1">
       <c r="D84" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="85" spans="3:4" s="5" customFormat="1">
       <c r="D85" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="86" spans="3:4" s="5" customFormat="1">
       <c r="D86" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="87" spans="3:4" s="5" customFormat="1">
       <c r="C87" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="88" spans="3:4" s="5" customFormat="1">
       <c r="D88" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="89" spans="3:4" s="5" customFormat="1">
       <c r="D89" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="90" spans="3:4" s="5" customFormat="1">
       <c r="D90" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="91" spans="3:4" s="5" customFormat="1">
       <c r="D91" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="92" spans="3:4" s="5" customFormat="1">
       <c r="C92" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="93" spans="3:4" s="5" customFormat="1">
       <c r="D93" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="94" spans="3:4" s="5" customFormat="1">
       <c r="D94" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="95" spans="3:4" s="5" customFormat="1">
       <c r="D95" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="96" spans="3:4" s="5" customFormat="1">
       <c r="D96" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="97" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
@@ -1575,213 +1575,213 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15">
+    <row r="98" spans="1:6">
       <c r="B98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15">
+    <row r="99" spans="1:6">
       <c r="D99" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15">
+    <row r="100" spans="1:6">
       <c r="D100" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="101" spans="1:6" s="5" customFormat="1" ht="14.4">
       <c r="A101" s="6"/>
       <c r="D101" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15">
+    <row r="102" spans="1:6">
       <c r="D102" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15">
+    <row r="103" spans="1:6">
       <c r="D103" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15">
+    <row r="104" spans="1:6">
       <c r="D104" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15">
+    <row r="105" spans="1:6">
       <c r="D105" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15">
+    <row r="106" spans="1:6">
       <c r="B106" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15">
+    <row r="107" spans="1:6">
       <c r="C107" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15">
+    <row r="108" spans="1:6">
       <c r="D108" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15">
+    <row r="109" spans="1:6">
       <c r="D109" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="110" spans="1:6" s="5" customFormat="1">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15">
+    <row r="111" spans="1:6">
       <c r="D111" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15">
+    <row r="112" spans="1:6">
       <c r="D112" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="3:4" ht="15">
+    <row r="113" spans="3:4">
       <c r="D113" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="3:4" ht="15">
+    <row r="114" spans="3:4">
       <c r="D114" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="3:4" ht="15">
+    <row r="115" spans="3:4">
       <c r="C115" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="3:4" ht="15">
+    <row r="116" spans="3:4">
       <c r="D116" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="3:4" ht="15">
+    <row r="117" spans="3:4">
       <c r="D117" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="118" spans="3:4" s="5" customFormat="1">
       <c r="D118" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="3:4" s="7" customFormat="1" ht="15">
+    <row r="119" spans="3:4" s="7" customFormat="1">
       <c r="D119" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="3:4" ht="15">
+    <row r="120" spans="3:4">
       <c r="D120" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="3:4" ht="15">
+    <row r="121" spans="3:4">
       <c r="D121" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="3:4" ht="15">
+    <row r="122" spans="3:4">
       <c r="D122" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="3:4" ht="15">
+    <row r="123" spans="3:4">
       <c r="C123" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="3:4" ht="15">
+    <row r="124" spans="3:4">
       <c r="D124" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="3:4" ht="15">
+    <row r="125" spans="3:4">
       <c r="D125" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="126" spans="3:4" s="5" customFormat="1">
       <c r="D126" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="3:4" ht="15">
+    <row r="127" spans="3:4">
       <c r="D127" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="3:4" ht="15">
+    <row r="128" spans="3:4">
       <c r="D128" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15">
+    <row r="129" spans="1:6">
       <c r="D129" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15">
+    <row r="130" spans="1:6">
       <c r="D130" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15">
+    <row r="131" spans="1:6">
       <c r="C131" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15">
+    <row r="132" spans="1:6">
       <c r="D132" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15">
+    <row r="133" spans="1:6">
       <c r="D133" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="134" spans="1:6" s="5" customFormat="1">
       <c r="D134" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15">
+    <row r="135" spans="1:6">
       <c r="D135" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15">
+    <row r="136" spans="1:6">
       <c r="D136" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15">
+    <row r="137" spans="1:6">
       <c r="D137" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15">
+    <row r="138" spans="1:6">
       <c r="D138" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="139" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
@@ -1789,187 +1789,187 @@
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15">
+    <row r="140" spans="1:6">
       <c r="B140" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15">
+    <row r="141" spans="1:6">
       <c r="D141" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15">
+    <row r="142" spans="1:6">
       <c r="D142" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15">
+    <row r="143" spans="1:6">
       <c r="D143" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15">
+    <row r="144" spans="1:6">
       <c r="D144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:4" ht="15">
+    <row r="145" spans="2:4">
       <c r="D145" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="2:4" ht="15">
+    <row r="146" spans="2:4">
       <c r="D146" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="2:4" ht="15">
+    <row r="147" spans="2:4">
       <c r="B147" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="2:4" ht="15">
+    <row r="148" spans="2:4">
       <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="2:4" ht="15">
+    <row r="149" spans="2:4">
       <c r="D149" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="2:4" ht="15">
+    <row r="150" spans="2:4">
       <c r="D150" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="2:4" ht="15">
+    <row r="151" spans="2:4">
       <c r="D151" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="2:4" ht="15">
+    <row r="152" spans="2:4">
       <c r="D152" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="2:4" ht="15">
+    <row r="153" spans="2:4">
       <c r="D153" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="2:4" ht="15">
+    <row r="154" spans="2:4">
       <c r="D154" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="2:4" ht="15">
+    <row r="155" spans="2:4">
       <c r="C155" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="2:4" ht="15">
+    <row r="156" spans="2:4">
       <c r="D156" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="2:4" ht="15">
+    <row r="157" spans="2:4">
       <c r="D157" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="2:4" ht="15">
+    <row r="158" spans="2:4">
       <c r="D158" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="2:4" ht="15">
+    <row r="159" spans="2:4">
       <c r="D159" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="2:4" ht="15">
+    <row r="160" spans="2:4">
       <c r="D160" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15">
+    <row r="161" spans="1:6">
       <c r="D161" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15">
+    <row r="162" spans="1:6">
       <c r="C162" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15">
+    <row r="163" spans="1:6">
       <c r="D163" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15">
+    <row r="164" spans="1:6">
       <c r="D164" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15">
+    <row r="165" spans="1:6">
       <c r="D165" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15">
+    <row r="166" spans="1:6">
       <c r="D166" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15">
+    <row r="167" spans="1:6">
       <c r="D167" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15">
+    <row r="168" spans="1:6">
       <c r="D168" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15">
+    <row r="169" spans="1:6">
       <c r="C169" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15">
+    <row r="170" spans="1:6">
       <c r="D170" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15">
+    <row r="171" spans="1:6">
       <c r="D171" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15">
+    <row r="172" spans="1:6">
       <c r="D172" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15">
+    <row r="173" spans="1:6">
       <c r="D173" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15">
+    <row r="174" spans="1:6">
       <c r="D174" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15">
+    <row r="175" spans="1:6">
       <c r="D175" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="176" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A176" s="2" t="s">
         <v>6</v>
       </c>
@@ -1977,87 +1977,87 @@
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="2:4" ht="15">
+    <row r="177" spans="2:4">
       <c r="B177" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="2:4" ht="15">
+    <row r="178" spans="2:4">
       <c r="D178" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="15">
+    <row r="179" spans="2:4">
       <c r="D179" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="15">
+    <row r="180" spans="2:4">
       <c r="B180" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="15">
+    <row r="181" spans="2:4">
       <c r="C181" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="15">
+    <row r="182" spans="2:4">
       <c r="D182" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="15">
+    <row r="183" spans="2:4">
       <c r="D183" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="15">
+    <row r="184" spans="2:4">
       <c r="C184" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="15">
+    <row r="185" spans="2:4">
       <c r="D185" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="15">
+    <row r="186" spans="2:4">
       <c r="D186" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="15">
+    <row r="187" spans="2:4">
       <c r="C187" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="15">
+    <row r="188" spans="2:4">
       <c r="D188" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="15">
+    <row r="189" spans="2:4">
       <c r="D189" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="15">
+    <row r="190" spans="2:4">
       <c r="C190" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="15">
+    <row r="191" spans="2:4">
       <c r="D191" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="15">
+    <row r="192" spans="2:4">
       <c r="D192" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="193" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A193" s="2" t="s">
         <v>7</v>
       </c>
@@ -2065,37 +2065,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15">
+    <row r="194" spans="1:6">
       <c r="B194" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15">
+    <row r="195" spans="1:6">
       <c r="B195" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15">
+    <row r="196" spans="1:6">
       <c r="C196" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15">
+    <row r="197" spans="1:6">
       <c r="C197" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15">
+    <row r="198" spans="1:6">
       <c r="C198" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15">
+    <row r="199" spans="1:6">
       <c r="C199" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="200" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A200" s="2" t="s">
         <v>8</v>
       </c>
@@ -2103,187 +2103,187 @@
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15">
+    <row r="201" spans="1:6">
       <c r="B201" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15">
+    <row r="202" spans="1:6">
       <c r="D202" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15">
+    <row r="203" spans="1:6">
       <c r="D203" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15">
+    <row r="204" spans="1:6">
       <c r="D204" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15">
+    <row r="205" spans="1:6">
       <c r="D205" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15">
+    <row r="206" spans="1:6">
       <c r="D206" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15">
+    <row r="207" spans="1:6">
       <c r="D207" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15">
+    <row r="208" spans="1:6">
       <c r="B208" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="3:4" ht="15">
+    <row r="209" spans="3:4">
       <c r="C209" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="3:4" ht="15">
+    <row r="210" spans="3:4">
       <c r="D210" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="3:4" ht="15">
+    <row r="211" spans="3:4">
       <c r="D211" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="3:4" ht="15">
+    <row r="212" spans="3:4">
       <c r="D212" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="3:4" ht="15">
+    <row r="213" spans="3:4">
       <c r="D213" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="3:4" ht="15">
+    <row r="214" spans="3:4">
       <c r="D214" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="215" spans="3:4" ht="15">
+    <row r="215" spans="3:4">
       <c r="D215" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="3:4" ht="15">
+    <row r="216" spans="3:4">
       <c r="C216" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="3:4" ht="15">
+    <row r="217" spans="3:4">
       <c r="D217" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="218" spans="3:4" ht="15">
+    <row r="218" spans="3:4">
       <c r="D218" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="219" spans="3:4" ht="15">
+    <row r="219" spans="3:4">
       <c r="D219" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="3:4" ht="15">
+    <row r="220" spans="3:4">
       <c r="D220" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="3:4" ht="15">
+    <row r="221" spans="3:4">
       <c r="D221" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="3:4" ht="15">
+    <row r="222" spans="3:4">
       <c r="D222" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="223" spans="3:4" ht="15">
+    <row r="223" spans="3:4">
       <c r="C223" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="3:4" ht="15">
+    <row r="224" spans="3:4">
       <c r="D224" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15">
+    <row r="225" spans="1:6">
       <c r="D225" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15">
+    <row r="226" spans="1:6">
       <c r="D226" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15">
+    <row r="227" spans="1:6">
       <c r="D227" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15">
+    <row r="228" spans="1:6">
       <c r="D228" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15">
+    <row r="229" spans="1:6">
       <c r="D229" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15">
+    <row r="230" spans="1:6">
       <c r="C230" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15">
+    <row r="231" spans="1:6">
       <c r="D231" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15">
+    <row r="232" spans="1:6">
       <c r="D232" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15">
+    <row r="233" spans="1:6">
       <c r="D233" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15">
+    <row r="234" spans="1:6">
       <c r="D234" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15">
+    <row r="235" spans="1:6">
       <c r="D235" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15">
+    <row r="236" spans="1:6">
       <c r="D236" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="237" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A237" s="2" t="s">
         <v>9</v>
       </c>
@@ -2291,137 +2291,137 @@
         <v>140</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15">
+    <row r="238" spans="1:6">
       <c r="B238" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15">
+    <row r="239" spans="1:6">
       <c r="D239" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15">
+    <row r="240" spans="1:6">
       <c r="D240" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15">
+    <row r="241" spans="2:4">
       <c r="D241" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="15">
+    <row r="242" spans="2:4">
       <c r="D242" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15">
+    <row r="243" spans="2:4">
       <c r="B243" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="15">
+    <row r="244" spans="2:4">
       <c r="C244" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="15">
+    <row r="245" spans="2:4">
       <c r="D245" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15">
+    <row r="246" spans="2:4">
       <c r="D246" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="15">
+    <row r="247" spans="2:4">
       <c r="D247" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15">
+    <row r="248" spans="2:4">
       <c r="D248" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="15">
+    <row r="249" spans="2:4">
       <c r="C249" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="15">
+    <row r="250" spans="2:4">
       <c r="D250" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="15">
+    <row r="251" spans="2:4">
       <c r="D251" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="15">
+    <row r="252" spans="2:4">
       <c r="D252" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="15">
+    <row r="253" spans="2:4">
       <c r="D253" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="15">
+    <row r="254" spans="2:4">
       <c r="C254" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="15">
+    <row r="255" spans="2:4">
       <c r="D255" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="15">
+    <row r="256" spans="2:4">
       <c r="D256" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15">
+    <row r="257" spans="1:6">
       <c r="D257" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15">
+    <row r="258" spans="1:6">
       <c r="D258" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15">
+    <row r="259" spans="1:6">
       <c r="C259" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15">
+    <row r="260" spans="1:6">
       <c r="D260" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15">
+    <row r="261" spans="1:6">
       <c r="D261" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15">
+    <row r="262" spans="1:6">
       <c r="D262" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15">
+    <row r="263" spans="1:6">
       <c r="D263" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="264" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A264" s="2" t="s">
         <v>10</v>
       </c>
@@ -2429,37 +2429,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15">
+    <row r="265" spans="1:6">
       <c r="B265" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15">
+    <row r="266" spans="1:6">
       <c r="B266" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15">
+    <row r="267" spans="1:6">
       <c r="C267" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15">
+    <row r="268" spans="1:6">
       <c r="C268" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15">
+    <row r="269" spans="1:6">
       <c r="C269" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15">
+    <row r="270" spans="1:6">
       <c r="C270" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="271" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A271" s="2" t="s">
         <v>11</v>
       </c>
@@ -2467,62 +2467,62 @@
         <v>141</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15">
+    <row r="272" spans="1:6">
       <c r="B272" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15">
+    <row r="273" spans="1:6">
       <c r="D273" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15">
+    <row r="274" spans="1:6">
       <c r="B274" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15">
+    <row r="275" spans="1:6">
       <c r="C275" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15">
+    <row r="276" spans="1:6">
       <c r="D276" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15">
+    <row r="277" spans="1:6">
       <c r="C277" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15">
+    <row r="278" spans="1:6">
       <c r="D278" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15">
+    <row r="279" spans="1:6">
       <c r="C279" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15">
+    <row r="280" spans="1:6">
       <c r="D280" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15">
+    <row r="281" spans="1:6">
       <c r="C281" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15">
+    <row r="282" spans="1:6">
       <c r="D282" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="283" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A283" s="2" t="s">
         <v>12</v>
       </c>
@@ -2530,37 +2530,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15">
+    <row r="284" spans="1:6">
       <c r="B284" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15">
+    <row r="285" spans="1:6">
       <c r="B285" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15">
+    <row r="286" spans="1:6">
       <c r="C286" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15">
+    <row r="287" spans="1:6">
       <c r="C287" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15">
+    <row r="288" spans="1:6">
       <c r="C288" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15">
+    <row r="289" spans="1:6">
       <c r="C289" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="290" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="290" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A290" s="2" t="s">
         <v>13</v>
       </c>
@@ -2568,187 +2568,187 @@
         <v>165</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15">
+    <row r="291" spans="1:6">
       <c r="B291" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15">
+    <row r="292" spans="1:6">
       <c r="D292" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15">
+    <row r="293" spans="1:6">
       <c r="E293" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15">
+    <row r="294" spans="1:6">
       <c r="E294" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15">
+    <row r="295" spans="1:6">
       <c r="E295" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15">
+    <row r="296" spans="1:6">
       <c r="E296" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15">
+    <row r="297" spans="1:6">
       <c r="E297" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15">
+    <row r="298" spans="1:6">
       <c r="B298" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15">
+    <row r="299" spans="1:6">
       <c r="C299" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15">
+    <row r="300" spans="1:6">
       <c r="D300" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15">
+    <row r="301" spans="1:6">
       <c r="E301" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15">
+    <row r="302" spans="1:6">
       <c r="E302" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15">
+    <row r="303" spans="1:6">
       <c r="E303" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15">
+    <row r="304" spans="1:6">
       <c r="E304" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="305" spans="3:5" ht="15">
+    <row r="305" spans="3:5">
       <c r="E305" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="306" spans="3:5" ht="15">
+    <row r="306" spans="3:5">
       <c r="C306" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="3:5" ht="15">
+    <row r="307" spans="3:5">
       <c r="D307" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="308" spans="3:5" ht="15">
+    <row r="308" spans="3:5">
       <c r="E308" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="309" spans="3:5" ht="15">
+    <row r="309" spans="3:5">
       <c r="E309" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="310" spans="3:5" ht="15">
+    <row r="310" spans="3:5">
       <c r="E310" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="311" spans="3:5" ht="15">
+    <row r="311" spans="3:5">
       <c r="E311" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="312" spans="3:5" ht="15">
+    <row r="312" spans="3:5">
       <c r="E312" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="3:5" ht="15">
+    <row r="313" spans="3:5">
       <c r="C313" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="314" spans="3:5" ht="15">
+    <row r="314" spans="3:5">
       <c r="D314" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="3:5" ht="15">
+    <row r="315" spans="3:5">
       <c r="E315" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="316" spans="3:5" ht="15">
+    <row r="316" spans="3:5">
       <c r="E316" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="317" spans="3:5" ht="15">
+    <row r="317" spans="3:5">
       <c r="E317" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="318" spans="3:5" ht="15">
+    <row r="318" spans="3:5">
       <c r="E318" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="319" spans="3:5" ht="15">
+    <row r="319" spans="3:5">
       <c r="E319" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="320" spans="3:5" ht="15">
+    <row r="320" spans="3:5">
       <c r="C320" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="15">
+    <row r="321" spans="1:6">
       <c r="D321" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15">
+    <row r="322" spans="1:6">
       <c r="E322" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="15">
+    <row r="323" spans="1:6">
       <c r="E323" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="15">
+    <row r="324" spans="1:6">
       <c r="E324" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="15">
+    <row r="325" spans="1:6">
       <c r="E325" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="15">
+    <row r="326" spans="1:6">
       <c r="E326" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="327" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A327" s="2" t="s">
         <v>14</v>
       </c>
@@ -2756,37 +2756,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15">
+    <row r="328" spans="1:6">
       <c r="B328" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="15">
+    <row r="329" spans="1:6">
       <c r="B329" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15">
+    <row r="330" spans="1:6">
       <c r="C330" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15">
+    <row r="331" spans="1:6">
       <c r="C331" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15">
+    <row r="332" spans="1:6">
       <c r="C332" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="15">
+    <row r="333" spans="1:6">
       <c r="C333" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="334" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A334" s="2" t="s">
         <v>131</v>
       </c>
@@ -2794,37 +2794,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15">
+    <row r="335" spans="1:6">
       <c r="B335" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15">
+    <row r="336" spans="1:6">
       <c r="B336" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="15">
+    <row r="337" spans="1:6">
       <c r="C337" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15">
+    <row r="338" spans="1:6">
       <c r="C338" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="15">
+    <row r="339" spans="1:6">
       <c r="C339" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="15">
+    <row r="340" spans="1:6">
       <c r="C340" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="341" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A341" s="2" t="s">
         <v>130</v>
       </c>
@@ -2832,37 +2832,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15">
+    <row r="342" spans="1:6">
       <c r="B342" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="15">
+    <row r="343" spans="1:6">
       <c r="B343" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="15">
+    <row r="344" spans="1:6">
       <c r="C344" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="15">
+    <row r="345" spans="1:6">
       <c r="C345" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="15">
+    <row r="346" spans="1:6">
       <c r="C346" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="15">
+    <row r="347" spans="1:6">
       <c r="C347" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="348" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A348" s="2" t="s">
         <v>128</v>
       </c>
@@ -2870,37 +2870,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="15">
+    <row r="349" spans="1:6">
       <c r="B349" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="15">
+    <row r="350" spans="1:6">
       <c r="B350" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="15">
+    <row r="351" spans="1:6">
       <c r="C351" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="15">
+    <row r="352" spans="1:6">
       <c r="C352" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="15">
+    <row r="353" spans="1:6">
       <c r="C353" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="15">
+    <row r="354" spans="1:6">
       <c r="C354" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="355" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="355" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A355" s="2" t="s">
         <v>129</v>
       </c>
@@ -2908,37 +2908,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="15">
+    <row r="356" spans="1:6">
       <c r="B356" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="15">
+    <row r="357" spans="1:6">
       <c r="B357" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="15">
+    <row r="358" spans="1:6">
       <c r="C358" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="15">
+    <row r="359" spans="1:6">
       <c r="C359" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="15">
+    <row r="360" spans="1:6">
       <c r="C360" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="15">
+    <row r="361" spans="1:6">
       <c r="C361" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="362" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="362" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A362" s="2" t="s">
         <v>15</v>
       </c>
@@ -2946,37 +2946,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="15">
+    <row r="363" spans="1:6">
       <c r="B363" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="15">
+    <row r="364" spans="1:6">
       <c r="B364" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="15">
+    <row r="365" spans="1:6">
       <c r="C365" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15">
+    <row r="366" spans="1:6">
       <c r="C366" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="15">
+    <row r="367" spans="1:6">
       <c r="C367" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="15">
+    <row r="368" spans="1:6">
       <c r="C368" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="369" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A369" s="2" t="s">
         <v>16</v>
       </c>
@@ -2984,37 +2984,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="15">
+    <row r="370" spans="1:6">
       <c r="B370" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="15">
+    <row r="371" spans="1:6">
       <c r="B371" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="15">
+    <row r="372" spans="1:6">
       <c r="C372" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="15">
+    <row r="373" spans="1:6">
       <c r="C373" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="15">
+    <row r="374" spans="1:6">
       <c r="C374" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="15">
+    <row r="375" spans="1:6">
       <c r="C375" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="376" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="376" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A376" s="2" t="s">
         <v>17</v>
       </c>
@@ -3022,712 +3022,712 @@
         <v>165</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="15">
+    <row r="377" spans="1:6">
       <c r="B377" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="15">
+    <row r="378" spans="1:6">
       <c r="D378" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="15">
+    <row r="379" spans="1:6">
       <c r="E379" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="15">
+    <row r="380" spans="1:6">
       <c r="E380" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="15">
+    <row r="381" spans="1:6">
       <c r="E381" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15">
+    <row r="382" spans="1:6">
       <c r="E382" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="15">
+    <row r="383" spans="1:6">
       <c r="E383" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="15">
+    <row r="384" spans="1:6">
       <c r="E384" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="385" spans="4:5" ht="15">
+    <row r="385" spans="4:5">
       <c r="E385" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="386" spans="4:5" ht="15">
+    <row r="386" spans="4:5">
       <c r="E386" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="387" spans="4:5" ht="15">
+    <row r="387" spans="4:5">
       <c r="D387" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="388" spans="4:5" ht="15">
+    <row r="388" spans="4:5">
       <c r="E388" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="389" spans="4:5" ht="15">
+    <row r="389" spans="4:5">
       <c r="E389" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="390" spans="4:5" ht="15">
+    <row r="390" spans="4:5">
       <c r="E390" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="391" spans="4:5" ht="15">
+    <row r="391" spans="4:5">
       <c r="E391" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="392" spans="4:5" ht="15">
+    <row r="392" spans="4:5">
       <c r="E392" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="393" spans="4:5" ht="15">
+    <row r="393" spans="4:5">
       <c r="E393" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="394" spans="4:5" ht="15">
+    <row r="394" spans="4:5">
       <c r="E394" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="395" spans="4:5" ht="15">
+    <row r="395" spans="4:5">
       <c r="E395" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="396" spans="4:5" ht="15">
+    <row r="396" spans="4:5">
       <c r="D396" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="397" spans="4:5" ht="15">
+    <row r="397" spans="4:5">
       <c r="E397" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="398" spans="4:5" ht="15">
+    <row r="398" spans="4:5">
       <c r="E398" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="399" spans="4:5" ht="15">
+    <row r="399" spans="4:5">
       <c r="E399" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="400" spans="4:5" ht="15">
+    <row r="400" spans="4:5">
       <c r="E400" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="401" spans="2:5" ht="15">
+    <row r="401" spans="2:5">
       <c r="E401" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="402" spans="2:5" ht="15">
+    <row r="402" spans="2:5">
       <c r="E402" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="403" spans="2:5" ht="15">
+    <row r="403" spans="2:5">
       <c r="E403" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="404" spans="2:5" ht="15">
+    <row r="404" spans="2:5">
       <c r="E404" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="405" spans="2:5" ht="15">
+    <row r="405" spans="2:5">
       <c r="B405" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="406" spans="2:5" ht="15">
+    <row r="406" spans="2:5">
       <c r="C406" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="407" spans="2:5" ht="15">
+    <row r="407" spans="2:5">
       <c r="D407" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="408" spans="2:5" ht="15">
+    <row r="408" spans="2:5">
       <c r="E408" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="409" spans="2:5" ht="15">
+    <row r="409" spans="2:5">
       <c r="E409" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="410" spans="2:5" ht="15">
+    <row r="410" spans="2:5">
       <c r="E410" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="411" spans="2:5" ht="15">
+    <row r="411" spans="2:5">
       <c r="E411" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="412" spans="2:5" ht="15">
+    <row r="412" spans="2:5">
       <c r="E412" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="413" spans="2:5" ht="15">
+    <row r="413" spans="2:5">
       <c r="E413" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="414" spans="2:5" ht="15">
+    <row r="414" spans="2:5">
       <c r="E414" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="415" spans="2:5" ht="15">
+    <row r="415" spans="2:5">
       <c r="E415" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="416" spans="2:5" ht="15">
+    <row r="416" spans="2:5">
       <c r="D416" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="417" spans="4:5" ht="15">
+    <row r="417" spans="4:5">
       <c r="E417" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="418" spans="4:5" ht="15">
+    <row r="418" spans="4:5">
       <c r="E418" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="419" spans="4:5" ht="15">
+    <row r="419" spans="4:5">
       <c r="E419" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="420" spans="4:5" ht="15">
+    <row r="420" spans="4:5">
       <c r="E420" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="421" spans="4:5" ht="15">
+    <row r="421" spans="4:5">
       <c r="E421" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="422" spans="4:5" ht="15">
+    <row r="422" spans="4:5">
       <c r="E422" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="423" spans="4:5" ht="15">
+    <row r="423" spans="4:5">
       <c r="E423" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="424" spans="4:5" ht="15">
+    <row r="424" spans="4:5">
       <c r="E424" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="425" spans="4:5" ht="15">
+    <row r="425" spans="4:5">
       <c r="D425" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="426" spans="4:5" ht="15">
+    <row r="426" spans="4:5">
       <c r="E426" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="427" spans="4:5" ht="15">
+    <row r="427" spans="4:5">
       <c r="E427" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="428" spans="4:5" ht="15">
+    <row r="428" spans="4:5">
       <c r="E428" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="429" spans="4:5" ht="15">
+    <row r="429" spans="4:5">
       <c r="E429" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="430" spans="4:5" ht="15">
+    <row r="430" spans="4:5">
       <c r="E430" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="431" spans="4:5" ht="15">
+    <row r="431" spans="4:5">
       <c r="E431" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="432" spans="4:5" ht="15">
+    <row r="432" spans="4:5">
       <c r="E432" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="433" spans="3:5" ht="15">
+    <row r="433" spans="3:5">
       <c r="E433" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="434" spans="3:5" ht="15">
+    <row r="434" spans="3:5">
       <c r="C434" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="435" spans="3:5" ht="15">
+    <row r="435" spans="3:5">
       <c r="D435" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="436" spans="3:5" ht="15">
+    <row r="436" spans="3:5">
       <c r="E436" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="437" spans="3:5" ht="15">
+    <row r="437" spans="3:5">
       <c r="E437" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="438" spans="3:5" ht="15">
+    <row r="438" spans="3:5">
       <c r="E438" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="439" spans="3:5" ht="15">
+    <row r="439" spans="3:5">
       <c r="E439" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="440" spans="3:5" ht="15">
+    <row r="440" spans="3:5">
       <c r="E440" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="441" spans="3:5" ht="15">
+    <row r="441" spans="3:5">
       <c r="E441" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="442" spans="3:5" ht="15">
+    <row r="442" spans="3:5">
       <c r="E442" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="443" spans="3:5" ht="15">
+    <row r="443" spans="3:5">
       <c r="E443" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="444" spans="3:5" ht="15">
+    <row r="444" spans="3:5">
       <c r="D444" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="445" spans="3:5" ht="15">
+    <row r="445" spans="3:5">
       <c r="E445" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="446" spans="3:5" ht="15">
+    <row r="446" spans="3:5">
       <c r="E446" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="447" spans="3:5" ht="15">
+    <row r="447" spans="3:5">
       <c r="E447" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="448" spans="3:5" ht="15">
+    <row r="448" spans="3:5">
       <c r="E448" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="449" spans="3:5" ht="15">
+    <row r="449" spans="3:5">
       <c r="E449" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="450" spans="3:5" ht="15">
+    <row r="450" spans="3:5">
       <c r="E450" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="451" spans="3:5" ht="15">
+    <row r="451" spans="3:5">
       <c r="E451" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="452" spans="3:5" ht="15">
+    <row r="452" spans="3:5">
       <c r="E452" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="453" spans="3:5" ht="15">
+    <row r="453" spans="3:5">
       <c r="D453" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="454" spans="3:5" ht="15">
+    <row r="454" spans="3:5">
       <c r="E454" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="3:5" ht="15">
+    <row r="455" spans="3:5">
       <c r="E455" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="456" spans="3:5" ht="15">
+    <row r="456" spans="3:5">
       <c r="E456" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="457" spans="3:5" ht="15">
+    <row r="457" spans="3:5">
       <c r="E457" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="458" spans="3:5" ht="15">
+    <row r="458" spans="3:5">
       <c r="E458" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="459" spans="3:5" ht="15">
+    <row r="459" spans="3:5">
       <c r="E459" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="460" spans="3:5" ht="15">
+    <row r="460" spans="3:5">
       <c r="E460" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="461" spans="3:5" ht="15">
+    <row r="461" spans="3:5">
       <c r="E461" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="462" spans="3:5" ht="15">
+    <row r="462" spans="3:5">
       <c r="C462" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="463" spans="3:5" ht="15">
+    <row r="463" spans="3:5">
       <c r="D463" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="464" spans="3:5" ht="15">
+    <row r="464" spans="3:5">
       <c r="E464" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="465" spans="4:5" ht="15">
+    <row r="465" spans="4:5">
       <c r="E465" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="466" spans="4:5" ht="15">
+    <row r="466" spans="4:5">
       <c r="E466" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="467" spans="4:5" ht="15">
+    <row r="467" spans="4:5">
       <c r="E467" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="468" spans="4:5" ht="15">
+    <row r="468" spans="4:5">
       <c r="E468" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="469" spans="4:5" ht="15">
+    <row r="469" spans="4:5">
       <c r="E469" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="470" spans="4:5" ht="15">
+    <row r="470" spans="4:5">
       <c r="E470" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="471" spans="4:5" ht="15">
+    <row r="471" spans="4:5">
       <c r="E471" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="472" spans="4:5" ht="15">
+    <row r="472" spans="4:5">
       <c r="D472" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="473" spans="4:5" ht="15">
+    <row r="473" spans="4:5">
       <c r="E473" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="474" spans="4:5" ht="15">
+    <row r="474" spans="4:5">
       <c r="E474" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="475" spans="4:5" ht="15">
+    <row r="475" spans="4:5">
       <c r="E475" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="476" spans="4:5" ht="15">
+    <row r="476" spans="4:5">
       <c r="E476" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="477" spans="4:5" ht="15">
+    <row r="477" spans="4:5">
       <c r="E477" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="478" spans="4:5" ht="15">
+    <row r="478" spans="4:5">
       <c r="E478" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="479" spans="4:5" ht="15">
+    <row r="479" spans="4:5">
       <c r="E479" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="480" spans="4:5" ht="15">
+    <row r="480" spans="4:5">
       <c r="E480" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="481" spans="3:5" ht="15">
+    <row r="481" spans="3:5">
       <c r="D481" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="482" spans="3:5" ht="15">
+    <row r="482" spans="3:5">
       <c r="E482" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="483" spans="3:5" ht="15">
+    <row r="483" spans="3:5">
       <c r="E483" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="484" spans="3:5" ht="15">
+    <row r="484" spans="3:5">
       <c r="E484" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="485" spans="3:5" ht="15">
+    <row r="485" spans="3:5">
       <c r="E485" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="486" spans="3:5" ht="15">
+    <row r="486" spans="3:5">
       <c r="E486" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="487" spans="3:5" ht="15">
+    <row r="487" spans="3:5">
       <c r="E487" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="488" spans="3:5" ht="15">
+    <row r="488" spans="3:5">
       <c r="E488" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="489" spans="3:5" ht="15">
+    <row r="489" spans="3:5">
       <c r="E489" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="490" spans="3:5" ht="15">
+    <row r="490" spans="3:5">
       <c r="C490" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="491" spans="3:5" ht="15">
+    <row r="491" spans="3:5">
       <c r="D491" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="492" spans="3:5" ht="15">
+    <row r="492" spans="3:5">
       <c r="E492" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="493" spans="3:5" ht="15">
+    <row r="493" spans="3:5">
       <c r="E493" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="494" spans="3:5" ht="15">
+    <row r="494" spans="3:5">
       <c r="E494" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="495" spans="3:5" ht="15">
+    <row r="495" spans="3:5">
       <c r="E495" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="496" spans="3:5" ht="15">
+    <row r="496" spans="3:5">
       <c r="E496" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="497" spans="4:5" ht="15">
+    <row r="497" spans="4:5">
       <c r="E497" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="498" spans="4:5" ht="15">
+    <row r="498" spans="4:5">
       <c r="E498" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="499" spans="4:5" ht="15">
+    <row r="499" spans="4:5">
       <c r="E499" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="500" spans="4:5" ht="15">
+    <row r="500" spans="4:5">
       <c r="D500" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="501" spans="4:5" ht="15">
+    <row r="501" spans="4:5">
       <c r="E501" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="502" spans="4:5" ht="15">
+    <row r="502" spans="4:5">
       <c r="E502" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="503" spans="4:5" ht="15">
+    <row r="503" spans="4:5">
       <c r="E503" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="504" spans="4:5" ht="15">
+    <row r="504" spans="4:5">
       <c r="E504" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="505" spans="4:5" ht="15">
+    <row r="505" spans="4:5">
       <c r="E505" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="506" spans="4:5" ht="15">
+    <row r="506" spans="4:5">
       <c r="E506" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="507" spans="4:5" ht="15">
+    <row r="507" spans="4:5">
       <c r="E507" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="508" spans="4:5" ht="15">
+    <row r="508" spans="4:5">
       <c r="E508" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="509" spans="4:5" ht="15">
+    <row r="509" spans="4:5">
       <c r="D509" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="510" spans="4:5" ht="15">
+    <row r="510" spans="4:5">
       <c r="E510" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="511" spans="4:5" ht="15">
+    <row r="511" spans="4:5">
       <c r="E511" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="512" spans="4:5" ht="15">
+    <row r="512" spans="4:5">
       <c r="E512" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="15">
+    <row r="513" spans="1:7">
       <c r="E513" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="15">
+    <row r="514" spans="1:7">
       <c r="E514" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="15">
+    <row r="515" spans="1:7">
       <c r="E515" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="15">
+    <row r="516" spans="1:7">
       <c r="E516" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="15">
+    <row r="517" spans="1:7">
       <c r="E517" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="518" spans="1:7" s="3" customFormat="1" ht="15">
+    <row r="518" spans="1:7" s="3" customFormat="1" ht="14.4">
       <c r="A518" s="2" t="s">
         <v>18</v>
       </c>
@@ -3735,37 +3735,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="15">
+    <row r="519" spans="1:7">
       <c r="B519" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="15">
+    <row r="520" spans="1:7">
       <c r="B520" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="15">
+    <row r="521" spans="1:7">
       <c r="C521" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="15">
+    <row r="522" spans="1:7">
       <c r="C522" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="15">
+    <row r="523" spans="1:7">
       <c r="C523" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="15">
+    <row r="524" spans="1:7">
       <c r="C524" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="525" spans="1:7" s="3" customFormat="1" ht="15">
+    <row r="525" spans="1:7" s="3" customFormat="1" ht="14.4">
       <c r="A525" s="2" t="s">
         <v>19</v>
       </c>
@@ -3773,737 +3773,737 @@
         <v>164</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="15">
+    <row r="526" spans="1:7">
       <c r="B526" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="15">
+    <row r="527" spans="1:7">
       <c r="G527" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="15">
+    <row r="528" spans="1:7">
       <c r="G528" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="529" spans="7:7" ht="15">
+    <row r="529" spans="7:7">
       <c r="G529" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="530" spans="7:7" ht="15">
+    <row r="530" spans="7:7">
       <c r="G530" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="531" spans="7:7" ht="15">
+    <row r="531" spans="7:7">
       <c r="G531" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="532" spans="7:7" ht="15">
+    <row r="532" spans="7:7">
       <c r="G532" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="533" spans="7:7" ht="15">
+    <row r="533" spans="7:7">
       <c r="G533" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="534" spans="7:7" ht="15">
+    <row r="534" spans="7:7">
       <c r="G534" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="535" spans="7:7" ht="15">
+    <row r="535" spans="7:7">
       <c r="G535" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="536" spans="7:7" ht="15">
+    <row r="536" spans="7:7">
       <c r="G536" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="537" spans="7:7" ht="15">
+    <row r="537" spans="7:7">
       <c r="G537" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="538" spans="7:7" ht="15">
+    <row r="538" spans="7:7">
       <c r="G538" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="539" spans="7:7" ht="15">
+    <row r="539" spans="7:7">
       <c r="G539" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="540" spans="7:7" ht="15">
+    <row r="540" spans="7:7">
       <c r="G540" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="541" spans="7:7" ht="15">
+    <row r="541" spans="7:7">
       <c r="G541" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="542" spans="7:7" ht="15">
+    <row r="542" spans="7:7">
       <c r="G542" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="543" spans="7:7" ht="15">
+    <row r="543" spans="7:7">
       <c r="G543" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="544" spans="7:7" ht="15">
+    <row r="544" spans="7:7">
       <c r="G544" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="545" spans="2:7" ht="15">
+    <row r="545" spans="2:7">
       <c r="G545" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="546" spans="2:7" ht="15">
+    <row r="546" spans="2:7">
       <c r="G546" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="547" spans="2:7" ht="15">
+    <row r="547" spans="2:7">
       <c r="G547" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="548" spans="2:7" ht="15">
+    <row r="548" spans="2:7">
       <c r="G548" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="549" spans="2:7" ht="15">
+    <row r="549" spans="2:7">
       <c r="G549" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="550" spans="2:7" ht="15">
+    <row r="550" spans="2:7">
       <c r="G550" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="551" spans="2:7" ht="15">
+    <row r="551" spans="2:7">
       <c r="G551" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="552" spans="2:7" ht="15">
+    <row r="552" spans="2:7">
       <c r="G552" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="553" spans="2:7" ht="15">
+    <row r="553" spans="2:7">
       <c r="G553" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="554" spans="2:7" ht="15">
+    <row r="554" spans="2:7">
       <c r="G554" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="555" spans="2:7" ht="15">
+    <row r="555" spans="2:7">
       <c r="B555" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="556" spans="2:7" ht="15">
+    <row r="556" spans="2:7">
       <c r="C556" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="557" spans="2:7" ht="15">
+    <row r="557" spans="2:7">
       <c r="G557" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="558" spans="2:7" ht="15">
+    <row r="558" spans="2:7">
       <c r="G558" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="559" spans="2:7" ht="15">
+    <row r="559" spans="2:7">
       <c r="G559" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="560" spans="2:7" ht="15">
+    <row r="560" spans="2:7">
       <c r="G560" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="561" spans="7:7" ht="15">
+    <row r="561" spans="7:7">
       <c r="G561" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="562" spans="7:7" ht="15">
+    <row r="562" spans="7:7">
       <c r="G562" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="563" spans="7:7" ht="15">
+    <row r="563" spans="7:7">
       <c r="G563" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="564" spans="7:7" ht="15">
+    <row r="564" spans="7:7">
       <c r="G564" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="565" spans="7:7" ht="15">
+    <row r="565" spans="7:7">
       <c r="G565" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="566" spans="7:7" ht="15">
+    <row r="566" spans="7:7">
       <c r="G566" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="567" spans="7:7" ht="15">
+    <row r="567" spans="7:7">
       <c r="G567" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="568" spans="7:7" ht="15">
+    <row r="568" spans="7:7">
       <c r="G568" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="569" spans="7:7" ht="15">
+    <row r="569" spans="7:7">
       <c r="G569" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="570" spans="7:7" ht="15">
+    <row r="570" spans="7:7">
       <c r="G570" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="571" spans="7:7" ht="15">
+    <row r="571" spans="7:7">
       <c r="G571" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="572" spans="7:7" ht="15">
+    <row r="572" spans="7:7">
       <c r="G572" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="573" spans="7:7" ht="15">
+    <row r="573" spans="7:7">
       <c r="G573" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="574" spans="7:7" ht="15">
+    <row r="574" spans="7:7">
       <c r="G574" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="575" spans="7:7" ht="15">
+    <row r="575" spans="7:7">
       <c r="G575" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="576" spans="7:7" ht="15">
+    <row r="576" spans="7:7">
       <c r="G576" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="577" spans="3:7" ht="15">
+    <row r="577" spans="3:7">
       <c r="G577" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="578" spans="3:7" ht="15">
+    <row r="578" spans="3:7">
       <c r="G578" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="579" spans="3:7" ht="15">
+    <row r="579" spans="3:7">
       <c r="G579" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="580" spans="3:7" ht="15">
+    <row r="580" spans="3:7">
       <c r="G580" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="581" spans="3:7" ht="15">
+    <row r="581" spans="3:7">
       <c r="G581" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="582" spans="3:7" ht="15">
+    <row r="582" spans="3:7">
       <c r="G582" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="583" spans="3:7" ht="15">
+    <row r="583" spans="3:7">
       <c r="G583" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="584" spans="3:7" ht="15">
+    <row r="584" spans="3:7">
       <c r="G584" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="585" spans="3:7" ht="15">
+    <row r="585" spans="3:7">
       <c r="C585" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="586" spans="3:7" ht="15">
+    <row r="586" spans="3:7">
       <c r="G586" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="587" spans="3:7" ht="15">
+    <row r="587" spans="3:7">
       <c r="G587" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="588" spans="3:7" ht="15">
+    <row r="588" spans="3:7">
       <c r="G588" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="589" spans="3:7" ht="15">
+    <row r="589" spans="3:7">
       <c r="G589" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="590" spans="3:7" ht="15">
+    <row r="590" spans="3:7">
       <c r="G590" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="591" spans="3:7" ht="15">
+    <row r="591" spans="3:7">
       <c r="G591" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="592" spans="3:7" ht="15">
+    <row r="592" spans="3:7">
       <c r="G592" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="593" spans="7:7" ht="15">
+    <row r="593" spans="7:7">
       <c r="G593" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="594" spans="7:7" ht="15">
+    <row r="594" spans="7:7">
       <c r="G594" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="595" spans="7:7" ht="15">
+    <row r="595" spans="7:7">
       <c r="G595" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="596" spans="7:7" ht="15">
+    <row r="596" spans="7:7">
       <c r="G596" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="597" spans="7:7" ht="15">
+    <row r="597" spans="7:7">
       <c r="G597" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="598" spans="7:7" ht="15">
+    <row r="598" spans="7:7">
       <c r="G598" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="599" spans="7:7" ht="15">
+    <row r="599" spans="7:7">
       <c r="G599" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="600" spans="7:7" ht="15">
+    <row r="600" spans="7:7">
       <c r="G600" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="601" spans="7:7" ht="15">
+    <row r="601" spans="7:7">
       <c r="G601" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="602" spans="7:7" ht="15">
+    <row r="602" spans="7:7">
       <c r="G602" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="603" spans="7:7" ht="15">
+    <row r="603" spans="7:7">
       <c r="G603" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="604" spans="7:7" ht="15">
+    <row r="604" spans="7:7">
       <c r="G604" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="605" spans="7:7" ht="15">
+    <row r="605" spans="7:7">
       <c r="G605" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="606" spans="7:7" ht="15">
+    <row r="606" spans="7:7">
       <c r="G606" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="607" spans="7:7" ht="15">
+    <row r="607" spans="7:7">
       <c r="G607" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="608" spans="7:7" ht="15">
+    <row r="608" spans="7:7">
       <c r="G608" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="609" spans="3:7" ht="15">
+    <row r="609" spans="3:7">
       <c r="G609" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="610" spans="3:7" ht="15">
+    <row r="610" spans="3:7">
       <c r="G610" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="611" spans="3:7" ht="15">
+    <row r="611" spans="3:7">
       <c r="G611" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="612" spans="3:7" ht="15">
+    <row r="612" spans="3:7">
       <c r="G612" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="613" spans="3:7" ht="15">
+    <row r="613" spans="3:7">
       <c r="G613" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="614" spans="3:7" ht="15">
+    <row r="614" spans="3:7">
       <c r="C614" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="615" spans="3:7" ht="15">
+    <row r="615" spans="3:7">
       <c r="G615" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="616" spans="3:7" ht="15">
+    <row r="616" spans="3:7">
       <c r="G616" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="617" spans="3:7" ht="15">
+    <row r="617" spans="3:7">
       <c r="G617" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="618" spans="3:7" ht="15">
+    <row r="618" spans="3:7">
       <c r="G618" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="619" spans="3:7" ht="15">
+    <row r="619" spans="3:7">
       <c r="G619" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="620" spans="3:7" ht="15">
+    <row r="620" spans="3:7">
       <c r="G620" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="621" spans="3:7" ht="15">
+    <row r="621" spans="3:7">
       <c r="G621" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="622" spans="3:7" ht="15">
+    <row r="622" spans="3:7">
       <c r="G622" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="623" spans="3:7" ht="15">
+    <row r="623" spans="3:7">
       <c r="G623" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="624" spans="3:7" ht="15">
+    <row r="624" spans="3:7">
       <c r="G624" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="625" spans="7:7" ht="15">
+    <row r="625" spans="7:7">
       <c r="G625" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="626" spans="7:7" ht="15">
+    <row r="626" spans="7:7">
       <c r="G626" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="627" spans="7:7" ht="15">
+    <row r="627" spans="7:7">
       <c r="G627" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="628" spans="7:7" ht="15">
+    <row r="628" spans="7:7">
       <c r="G628" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="629" spans="7:7" ht="15">
+    <row r="629" spans="7:7">
       <c r="G629" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="630" spans="7:7" ht="15">
+    <row r="630" spans="7:7">
       <c r="G630" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="631" spans="7:7" ht="15">
+    <row r="631" spans="7:7">
       <c r="G631" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="632" spans="7:7" ht="15">
+    <row r="632" spans="7:7">
       <c r="G632" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="633" spans="7:7" ht="15">
+    <row r="633" spans="7:7">
       <c r="G633" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="634" spans="7:7" ht="15">
+    <row r="634" spans="7:7">
       <c r="G634" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="635" spans="7:7" ht="15">
+    <row r="635" spans="7:7">
       <c r="G635" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="636" spans="7:7" ht="15">
+    <row r="636" spans="7:7">
       <c r="G636" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="637" spans="7:7" ht="15">
+    <row r="637" spans="7:7">
       <c r="G637" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="638" spans="7:7" ht="15">
+    <row r="638" spans="7:7">
       <c r="G638" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="639" spans="7:7" ht="15">
+    <row r="639" spans="7:7">
       <c r="G639" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="640" spans="7:7" ht="15">
+    <row r="640" spans="7:7">
       <c r="G640" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="641" spans="3:7" ht="15">
+    <row r="641" spans="3:7">
       <c r="G641" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="642" spans="3:7" ht="15">
+    <row r="642" spans="3:7">
       <c r="G642" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="643" spans="3:7" ht="15">
+    <row r="643" spans="3:7">
       <c r="C643" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="644" spans="3:7" ht="15">
+    <row r="644" spans="3:7">
       <c r="G644" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="645" spans="3:7" ht="15">
+    <row r="645" spans="3:7">
       <c r="G645" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="646" spans="3:7" ht="15">
+    <row r="646" spans="3:7">
       <c r="G646" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="647" spans="3:7" ht="15">
+    <row r="647" spans="3:7">
       <c r="G647" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="648" spans="3:7" ht="15">
+    <row r="648" spans="3:7">
       <c r="G648" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="649" spans="3:7" ht="15">
+    <row r="649" spans="3:7">
       <c r="G649" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="650" spans="3:7" ht="15">
+    <row r="650" spans="3:7">
       <c r="G650" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="651" spans="3:7" ht="15">
+    <row r="651" spans="3:7">
       <c r="G651" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="652" spans="3:7" ht="15">
+    <row r="652" spans="3:7">
       <c r="G652" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="653" spans="3:7" ht="15">
+    <row r="653" spans="3:7">
       <c r="G653" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="654" spans="3:7" ht="15">
+    <row r="654" spans="3:7">
       <c r="G654" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="655" spans="3:7" ht="15">
+    <row r="655" spans="3:7">
       <c r="G655" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="656" spans="3:7" ht="15">
+    <row r="656" spans="3:7">
       <c r="G656" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="15">
+    <row r="657" spans="1:7">
       <c r="G657" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="15">
+    <row r="658" spans="1:7">
       <c r="G658" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="15">
+    <row r="659" spans="1:7">
       <c r="G659" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="15">
+    <row r="660" spans="1:7">
       <c r="G660" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="15">
+    <row r="661" spans="1:7">
       <c r="G661" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="15">
+    <row r="662" spans="1:7">
       <c r="G662" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="15">
+    <row r="663" spans="1:7">
       <c r="G663" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="15">
+    <row r="664" spans="1:7">
       <c r="G664" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="15">
+    <row r="665" spans="1:7">
       <c r="G665" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="15">
+    <row r="666" spans="1:7">
       <c r="G666" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="15">
+    <row r="667" spans="1:7">
       <c r="G667" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="15">
+    <row r="668" spans="1:7">
       <c r="G668" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="15">
+    <row r="669" spans="1:7">
       <c r="G669" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="15">
+    <row r="670" spans="1:7">
       <c r="G670" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="15">
+    <row r="671" spans="1:7">
       <c r="G671" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="672" spans="1:7" s="3" customFormat="1" ht="15">
+    <row r="672" spans="1:7" s="3" customFormat="1" ht="14.4">
       <c r="A672" s="2" t="s">
         <v>20</v>
       </c>
@@ -4511,737 +4511,737 @@
         <v>164</v>
       </c>
     </row>
-    <row r="673" spans="2:7" ht="15">
+    <row r="673" spans="2:7">
       <c r="B673" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="674" spans="2:7" ht="15">
+    <row r="674" spans="2:7">
       <c r="G674" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="675" spans="2:7" ht="15">
+    <row r="675" spans="2:7">
       <c r="G675" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="676" spans="2:7" ht="15">
+    <row r="676" spans="2:7">
       <c r="G676" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="677" spans="2:7" ht="15">
+    <row r="677" spans="2:7">
       <c r="G677" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="678" spans="2:7" ht="15">
+    <row r="678" spans="2:7">
       <c r="G678" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="679" spans="2:7" ht="15">
+    <row r="679" spans="2:7">
       <c r="G679" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="680" spans="2:7" ht="15">
+    <row r="680" spans="2:7">
       <c r="G680" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="681" spans="2:7" ht="15">
+    <row r="681" spans="2:7">
       <c r="G681" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="682" spans="2:7" ht="15">
+    <row r="682" spans="2:7">
       <c r="G682" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="683" spans="2:7" ht="15">
+    <row r="683" spans="2:7">
       <c r="G683" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="684" spans="2:7" ht="15">
+    <row r="684" spans="2:7">
       <c r="G684" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="685" spans="2:7" ht="15">
+    <row r="685" spans="2:7">
       <c r="G685" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="686" spans="2:7" ht="15">
+    <row r="686" spans="2:7">
       <c r="G686" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="687" spans="2:7" ht="15">
+    <row r="687" spans="2:7">
       <c r="G687" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="688" spans="2:7" ht="15">
+    <row r="688" spans="2:7">
       <c r="G688" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="689" spans="2:7" ht="15">
+    <row r="689" spans="2:7">
       <c r="G689" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="690" spans="2:7" ht="15">
+    <row r="690" spans="2:7">
       <c r="G690" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="691" spans="2:7" ht="15">
+    <row r="691" spans="2:7">
       <c r="G691" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="692" spans="2:7" ht="15">
+    <row r="692" spans="2:7">
       <c r="G692" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="693" spans="2:7" ht="15">
+    <row r="693" spans="2:7">
       <c r="G693" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="694" spans="2:7" ht="15">
+    <row r="694" spans="2:7">
       <c r="G694" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="695" spans="2:7" ht="15">
+    <row r="695" spans="2:7">
       <c r="G695" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="696" spans="2:7" ht="15">
+    <row r="696" spans="2:7">
       <c r="G696" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="697" spans="2:7" ht="15">
+    <row r="697" spans="2:7">
       <c r="G697" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="698" spans="2:7" ht="15">
+    <row r="698" spans="2:7">
       <c r="G698" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="699" spans="2:7" ht="15">
+    <row r="699" spans="2:7">
       <c r="G699" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="700" spans="2:7" ht="15">
+    <row r="700" spans="2:7">
       <c r="G700" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="701" spans="2:7" ht="15">
+    <row r="701" spans="2:7">
       <c r="G701" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="702" spans="2:7" ht="15">
+    <row r="702" spans="2:7">
       <c r="B702" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="703" spans="2:7" ht="15">
+    <row r="703" spans="2:7">
       <c r="C703" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="704" spans="2:7" ht="15">
+    <row r="704" spans="2:7">
       <c r="G704" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="705" spans="7:7" ht="15">
+    <row r="705" spans="7:7">
       <c r="G705" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="706" spans="7:7" ht="15">
+    <row r="706" spans="7:7">
       <c r="G706" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="707" spans="7:7" ht="15">
+    <row r="707" spans="7:7">
       <c r="G707" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="708" spans="7:7" ht="15">
+    <row r="708" spans="7:7">
       <c r="G708" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="709" spans="7:7" ht="15">
+    <row r="709" spans="7:7">
       <c r="G709" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="710" spans="7:7" ht="15">
+    <row r="710" spans="7:7">
       <c r="G710" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="711" spans="7:7" ht="15">
+    <row r="711" spans="7:7">
       <c r="G711" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="712" spans="7:7" ht="15">
+    <row r="712" spans="7:7">
       <c r="G712" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="713" spans="7:7" ht="15">
+    <row r="713" spans="7:7">
       <c r="G713" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="714" spans="7:7" ht="15">
+    <row r="714" spans="7:7">
       <c r="G714" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="715" spans="7:7" ht="15">
+    <row r="715" spans="7:7">
       <c r="G715" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="716" spans="7:7" ht="15">
+    <row r="716" spans="7:7">
       <c r="G716" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="717" spans="7:7" ht="15">
+    <row r="717" spans="7:7">
       <c r="G717" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="718" spans="7:7" ht="15">
+    <row r="718" spans="7:7">
       <c r="G718" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="719" spans="7:7" ht="15">
+    <row r="719" spans="7:7">
       <c r="G719" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="720" spans="7:7" ht="15">
+    <row r="720" spans="7:7">
       <c r="G720" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="721" spans="3:7" ht="15">
+    <row r="721" spans="3:7">
       <c r="G721" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="722" spans="3:7" ht="15">
+    <row r="722" spans="3:7">
       <c r="G722" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="723" spans="3:7" ht="15">
+    <row r="723" spans="3:7">
       <c r="G723" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="724" spans="3:7" ht="15">
+    <row r="724" spans="3:7">
       <c r="G724" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="725" spans="3:7" ht="15">
+    <row r="725" spans="3:7">
       <c r="G725" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="726" spans="3:7" ht="15">
+    <row r="726" spans="3:7">
       <c r="G726" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="727" spans="3:7" ht="15">
+    <row r="727" spans="3:7">
       <c r="G727" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="728" spans="3:7" ht="15">
+    <row r="728" spans="3:7">
       <c r="G728" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="729" spans="3:7" ht="15">
+    <row r="729" spans="3:7">
       <c r="G729" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="730" spans="3:7" ht="15">
+    <row r="730" spans="3:7">
       <c r="G730" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="731" spans="3:7" ht="15">
+    <row r="731" spans="3:7">
       <c r="G731" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="732" spans="3:7" ht="15">
+    <row r="732" spans="3:7">
       <c r="C732" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="733" spans="3:7" ht="15">
+    <row r="733" spans="3:7">
       <c r="G733" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="734" spans="3:7" ht="15">
+    <row r="734" spans="3:7">
       <c r="G734" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="735" spans="3:7" ht="15">
+    <row r="735" spans="3:7">
       <c r="G735" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="736" spans="3:7" ht="15">
+    <row r="736" spans="3:7">
       <c r="G736" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="737" spans="7:7" ht="15">
+    <row r="737" spans="7:7">
       <c r="G737" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="738" spans="7:7" ht="15">
+    <row r="738" spans="7:7">
       <c r="G738" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="739" spans="7:7" ht="15">
+    <row r="739" spans="7:7">
       <c r="G739" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="740" spans="7:7" ht="15">
+    <row r="740" spans="7:7">
       <c r="G740" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="741" spans="7:7" ht="15">
+    <row r="741" spans="7:7">
       <c r="G741" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="742" spans="7:7" ht="15">
+    <row r="742" spans="7:7">
       <c r="G742" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="743" spans="7:7" ht="15">
+    <row r="743" spans="7:7">
       <c r="G743" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="744" spans="7:7" ht="15">
+    <row r="744" spans="7:7">
       <c r="G744" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="745" spans="7:7" ht="15">
+    <row r="745" spans="7:7">
       <c r="G745" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="746" spans="7:7" ht="15">
+    <row r="746" spans="7:7">
       <c r="G746" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="747" spans="7:7" ht="15">
+    <row r="747" spans="7:7">
       <c r="G747" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="748" spans="7:7" ht="15">
+    <row r="748" spans="7:7">
       <c r="G748" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="749" spans="7:7" ht="15">
+    <row r="749" spans="7:7">
       <c r="G749" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="750" spans="7:7" ht="15">
+    <row r="750" spans="7:7">
       <c r="G750" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="751" spans="7:7" ht="15">
+    <row r="751" spans="7:7">
       <c r="G751" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="752" spans="7:7" ht="15">
+    <row r="752" spans="7:7">
       <c r="G752" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="753" spans="3:7" ht="15">
+    <row r="753" spans="3:7">
       <c r="G753" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="754" spans="3:7" ht="15">
+    <row r="754" spans="3:7">
       <c r="G754" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="755" spans="3:7" ht="15">
+    <row r="755" spans="3:7">
       <c r="G755" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="756" spans="3:7" ht="15">
+    <row r="756" spans="3:7">
       <c r="G756" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="757" spans="3:7" ht="15">
+    <row r="757" spans="3:7">
       <c r="G757" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="758" spans="3:7" ht="15">
+    <row r="758" spans="3:7">
       <c r="G758" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="759" spans="3:7" ht="15">
+    <row r="759" spans="3:7">
       <c r="G759" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="760" spans="3:7" ht="15">
+    <row r="760" spans="3:7">
       <c r="G760" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="761" spans="3:7" ht="15">
+    <row r="761" spans="3:7">
       <c r="C761" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="762" spans="3:7" ht="15">
+    <row r="762" spans="3:7">
       <c r="G762" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="763" spans="3:7" ht="15">
+    <row r="763" spans="3:7">
       <c r="G763" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="764" spans="3:7" ht="15">
+    <row r="764" spans="3:7">
       <c r="G764" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="765" spans="3:7" ht="15">
+    <row r="765" spans="3:7">
       <c r="G765" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="766" spans="3:7" ht="15">
+    <row r="766" spans="3:7">
       <c r="G766" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="767" spans="3:7" ht="15">
+    <row r="767" spans="3:7">
       <c r="G767" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="768" spans="3:7" ht="15">
+    <row r="768" spans="3:7">
       <c r="G768" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="769" spans="7:7" ht="15">
+    <row r="769" spans="7:7">
       <c r="G769" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="770" spans="7:7" ht="15">
+    <row r="770" spans="7:7">
       <c r="G770" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="771" spans="7:7" ht="15">
+    <row r="771" spans="7:7">
       <c r="G771" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="772" spans="7:7" ht="15">
+    <row r="772" spans="7:7">
       <c r="G772" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="773" spans="7:7" ht="15">
+    <row r="773" spans="7:7">
       <c r="G773" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="774" spans="7:7" ht="15">
+    <row r="774" spans="7:7">
       <c r="G774" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="775" spans="7:7" ht="15">
+    <row r="775" spans="7:7">
       <c r="G775" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="776" spans="7:7" ht="15">
+    <row r="776" spans="7:7">
       <c r="G776" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="777" spans="7:7" ht="15">
+    <row r="777" spans="7:7">
       <c r="G777" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="778" spans="7:7" ht="15">
+    <row r="778" spans="7:7">
       <c r="G778" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="779" spans="7:7" ht="15">
+    <row r="779" spans="7:7">
       <c r="G779" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="780" spans="7:7" ht="15">
+    <row r="780" spans="7:7">
       <c r="G780" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="781" spans="7:7" ht="15">
+    <row r="781" spans="7:7">
       <c r="G781" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="782" spans="7:7" ht="15">
+    <row r="782" spans="7:7">
       <c r="G782" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="783" spans="7:7" ht="15">
+    <row r="783" spans="7:7">
       <c r="G783" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="784" spans="7:7" ht="15">
+    <row r="784" spans="7:7">
       <c r="G784" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="785" spans="3:7" ht="15">
+    <row r="785" spans="3:7">
       <c r="G785" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="786" spans="3:7" ht="15">
+    <row r="786" spans="3:7">
       <c r="G786" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="787" spans="3:7" ht="15">
+    <row r="787" spans="3:7">
       <c r="G787" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="788" spans="3:7" ht="15">
+    <row r="788" spans="3:7">
       <c r="G788" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="789" spans="3:7" ht="15">
+    <row r="789" spans="3:7">
       <c r="G789" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="790" spans="3:7" ht="15">
+    <row r="790" spans="3:7">
       <c r="C790" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="791" spans="3:7" ht="15">
+    <row r="791" spans="3:7">
       <c r="G791" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="792" spans="3:7" ht="15">
+    <row r="792" spans="3:7">
       <c r="G792" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="793" spans="3:7" ht="15">
+    <row r="793" spans="3:7">
       <c r="G793" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="794" spans="3:7" ht="15">
+    <row r="794" spans="3:7">
       <c r="G794" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="795" spans="3:7" ht="15">
+    <row r="795" spans="3:7">
       <c r="G795" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="796" spans="3:7" ht="15">
+    <row r="796" spans="3:7">
       <c r="G796" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="797" spans="3:7" ht="15">
+    <row r="797" spans="3:7">
       <c r="G797" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="798" spans="3:7" ht="15">
+    <row r="798" spans="3:7">
       <c r="G798" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="799" spans="3:7" ht="15">
+    <row r="799" spans="3:7">
       <c r="G799" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="800" spans="3:7" ht="15">
+    <row r="800" spans="3:7">
       <c r="G800" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="801" spans="7:7" ht="15">
+    <row r="801" spans="7:7">
       <c r="G801" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="802" spans="7:7" ht="15">
+    <row r="802" spans="7:7">
       <c r="G802" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="803" spans="7:7" ht="15">
+    <row r="803" spans="7:7">
       <c r="G803" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="804" spans="7:7" ht="15">
+    <row r="804" spans="7:7">
       <c r="G804" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="805" spans="7:7" ht="15">
+    <row r="805" spans="7:7">
       <c r="G805" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="806" spans="7:7" ht="15">
+    <row r="806" spans="7:7">
       <c r="G806" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="807" spans="7:7" ht="15">
+    <row r="807" spans="7:7">
       <c r="G807" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="808" spans="7:7" ht="15">
+    <row r="808" spans="7:7">
       <c r="G808" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="809" spans="7:7" ht="15">
+    <row r="809" spans="7:7">
       <c r="G809" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="810" spans="7:7" ht="15">
+    <row r="810" spans="7:7">
       <c r="G810" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="811" spans="7:7" ht="15">
+    <row r="811" spans="7:7">
       <c r="G811" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="812" spans="7:7" ht="15">
+    <row r="812" spans="7:7">
       <c r="G812" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="813" spans="7:7" ht="15">
+    <row r="813" spans="7:7">
       <c r="G813" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="814" spans="7:7" ht="15">
+    <row r="814" spans="7:7">
       <c r="G814" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="815" spans="7:7" ht="15">
+    <row r="815" spans="7:7">
       <c r="G815" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="816" spans="7:7" ht="15">
+    <row r="816" spans="7:7">
       <c r="G816" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="15">
+    <row r="817" spans="1:7">
       <c r="G817" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="15">
+    <row r="818" spans="1:7">
       <c r="G818" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="819" spans="1:7" s="3" customFormat="1" ht="15">
+    <row r="819" spans="1:7" s="3" customFormat="1" ht="14.4">
       <c r="A819" s="2" t="s">
         <v>21</v>
       </c>
@@ -5249,37 +5249,37 @@
         <v>163</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="15">
+    <row r="820" spans="1:7">
       <c r="B820" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="15">
+    <row r="821" spans="1:7">
       <c r="B821" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="15">
+    <row r="822" spans="1:7">
       <c r="C822" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="15">
+    <row r="823" spans="1:7">
       <c r="C823" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="15">
+    <row r="824" spans="1:7">
       <c r="C824" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="15">
+    <row r="825" spans="1:7">
       <c r="C825" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="826" spans="1:7" s="3" customFormat="1" ht="15">
+    <row r="826" spans="1:7" s="3" customFormat="1" ht="14.4">
       <c r="A826" s="2" t="s">
         <v>22</v>
       </c>
@@ -5287,242 +5287,245 @@
         <v>165</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="15">
+    <row r="827" spans="1:7">
       <c r="B827" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="828" spans="1:7" ht="15">
+    <row r="828" spans="1:7">
       <c r="D828" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="15">
+    <row r="829" spans="1:7">
       <c r="D829" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="15">
+    <row r="830" spans="1:7">
       <c r="D830" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="15">
+    <row r="831" spans="1:7">
       <c r="B831" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="15">
+    <row r="832" spans="1:7">
       <c r="C832" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="15">
+    <row r="833" spans="1:6">
       <c r="D833" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="15">
+    <row r="834" spans="1:6">
       <c r="D834" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="15">
+    <row r="835" spans="1:6">
       <c r="D835" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="15">
+    <row r="836" spans="1:6">
       <c r="C836" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="15">
+    <row r="837" spans="1:6">
       <c r="D837" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="15">
+    <row r="838" spans="1:6">
       <c r="D838" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="15">
+    <row r="839" spans="1:6">
       <c r="D839" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="15">
+    <row r="840" spans="1:6">
       <c r="C840" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="15">
+    <row r="841" spans="1:6">
       <c r="D841" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="15">
+    <row r="842" spans="1:6">
       <c r="D842" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="15">
+    <row r="843" spans="1:6">
       <c r="D843" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="15">
+    <row r="844" spans="1:6">
       <c r="C844" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="15">
+    <row r="845" spans="1:6">
       <c r="D845" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="15">
+    <row r="846" spans="1:6">
       <c r="D846" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="15">
+    <row r="847" spans="1:6">
       <c r="D847" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="848" spans="1:4" s="3" customFormat="1" ht="15">
+    <row r="848" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A848" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="849" spans="2:4" ht="15">
+      <c r="F848" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="849" spans="2:4">
       <c r="B849" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="850" spans="2:4" ht="15">
+    <row r="850" spans="2:4">
       <c r="D850" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="851" spans="2:4" ht="15">
+    <row r="851" spans="2:4">
       <c r="D851" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="852" spans="2:4" ht="15">
+    <row r="852" spans="2:4">
       <c r="D852" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="853" spans="2:4" ht="15">
+    <row r="853" spans="2:4">
       <c r="D853" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="854" spans="2:4" ht="15">
+    <row r="854" spans="2:4">
       <c r="B854" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="855" spans="2:4" ht="15">
+    <row r="855" spans="2:4">
       <c r="C855" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="856" spans="2:4" ht="15">
+    <row r="856" spans="2:4">
       <c r="D856" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="857" spans="2:4" ht="15">
+    <row r="857" spans="2:4">
       <c r="D857" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="858" spans="2:4" ht="15">
+    <row r="858" spans="2:4">
       <c r="D858" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="859" spans="2:4" ht="15">
+    <row r="859" spans="2:4">
       <c r="D859" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="860" spans="2:4" ht="15">
+    <row r="860" spans="2:4">
       <c r="C860" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="861" spans="2:4" ht="15">
+    <row r="861" spans="2:4">
       <c r="D861" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="862" spans="2:4" ht="15">
+    <row r="862" spans="2:4">
       <c r="D862" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="863" spans="2:4" ht="15">
+    <row r="863" spans="2:4">
       <c r="D863" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="864" spans="2:4" ht="15">
+    <row r="864" spans="2:4">
       <c r="D864" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="865" spans="1:6" ht="15">
+    <row r="865" spans="1:6">
       <c r="C865" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="866" spans="1:6" ht="15">
+    <row r="866" spans="1:6">
       <c r="D866" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="15">
+    <row r="867" spans="1:6">
       <c r="D867" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="868" spans="1:6" ht="15">
+    <row r="868" spans="1:6">
       <c r="D868" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="15">
+    <row r="869" spans="1:6">
       <c r="D869" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="870" spans="1:6" ht="15">
+    <row r="870" spans="1:6">
       <c r="C870" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="15">
+    <row r="871" spans="1:6">
       <c r="D871" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="15">
+    <row r="872" spans="1:6">
       <c r="D872" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="873" spans="1:6" ht="15">
+    <row r="873" spans="1:6">
       <c r="D873" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="874" spans="1:6" ht="15">
+    <row r="874" spans="1:6">
       <c r="D874" s="1" t="s">
         <v>67</v>
       </c>
@@ -5535,57 +5538,57 @@
         <v>164</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="15">
+    <row r="876" spans="1:6">
       <c r="B876" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="15">
+    <row r="877" spans="1:6">
       <c r="D877" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="878" spans="1:6" ht="15">
+    <row r="878" spans="1:6">
       <c r="B878" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="879" spans="1:6" ht="15">
+    <row r="879" spans="1:6">
       <c r="C879" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="880" spans="1:6" ht="15">
+    <row r="880" spans="1:6">
       <c r="D880" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="15">
+    <row r="881" spans="1:6">
       <c r="C881" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="15">
+    <row r="882" spans="1:6">
       <c r="D882" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="15">
+    <row r="883" spans="1:6">
       <c r="C883" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="884" spans="1:6" ht="15">
+    <row r="884" spans="1:6">
       <c r="D884" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="15">
+    <row r="885" spans="1:6">
       <c r="C885" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="15">
+    <row r="886" spans="1:6">
       <c r="D886" s="1" t="s">
         <v>85</v>
       </c>
@@ -5598,32 +5601,32 @@
         <v>164</v>
       </c>
     </row>
-    <row r="888" spans="1:6" ht="15">
+    <row r="888" spans="1:6">
       <c r="B888" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="889" spans="1:6" ht="15">
+    <row r="889" spans="1:6">
       <c r="B889" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="15">
+    <row r="890" spans="1:6">
       <c r="C890" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="891" spans="1:6" ht="15">
+    <row r="891" spans="1:6">
       <c r="C891" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="892" spans="1:6" ht="15">
+    <row r="892" spans="1:6">
       <c r="C892" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="15">
+    <row r="893" spans="1:6">
       <c r="C893" s="1" t="s">
         <v>43</v>
       </c>
@@ -5636,32 +5639,32 @@
         <v>165</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="15">
+    <row r="895" spans="1:6">
       <c r="B895" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="15">
+    <row r="896" spans="1:6">
       <c r="B896" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="15">
+    <row r="897" spans="1:6">
       <c r="C897" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="15">
+    <row r="898" spans="1:6">
       <c r="C898" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="899" spans="1:6" ht="15">
+    <row r="899" spans="1:6">
       <c r="C899" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="900" spans="1:6" ht="15">
+    <row r="900" spans="1:6">
       <c r="C900" s="1" t="s">
         <v>43</v>
       </c>
@@ -5674,32 +5677,32 @@
         <v>164</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="15">
+    <row r="902" spans="1:6">
       <c r="B902" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="903" spans="1:6" ht="15">
+    <row r="903" spans="1:6">
       <c r="B903" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="15">
+    <row r="904" spans="1:6">
       <c r="C904" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="15">
+    <row r="905" spans="1:6">
       <c r="C905" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="906" spans="1:6" ht="15">
+    <row r="906" spans="1:6">
       <c r="C906" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="907" spans="1:6" ht="15">
+    <row r="907" spans="1:6">
       <c r="C907" s="1" t="s">
         <v>43</v>
       </c>
@@ -5712,32 +5715,32 @@
         <v>164</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="15">
+    <row r="909" spans="1:6">
       <c r="B909" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="910" spans="1:6" ht="15">
+    <row r="910" spans="1:6">
       <c r="B910" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="15">
+    <row r="911" spans="1:6">
       <c r="C911" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="912" spans="1:6" ht="15">
+    <row r="912" spans="1:6">
       <c r="C912" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="913" spans="1:6" ht="15">
+    <row r="913" spans="1:6">
       <c r="C913" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="15">
+    <row r="914" spans="1:6">
       <c r="C914" s="1" t="s">
         <v>43</v>
       </c>
@@ -5750,32 +5753,32 @@
         <v>164</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="15">
+    <row r="916" spans="1:6">
       <c r="B916" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="15">
+    <row r="917" spans="1:6">
       <c r="B917" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="918" spans="1:6" ht="15">
+    <row r="918" spans="1:6">
       <c r="C918" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="15">
+    <row r="919" spans="1:6">
       <c r="C919" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="15">
+    <row r="920" spans="1:6">
       <c r="C920" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="15">
+    <row r="921" spans="1:6">
       <c r="C921" s="1" t="s">
         <v>43</v>
       </c>
@@ -5788,32 +5791,32 @@
         <v>164</v>
       </c>
     </row>
-    <row r="923" spans="1:6" ht="15">
+    <row r="923" spans="1:6">
       <c r="B923" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="924" spans="1:6" ht="15">
+    <row r="924" spans="1:6">
       <c r="B924" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="925" spans="1:6" ht="15">
+    <row r="925" spans="1:6">
       <c r="C925" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="926" spans="1:6" ht="15">
+    <row r="926" spans="1:6">
       <c r="C926" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="15">
+    <row r="927" spans="1:6">
       <c r="C927" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="15">
+    <row r="928" spans="1:6">
       <c r="C928" s="1" t="s">
         <v>43</v>
       </c>
@@ -5826,32 +5829,32 @@
         <v>164</v>
       </c>
     </row>
-    <row r="930" spans="1:6" ht="15">
+    <row r="930" spans="1:6">
       <c r="B930" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="931" spans="1:6" ht="15">
+    <row r="931" spans="1:6">
       <c r="B931" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="932" spans="1:6" ht="15">
+    <row r="932" spans="1:6">
       <c r="C932" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="933" spans="1:6" ht="15">
+    <row r="933" spans="1:6">
       <c r="C933" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="934" spans="1:6" ht="15">
+    <row r="934" spans="1:6">
       <c r="C934" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="935" spans="1:6" ht="15">
+    <row r="935" spans="1:6">
       <c r="C935" s="1" t="s">
         <v>43</v>
       </c>
@@ -5864,32 +5867,32 @@
         <v>165</v>
       </c>
     </row>
-    <row r="937" spans="1:6" ht="15">
+    <row r="937" spans="1:6">
       <c r="B937" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="938" spans="1:6" ht="15">
+    <row r="938" spans="1:6">
       <c r="B938" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="939" spans="1:6" ht="15">
+    <row r="939" spans="1:6">
       <c r="C939" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="940" spans="1:6" ht="15">
+    <row r="940" spans="1:6">
       <c r="C940" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="941" spans="1:6" ht="15">
+    <row r="941" spans="1:6">
       <c r="C941" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="942" spans="1:6" ht="15">
+    <row r="942" spans="1:6">
       <c r="C942" s="1" t="s">
         <v>43</v>
       </c>
@@ -5902,32 +5905,32 @@
         <v>165</v>
       </c>
     </row>
-    <row r="944" spans="1:6" ht="15">
+    <row r="944" spans="1:6">
       <c r="B944" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="945" spans="1:6" ht="15">
+    <row r="945" spans="1:6">
       <c r="B945" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="946" spans="1:6" ht="15">
+    <row r="946" spans="1:6">
       <c r="C946" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="15">
+    <row r="947" spans="1:6">
       <c r="C947" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="948" spans="1:6" ht="15">
+    <row r="948" spans="1:6">
       <c r="C948" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="949" spans="1:6" ht="15">
+    <row r="949" spans="1:6">
       <c r="C949" s="1" t="s">
         <v>43</v>
       </c>
@@ -5940,32 +5943,32 @@
         <v>165</v>
       </c>
     </row>
-    <row r="951" spans="1:6" ht="15">
+    <row r="951" spans="1:6">
       <c r="B951" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="952" spans="1:6" ht="15">
+    <row r="952" spans="1:6">
       <c r="B952" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="953" spans="1:6" ht="15">
+    <row r="953" spans="1:6">
       <c r="C953" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="15">
+    <row r="954" spans="1:6">
       <c r="C954" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="955" spans="1:6" ht="15">
+    <row r="955" spans="1:6">
       <c r="C955" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="956" spans="1:6" ht="15">
+    <row r="956" spans="1:6">
       <c r="C956" s="1" t="s">
         <v>43</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" ht="14.4">
       <c r="B4" s="4" t="s">
         <v>151</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" ht="14.4">
       <c r="B6" s="4" t="s">
         <v>152</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" ht="14.4">
       <c r="B8" s="4" t="s">
         <v>153</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" ht="14.4">
       <c r="B10" s="4" t="s">
         <v>154</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" ht="14.4">
       <c r="B12" s="4" t="s">
         <v>155</v>
       </c>
@@ -6487,7 +6490,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" ht="14.4">
       <c r="B14" s="4" t="s">
         <v>156</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" ht="14.4">
       <c r="B16" s="4" t="s">
         <v>157</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" ht="14.4">
       <c r="B18" s="4" t="s">
         <v>158</v>
       </c>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C4D33E-8F22-408C-B043-A0AA9905F3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4786C65D-5ED3-479F-9BA3-1F4873E8C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="167">
   <si>
     <t>Play_VO_Alarm_Defective_Modules</t>
   </si>
@@ -606,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -620,7 +620,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
-  <dimension ref="A3:R956"/>
+  <dimension ref="A3:R960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A930" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H946" sqref="H946"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
@@ -1580,13 +1579,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="D99" s="1" t="s">
+    <row r="99" spans="1:6" s="5" customFormat="1">
+      <c r="D99" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="D100" s="1" t="s">
+    <row r="100" spans="1:6" s="5" customFormat="1">
+      <c r="D100" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1596,23 +1595,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="D102" s="1" t="s">
+    <row r="102" spans="1:6" s="5" customFormat="1">
+      <c r="D102" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="D103" s="1" t="s">
+    <row r="103" spans="1:6" s="5" customFormat="1">
+      <c r="D103" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="D104" s="1" t="s">
+    <row r="104" spans="1:6" s="5" customFormat="1">
+      <c r="D104" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="D105" s="1" t="s">
+    <row r="105" spans="1:6" s="5" customFormat="1">
+      <c r="D105" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1621,18 +1620,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="C107" s="1" t="s">
+    <row r="107" spans="1:6" s="5" customFormat="1">
+      <c r="C107" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="D108" s="1" t="s">
+    <row r="108" spans="1:6" s="5" customFormat="1">
+      <c r="D108" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="D109" s="1" t="s">
+    <row r="109" spans="1:6" s="5" customFormat="1">
+      <c r="D109" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1641,23 +1640,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="D111" s="1" t="s">
+    <row r="111" spans="1:6" s="5" customFormat="1">
+      <c r="D111" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="D112" s="1" t="s">
+    <row r="112" spans="1:6" s="5" customFormat="1">
+      <c r="D112" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="3:4">
-      <c r="D113" s="1" t="s">
+    <row r="113" spans="3:4" s="5" customFormat="1">
+      <c r="D113" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="3:4">
-      <c r="D114" s="1" t="s">
+    <row r="114" spans="3:4" s="5" customFormat="1">
+      <c r="D114" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1666,13 +1665,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="3:4">
-      <c r="D116" s="1" t="s">
+    <row r="116" spans="3:4" s="5" customFormat="1">
+      <c r="D116" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="3:4">
-      <c r="D117" s="1" t="s">
+    <row r="117" spans="3:4" s="5" customFormat="1">
+      <c r="D117" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1681,23 +1680,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="3:4" s="7" customFormat="1">
-      <c r="D119" s="7" t="s">
+    <row r="119" spans="3:4" s="5" customFormat="1">
+      <c r="D119" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="3:4">
-      <c r="D120" s="1" t="s">
+    <row r="120" spans="3:4" s="5" customFormat="1">
+      <c r="D120" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="3:4">
-      <c r="D121" s="1" t="s">
+    <row r="121" spans="3:4" s="5" customFormat="1">
+      <c r="D121" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="3:4">
-      <c r="D122" s="1" t="s">
+    <row r="122" spans="3:4" s="5" customFormat="1">
+      <c r="D122" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1706,13 +1705,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="3:4">
-      <c r="D124" s="1" t="s">
+    <row r="124" spans="3:4" s="5" customFormat="1">
+      <c r="D124" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="3:4">
-      <c r="D125" s="1" t="s">
+    <row r="125" spans="3:4" s="5" customFormat="1">
+      <c r="D125" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1721,23 +1720,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="3:4">
-      <c r="D127" s="1" t="s">
+    <row r="127" spans="3:4" s="5" customFormat="1">
+      <c r="D127" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="3:4">
-      <c r="D128" s="1" t="s">
+    <row r="128" spans="3:4" s="5" customFormat="1">
+      <c r="D128" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="D129" s="1" t="s">
+    <row r="129" spans="1:6" s="5" customFormat="1">
+      <c r="D129" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="D130" s="1" t="s">
+    <row r="130" spans="1:6" s="5" customFormat="1">
+      <c r="D130" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1746,13 +1745,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="D132" s="1" t="s">
+    <row r="132" spans="1:6" s="5" customFormat="1">
+      <c r="D132" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="D133" s="1" t="s">
+    <row r="133" spans="1:6" s="5" customFormat="1">
+      <c r="D133" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1761,23 +1760,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="D135" s="1" t="s">
+    <row r="135" spans="1:6" s="5" customFormat="1">
+      <c r="D135" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="D136" s="1" t="s">
+    <row r="136" spans="1:6" s="5" customFormat="1">
+      <c r="D136" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="D137" s="1" t="s">
+    <row r="137" spans="1:6" s="5" customFormat="1">
+      <c r="D137" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="D138" s="1" t="s">
+    <row r="138" spans="1:6" s="5" customFormat="1">
+      <c r="D138" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1794,33 +1793,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="D141" s="1" t="s">
+    <row r="141" spans="1:6" s="5" customFormat="1">
+      <c r="D141" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="D142" s="1" t="s">
+    <row r="142" spans="1:6" s="5" customFormat="1">
+      <c r="D142" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="D143" s="1" t="s">
+    <row r="143" spans="1:6" s="5" customFormat="1">
+      <c r="D143" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="D144" s="1" t="s">
+    <row r="144" spans="1:6" s="5" customFormat="1">
+      <c r="D144" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:4">
-      <c r="D145" s="1" t="s">
+    <row r="145" spans="2:4" s="5" customFormat="1">
+      <c r="D145" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="2:4">
-      <c r="D146" s="1" t="s">
+    <row r="146" spans="2:4" s="5" customFormat="1">
+      <c r="D146" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1834,677 +1833,677 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="2:4">
-      <c r="D149" s="1" t="s">
+    <row r="149" spans="2:4" s="5" customFormat="1">
+      <c r="D149" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="2:4">
-      <c r="D150" s="1" t="s">
+    <row r="150" spans="2:4" s="5" customFormat="1">
+      <c r="D150" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="2:4">
-      <c r="D151" s="1" t="s">
+    <row r="151" spans="2:4" s="5" customFormat="1">
+      <c r="D151" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="2:4">
-      <c r="D152" s="1" t="s">
+    <row r="152" spans="2:4" s="5" customFormat="1">
+      <c r="D152" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" s="5" customFormat="1">
+      <c r="D153" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="2:4">
-      <c r="D153" s="1" t="s">
+    <row r="154" spans="2:4" s="5" customFormat="1">
+      <c r="D154" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="2:4">
-      <c r="D154" s="1" t="s">
+    <row r="155" spans="2:4" s="5" customFormat="1">
+      <c r="D155" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="2:4">
-      <c r="C155" s="1" t="s">
+    <row r="156" spans="2:4">
+      <c r="C156" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="2:4">
-      <c r="D156" s="1" t="s">
+    <row r="157" spans="2:4" s="5" customFormat="1">
+      <c r="D157" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="2:4">
-      <c r="D157" s="1" t="s">
+    <row r="158" spans="2:4" s="5" customFormat="1">
+      <c r="D158" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="2:4">
-      <c r="D158" s="1" t="s">
+    <row r="159" spans="2:4" s="5" customFormat="1">
+      <c r="D159" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="2:4">
-      <c r="D159" s="1" t="s">
+    <row r="160" spans="2:4" s="5" customFormat="1">
+      <c r="D160" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="2:4">
-      <c r="D160" s="1" t="s">
+    <row r="161" spans="3:4" s="5" customFormat="1">
+      <c r="D161" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" s="5" customFormat="1">
+      <c r="D162" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
-      <c r="D161" s="1" t="s">
+    <row r="163" spans="3:4" s="5" customFormat="1">
+      <c r="D163" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
-      <c r="C162" s="1" t="s">
+    <row r="164" spans="3:4">
+      <c r="C164" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="D163" s="1" t="s">
+    <row r="165" spans="3:4" s="5" customFormat="1">
+      <c r="D165" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="D164" s="1" t="s">
+    <row r="166" spans="3:4" s="5" customFormat="1">
+      <c r="D166" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="D165" s="1" t="s">
+    <row r="167" spans="3:4" s="5" customFormat="1">
+      <c r="D167" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" s="5" customFormat="1">
+      <c r="D168" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="D166" s="1" t="s">
+    <row r="169" spans="3:4" s="5" customFormat="1">
+      <c r="D169" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
-      <c r="D167" s="1" t="s">
+    <row r="170" spans="3:4" s="5" customFormat="1">
+      <c r="D170" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="D168" s="1" t="s">
+    <row r="171" spans="3:4" s="5" customFormat="1">
+      <c r="D171" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="C169" s="1" t="s">
+    <row r="172" spans="3:4">
+      <c r="C172" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="D170" s="1" t="s">
+    <row r="173" spans="3:4" s="5" customFormat="1">
+      <c r="D173" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="D171" s="1" t="s">
+    <row r="174" spans="3:4" s="5" customFormat="1">
+      <c r="D174" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="D172" s="1" t="s">
+    <row r="175" spans="3:4" s="5" customFormat="1">
+      <c r="D175" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" s="5" customFormat="1">
+      <c r="D176" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="D173" s="1" t="s">
+    <row r="177" spans="1:6" s="5" customFormat="1">
+      <c r="D177" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="D174" s="1" t="s">
+    <row r="178" spans="1:6" s="5" customFormat="1">
+      <c r="D178" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="D175" s="1" t="s">
+    <row r="179" spans="1:6" s="5" customFormat="1">
+      <c r="D179" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A176" s="2" t="s">
+    <row r="180" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A180" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F180" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="2:4">
-      <c r="B177" s="1" t="s">
+    <row r="181" spans="1:6">
+      <c r="B181" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="2:4">
-      <c r="D178" s="1" t="s">
+    <row r="182" spans="1:6" s="5" customFormat="1">
+      <c r="D182" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="2:4">
-      <c r="D179" s="1" t="s">
+    <row r="183" spans="1:6" s="5" customFormat="1">
+      <c r="D183" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="2:4">
-      <c r="B180" s="1" t="s">
+    <row r="184" spans="1:6">
+      <c r="B184" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="2:4">
-      <c r="C181" s="1" t="s">
+    <row r="185" spans="1:6" s="5" customFormat="1">
+      <c r="C185" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="2:4">
-      <c r="D182" s="1" t="s">
+    <row r="186" spans="1:6" s="5" customFormat="1">
+      <c r="D186" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="183" spans="2:4">
-      <c r="D183" s="1" t="s">
+    <row r="187" spans="1:6" s="5" customFormat="1">
+      <c r="D187" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="2:4">
-      <c r="C184" s="1" t="s">
+    <row r="188" spans="1:6" s="5" customFormat="1">
+      <c r="C188" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="2:4">
-      <c r="D185" s="1" t="s">
+    <row r="189" spans="1:6" s="5" customFormat="1">
+      <c r="D189" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="186" spans="2:4">
-      <c r="D186" s="1" t="s">
+    <row r="190" spans="1:6" s="5" customFormat="1">
+      <c r="D190" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="2:4">
-      <c r="C187" s="1" t="s">
+    <row r="191" spans="1:6" s="5" customFormat="1">
+      <c r="C191" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="2:4">
-      <c r="D188" s="1" t="s">
+    <row r="192" spans="1:6" s="5" customFormat="1">
+      <c r="D192" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="2:4">
-      <c r="D189" s="1" t="s">
+    <row r="193" spans="1:6" s="5" customFormat="1">
+      <c r="D193" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="2:4">
-      <c r="C190" s="1" t="s">
+    <row r="194" spans="1:6" s="5" customFormat="1">
+      <c r="C194" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="2:4">
-      <c r="D191" s="1" t="s">
+    <row r="195" spans="1:6" s="5" customFormat="1">
+      <c r="D195" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="2:4">
-      <c r="D192" s="1" t="s">
+    <row r="196" spans="1:6" s="5" customFormat="1">
+      <c r="D196" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A193" s="2" t="s">
+    <row r="197" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F193" s="3" t="s">
+      <c r="F197" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
-      <c r="B194" s="1" t="s">
+    <row r="198" spans="1:6" s="5" customFormat="1">
+      <c r="B198" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
-      <c r="B195" s="1" t="s">
+    <row r="199" spans="1:6" s="5" customFormat="1">
+      <c r="B199" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
-      <c r="C196" s="1" t="s">
+    <row r="200" spans="1:6" s="5" customFormat="1">
+      <c r="C200" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
-      <c r="C197" s="1" t="s">
+    <row r="201" spans="1:6" s="5" customFormat="1">
+      <c r="C201" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
-      <c r="C198" s="1" t="s">
+    <row r="202" spans="1:6" s="5" customFormat="1">
+      <c r="C202" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
-      <c r="C199" s="1" t="s">
+    <row r="203" spans="1:6" s="5" customFormat="1">
+      <c r="C203" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A200" s="2" t="s">
+    <row r="204" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A204" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F204" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
-      <c r="B201" s="1" t="s">
+    <row r="205" spans="1:6">
+      <c r="B205" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="D202" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="D203" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="D204" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="D205" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="D206" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="D207" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="D208" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="D209" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="D210" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="D211" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
-      <c r="B208" s="1" t="s">
+    <row r="212" spans="2:4">
+      <c r="B212" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="3:4">
-      <c r="C209" s="1" t="s">
+    <row r="213" spans="2:4">
+      <c r="C213" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="3:4">
-      <c r="D210" s="1" t="s">
+    <row r="214" spans="2:4">
+      <c r="D214" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="3:4">
-      <c r="D211" s="1" t="s">
+    <row r="215" spans="2:4">
+      <c r="D215" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="3:4">
-      <c r="D212" s="1" t="s">
+    <row r="216" spans="2:4">
+      <c r="D216" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="3:4">
-      <c r="D213" s="1" t="s">
+    <row r="217" spans="2:4">
+      <c r="D217" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="3:4">
-      <c r="D214" s="1" t="s">
+    <row r="218" spans="2:4">
+      <c r="D218" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="215" spans="3:4">
-      <c r="D215" s="1" t="s">
+    <row r="219" spans="2:4">
+      <c r="D219" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="3:4">
-      <c r="C216" s="1" t="s">
+    <row r="220" spans="2:4">
+      <c r="C220" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="3:4">
-      <c r="D217" s="1" t="s">
+    <row r="221" spans="2:4">
+      <c r="D221" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="218" spans="3:4">
-      <c r="D218" s="1" t="s">
+    <row r="222" spans="2:4">
+      <c r="D222" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="219" spans="3:4">
-      <c r="D219" s="1" t="s">
+    <row r="223" spans="2:4">
+      <c r="D223" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="3:4">
-      <c r="D220" s="1" t="s">
+    <row r="224" spans="2:4">
+      <c r="D224" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="3:4">
-      <c r="D221" s="1" t="s">
+    <row r="225" spans="3:4">
+      <c r="D225" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="3:4">
-      <c r="D222" s="1" t="s">
+    <row r="226" spans="3:4">
+      <c r="D226" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="223" spans="3:4">
-      <c r="C223" s="1" t="s">
+    <row r="227" spans="3:4">
+      <c r="C227" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="3:4">
-      <c r="D224" s="1" t="s">
+    <row r="228" spans="3:4">
+      <c r="D228" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
-      <c r="D225" s="1" t="s">
+    <row r="229" spans="3:4">
+      <c r="D229" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
-      <c r="D226" s="1" t="s">
+    <row r="230" spans="3:4">
+      <c r="D230" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
-      <c r="D227" s="1" t="s">
+    <row r="231" spans="3:4">
+      <c r="D231" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
-      <c r="D228" s="1" t="s">
+    <row r="232" spans="3:4">
+      <c r="D232" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
-      <c r="D229" s="1" t="s">
+    <row r="233" spans="3:4">
+      <c r="D233" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
-      <c r="C230" s="1" t="s">
+    <row r="234" spans="3:4">
+      <c r="C234" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
-      <c r="D231" s="1" t="s">
+    <row r="235" spans="3:4">
+      <c r="D235" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
-      <c r="D232" s="1" t="s">
+    <row r="236" spans="3:4">
+      <c r="D236" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
-      <c r="D233" s="1" t="s">
+    <row r="237" spans="3:4">
+      <c r="D237" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
-      <c r="D234" s="1" t="s">
+    <row r="238" spans="3:4">
+      <c r="D238" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
-      <c r="D235" s="1" t="s">
+    <row r="239" spans="3:4">
+      <c r="D239" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
-      <c r="D236" s="1" t="s">
+    <row r="240" spans="3:4">
+      <c r="D240" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A237" s="2" t="s">
+    <row r="241" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A241" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="F241" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
-      <c r="B238" s="1" t="s">
+    <row r="242" spans="1:6">
+      <c r="B242" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
-      <c r="D239" s="1" t="s">
+    <row r="243" spans="1:6">
+      <c r="D243" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
-      <c r="D240" s="1" t="s">
+    <row r="244" spans="1:6">
+      <c r="D244" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="241" spans="2:4">
-      <c r="D241" s="1" t="s">
+    <row r="245" spans="1:6">
+      <c r="D245" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="242" spans="2:4">
-      <c r="D242" s="1" t="s">
+    <row r="246" spans="1:6">
+      <c r="D246" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="2:4">
-      <c r="B243" s="1" t="s">
+    <row r="247" spans="1:6">
+      <c r="B247" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="2:4">
-      <c r="C244" s="1" t="s">
+    <row r="248" spans="1:6">
+      <c r="C248" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="2:4">
-      <c r="D245" s="1" t="s">
+    <row r="249" spans="1:6">
+      <c r="D249" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="246" spans="2:4">
-      <c r="D246" s="1" t="s">
+    <row r="250" spans="1:6">
+      <c r="D250" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="247" spans="2:4">
-      <c r="D247" s="1" t="s">
+    <row r="251" spans="1:6">
+      <c r="D251" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="2:4">
-      <c r="D248" s="1" t="s">
+    <row r="252" spans="1:6">
+      <c r="D252" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="249" spans="2:4">
-      <c r="C249" s="1" t="s">
+    <row r="253" spans="1:6">
+      <c r="C253" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="2:4">
-      <c r="D250" s="1" t="s">
+    <row r="254" spans="1:6">
+      <c r="D254" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="251" spans="2:4">
-      <c r="D251" s="1" t="s">
+    <row r="255" spans="1:6">
+      <c r="D255" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="252" spans="2:4">
-      <c r="D252" s="1" t="s">
+    <row r="256" spans="1:6">
+      <c r="D256" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4">
-      <c r="D253" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4">
-      <c r="C254" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4">
-      <c r="D255" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4">
-      <c r="D256" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="D257" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="D258" s="1" t="s">
-        <v>89</v>
+      <c r="C258" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="C259" s="1" t="s">
-        <v>43</v>
+      <c r="D259" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="D260" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="D261" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="D262" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="C263" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="D264" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="D265" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="D266" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
-      <c r="D263" s="1" t="s">
+    <row r="267" spans="1:6">
+      <c r="D267" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A264" s="2" t="s">
+    <row r="268" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A268" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F264" s="3" t="s">
+      <c r="F268" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
-      <c r="B265" s="1" t="s">
+    <row r="269" spans="1:6">
+      <c r="B269" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
-      <c r="B266" s="1" t="s">
+    <row r="270" spans="1:6">
+      <c r="B270" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
-      <c r="C267" s="1" t="s">
+    <row r="271" spans="1:6">
+      <c r="C271" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
-      <c r="C268" s="1" t="s">
+    <row r="272" spans="1:6">
+      <c r="C272" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
-      <c r="C269" s="1" t="s">
+    <row r="273" spans="1:6">
+      <c r="C273" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
-      <c r="C270" s="1" t="s">
+    <row r="274" spans="1:6">
+      <c r="C274" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A271" s="2" t="s">
+    <row r="275" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A275" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F271" s="3" t="s">
+      <c r="F275" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
-      <c r="B272" s="1" t="s">
+    <row r="276" spans="1:6">
+      <c r="B276" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
-      <c r="D273" s="1" t="s">
+    <row r="277" spans="1:6">
+      <c r="D277" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
-      <c r="B274" s="1" t="s">
+    <row r="278" spans="1:6">
+      <c r="B278" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="C275" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="D276" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="C277" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="D278" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="C279" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -2514,7 +2513,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="C281" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -2522,3060 +2521,3060 @@
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A283" s="2" t="s">
+    <row r="283" spans="1:6">
+      <c r="C283" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="D284" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="C285" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="D286" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A287" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F283" s="3" t="s">
+      <c r="F287" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
-      <c r="B284" s="1" t="s">
+    <row r="288" spans="1:6">
+      <c r="B288" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
-      <c r="B285" s="1" t="s">
+    <row r="289" spans="1:6">
+      <c r="B289" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
-      <c r="C286" s="1" t="s">
+    <row r="290" spans="1:6">
+      <c r="C290" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
-      <c r="C287" s="1" t="s">
+    <row r="291" spans="1:6">
+      <c r="C291" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
-      <c r="C288" s="1" t="s">
+    <row r="292" spans="1:6">
+      <c r="C292" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
-      <c r="C289" s="1" t="s">
+    <row r="293" spans="1:6">
+      <c r="C293" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="290" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A290" s="2" t="s">
+    <row r="294" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A294" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F290" s="3" t="s">
+      <c r="F294" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
-      <c r="B291" s="1" t="s">
+    <row r="295" spans="1:6">
+      <c r="B295" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
-      <c r="D292" s="1" t="s">
+    <row r="296" spans="1:6">
+      <c r="D296" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="E293" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="E294" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="E295" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="E296" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="E297" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="B298" s="1" t="s">
-        <v>39</v>
+      <c r="E298" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="C299" s="1" t="s">
-        <v>40</v>
+      <c r="E299" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="300" spans="1:6">
-      <c r="D300" s="1" t="s">
-        <v>60</v>
+      <c r="E300" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="E301" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:6">
-      <c r="E302" s="1" t="s">
-        <v>96</v>
+      <c r="B302" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="E303" s="1" t="s">
-        <v>97</v>
+      <c r="C303" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="304" spans="1:6">
-      <c r="E304" s="1" t="s">
-        <v>98</v>
+      <c r="D304" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="305" spans="3:5">
       <c r="E305" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="306" spans="3:5">
-      <c r="C306" s="1" t="s">
-        <v>41</v>
+      <c r="E306" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="307" spans="3:5">
-      <c r="D307" s="1" t="s">
-        <v>60</v>
+      <c r="E307" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="308" spans="3:5">
       <c r="E308" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309" spans="3:5">
       <c r="E309" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="310" spans="3:5">
-      <c r="E310" s="1" t="s">
-        <v>97</v>
+      <c r="C310" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="311" spans="3:5">
-      <c r="E311" s="1" t="s">
-        <v>98</v>
+      <c r="D311" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="312" spans="3:5">
       <c r="E312" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="313" spans="3:5">
-      <c r="C313" s="1" t="s">
-        <v>42</v>
+      <c r="E313" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="314" spans="3:5">
-      <c r="D314" s="1" t="s">
-        <v>60</v>
+      <c r="E314" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="315" spans="3:5">
       <c r="E315" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="316" spans="3:5">
       <c r="E316" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="3:5">
-      <c r="E317" s="1" t="s">
-        <v>97</v>
+      <c r="C317" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="318" spans="3:5">
-      <c r="E318" s="1" t="s">
-        <v>98</v>
+      <c r="D318" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="319" spans="3:5">
       <c r="E319" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="320" spans="3:5">
-      <c r="C320" s="1" t="s">
-        <v>43</v>
+      <c r="E320" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="321" spans="1:6">
-      <c r="D321" s="1" t="s">
-        <v>60</v>
+      <c r="E321" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="E322" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="E323" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="1:6">
-      <c r="E324" s="1" t="s">
-        <v>97</v>
+      <c r="C324" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="325" spans="1:6">
-      <c r="E325" s="1" t="s">
-        <v>98</v>
+      <c r="D325" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="E326" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="E327" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="E328" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="E329" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="E330" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A327" s="2" t="s">
+    <row r="331" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A331" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F327" s="3" t="s">
+      <c r="F331" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
-      <c r="B328" s="1" t="s">
+    <row r="332" spans="1:6">
+      <c r="B332" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
-      <c r="B329" s="1" t="s">
+    <row r="333" spans="1:6">
+      <c r="B333" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
-      <c r="C330" s="1" t="s">
+    <row r="334" spans="1:6">
+      <c r="C334" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
-      <c r="C331" s="1" t="s">
+    <row r="335" spans="1:6">
+      <c r="C335" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
-      <c r="C332" s="1" t="s">
+    <row r="336" spans="1:6">
+      <c r="C336" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="C333" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A334" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
-      <c r="B335" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
-      <c r="B336" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="C337" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A338" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="B339" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="B340" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="C341" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
-      <c r="C338" s="1" t="s">
+    <row r="342" spans="1:6">
+      <c r="C342" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
-      <c r="C339" s="1" t="s">
+    <row r="343" spans="1:6">
+      <c r="C343" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="C340" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A341" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F341" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="B342" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="B343" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="C344" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A345" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="B346" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="B347" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="C348" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
-      <c r="C345" s="1" t="s">
+    <row r="349" spans="1:6">
+      <c r="C349" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
-      <c r="C346" s="1" t="s">
+    <row r="350" spans="1:6">
+      <c r="C350" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="C347" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A348" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F348" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="B349" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="B350" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="C351" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A352" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="B353" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="B354" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="C355" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
-      <c r="C352" s="1" t="s">
+    <row r="356" spans="1:6">
+      <c r="C356" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
-      <c r="C353" s="1" t="s">
+    <row r="357" spans="1:6">
+      <c r="C357" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
-      <c r="C354" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A355" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="B356" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="B357" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="C358" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A359" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="B360" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="B361" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="C362" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
-      <c r="C359" s="1" t="s">
+    <row r="363" spans="1:6">
+      <c r="C363" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
-      <c r="C360" s="1" t="s">
+    <row r="364" spans="1:6">
+      <c r="C364" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="C361" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A362" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="B363" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="B364" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="C365" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A366" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="B367" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="B368" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="C369" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
-      <c r="C366" s="1" t="s">
+    <row r="370" spans="1:6">
+      <c r="C370" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
-      <c r="C367" s="1" t="s">
+    <row r="371" spans="1:6">
+      <c r="C371" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="C368" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A369" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F369" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
-      <c r="B370" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="B371" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="C372" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A373" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="B374" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="B375" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="C376" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
-      <c r="C373" s="1" t="s">
+    <row r="377" spans="1:6">
+      <c r="C377" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
-      <c r="C374" s="1" t="s">
+    <row r="378" spans="1:6">
+      <c r="C378" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
-      <c r="C375" s="1" t="s">
+    <row r="379" spans="1:6">
+      <c r="C379" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="376" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A376" s="2" t="s">
+    <row r="380" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A380" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F376" s="3" t="s">
+      <c r="F380" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
-      <c r="B377" s="1" t="s">
+    <row r="381" spans="1:6">
+      <c r="B381" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
-      <c r="D378" s="1" t="s">
+    <row r="382" spans="1:6">
+      <c r="D382" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="E379" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
-      <c r="E380" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
-      <c r="E381" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="E382" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="E383" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="E384" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="385" spans="4:5">
       <c r="E385" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="386" spans="4:5">
       <c r="E386" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="387" spans="4:5">
-      <c r="D387" s="1" t="s">
-        <v>62</v>
+      <c r="E387" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="388" spans="4:5">
       <c r="E388" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="389" spans="4:5">
       <c r="E389" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="390" spans="4:5">
       <c r="E390" s="1" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="391" spans="4:5">
-      <c r="E391" s="1" t="s">
-        <v>103</v>
+      <c r="D391" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="392" spans="4:5">
       <c r="E392" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="4:5">
       <c r="E393" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="394" spans="4:5">
       <c r="E394" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="395" spans="4:5">
       <c r="E395" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="396" spans="4:5">
-      <c r="D396" s="1" t="s">
-        <v>63</v>
+      <c r="E396" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="397" spans="4:5">
       <c r="E397" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="398" spans="4:5">
       <c r="E398" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="399" spans="4:5">
       <c r="E399" s="1" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="400" spans="4:5">
-      <c r="E400" s="1" t="s">
-        <v>103</v>
+      <c r="D400" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="401" spans="2:5">
       <c r="E401" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="402" spans="2:5">
       <c r="E402" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="403" spans="2:5">
       <c r="E403" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="404" spans="2:5">
       <c r="E404" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="405" spans="2:5">
-      <c r="B405" s="1" t="s">
-        <v>39</v>
+      <c r="E405" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="406" spans="2:5">
-      <c r="C406" s="1" t="s">
-        <v>40</v>
+      <c r="E406" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="407" spans="2:5">
-      <c r="D407" s="1" t="s">
-        <v>61</v>
+      <c r="E407" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="408" spans="2:5">
       <c r="E408" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="409" spans="2:5">
-      <c r="E409" s="1" t="s">
-        <v>101</v>
+      <c r="B409" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="410" spans="2:5">
-      <c r="E410" s="1" t="s">
-        <v>102</v>
+      <c r="C410" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="411" spans="2:5">
-      <c r="E411" s="1" t="s">
-        <v>103</v>
+      <c r="D411" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="412" spans="2:5">
       <c r="E412" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="413" spans="2:5">
       <c r="E413" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="414" spans="2:5">
       <c r="E414" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="415" spans="2:5">
       <c r="E415" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="416" spans="2:5">
-      <c r="D416" s="1" t="s">
-        <v>62</v>
+      <c r="E416" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="417" spans="4:5">
       <c r="E417" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="418" spans="4:5">
       <c r="E418" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="419" spans="4:5">
       <c r="E419" s="1" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="420" spans="4:5">
-      <c r="E420" s="1" t="s">
-        <v>103</v>
+      <c r="D420" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="421" spans="4:5">
       <c r="E421" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="422" spans="4:5">
       <c r="E422" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="423" spans="4:5">
       <c r="E423" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="424" spans="4:5">
       <c r="E424" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="425" spans="4:5">
-      <c r="D425" s="1" t="s">
-        <v>63</v>
+      <c r="E425" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="426" spans="4:5">
       <c r="E426" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="427" spans="4:5">
       <c r="E427" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="428" spans="4:5">
       <c r="E428" s="1" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="429" spans="4:5">
-      <c r="E429" s="1" t="s">
-        <v>103</v>
+      <c r="D429" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="430" spans="4:5">
       <c r="E430" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="431" spans="4:5">
       <c r="E431" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="432" spans="4:5">
       <c r="E432" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="433" spans="3:5">
       <c r="E433" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="434" spans="3:5">
-      <c r="C434" s="1" t="s">
-        <v>41</v>
+      <c r="E434" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="435" spans="3:5">
-      <c r="D435" s="1" t="s">
-        <v>61</v>
+      <c r="E435" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="436" spans="3:5">
       <c r="E436" s="1" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="437" spans="3:5">
       <c r="E437" s="1" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
     </row>
     <row r="438" spans="3:5">
-      <c r="E438" s="1" t="s">
-        <v>102</v>
+      <c r="C438" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="439" spans="3:5">
-      <c r="E439" s="1" t="s">
-        <v>103</v>
+      <c r="D439" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="440" spans="3:5">
       <c r="E440" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="441" spans="3:5">
       <c r="E441" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="442" spans="3:5">
       <c r="E442" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="443" spans="3:5">
       <c r="E443" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="444" spans="3:5">
-      <c r="D444" s="1" t="s">
-        <v>62</v>
+      <c r="E444" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="445" spans="3:5">
       <c r="E445" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="446" spans="3:5">
       <c r="E446" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="447" spans="3:5">
       <c r="E447" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="448" spans="3:5">
+      <c r="D448" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="449" spans="4:5">
+      <c r="E449" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="450" spans="4:5">
+      <c r="E450" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="451" spans="4:5">
+      <c r="E451" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="448" spans="3:5">
-      <c r="E448" s="1" t="s">
+    <row r="452" spans="4:5">
+      <c r="E452" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="449" spans="3:5">
-      <c r="E449" s="1" t="s">
+    <row r="453" spans="4:5">
+      <c r="E453" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="450" spans="3:5">
-      <c r="E450" s="1" t="s">
+    <row r="454" spans="4:5">
+      <c r="E454" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="451" spans="3:5">
-      <c r="E451" s="1" t="s">
+    <row r="455" spans="4:5">
+      <c r="E455" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="452" spans="3:5">
-      <c r="E452" s="1" t="s">
+    <row r="456" spans="4:5">
+      <c r="E456" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="453" spans="3:5">
-      <c r="D453" s="1" t="s">
+    <row r="457" spans="4:5">
+      <c r="D457" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="454" spans="3:5">
-      <c r="E454" s="1" t="s">
+    <row r="458" spans="4:5">
+      <c r="E458" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="3:5">
-      <c r="E455" s="1" t="s">
+    <row r="459" spans="4:5">
+      <c r="E459" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="456" spans="3:5">
-      <c r="E456" s="1" t="s">
+    <row r="460" spans="4:5">
+      <c r="E460" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="457" spans="3:5">
-      <c r="E457" s="1" t="s">
+    <row r="461" spans="4:5">
+      <c r="E461" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="458" spans="3:5">
-      <c r="E458" s="1" t="s">
+    <row r="462" spans="4:5">
+      <c r="E462" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="459" spans="3:5">
-      <c r="E459" s="1" t="s">
+    <row r="463" spans="4:5">
+      <c r="E463" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="460" spans="3:5">
-      <c r="E460" s="1" t="s">
+    <row r="464" spans="4:5">
+      <c r="E464" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="461" spans="3:5">
-      <c r="E461" s="1" t="s">
+    <row r="465" spans="3:5">
+      <c r="E465" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="462" spans="3:5">
-      <c r="C462" s="1" t="s">
+    <row r="466" spans="3:5">
+      <c r="C466" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="463" spans="3:5">
-      <c r="D463" s="1" t="s">
+    <row r="467" spans="3:5">
+      <c r="D467" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="464" spans="3:5">
-      <c r="E464" s="1" t="s">
+    <row r="468" spans="3:5">
+      <c r="E468" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="465" spans="4:5">
-      <c r="E465" s="1" t="s">
+    <row r="469" spans="3:5">
+      <c r="E469" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="466" spans="4:5">
-      <c r="E466" s="1" t="s">
+    <row r="470" spans="3:5">
+      <c r="E470" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="467" spans="4:5">
-      <c r="E467" s="1" t="s">
+    <row r="471" spans="3:5">
+      <c r="E471" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="468" spans="4:5">
-      <c r="E468" s="1" t="s">
+    <row r="472" spans="3:5">
+      <c r="E472" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="469" spans="4:5">
-      <c r="E469" s="1" t="s">
+    <row r="473" spans="3:5">
+      <c r="E473" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="470" spans="4:5">
-      <c r="E470" s="1" t="s">
+    <row r="474" spans="3:5">
+      <c r="E474" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="471" spans="4:5">
-      <c r="E471" s="1" t="s">
+    <row r="475" spans="3:5">
+      <c r="E475" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="472" spans="4:5">
-      <c r="D472" s="1" t="s">
+    <row r="476" spans="3:5">
+      <c r="D476" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="473" spans="4:5">
-      <c r="E473" s="1" t="s">
+    <row r="477" spans="3:5">
+      <c r="E477" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="474" spans="4:5">
-      <c r="E474" s="1" t="s">
+    <row r="478" spans="3:5">
+      <c r="E478" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="475" spans="4:5">
-      <c r="E475" s="1" t="s">
+    <row r="479" spans="3:5">
+      <c r="E479" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="476" spans="4:5">
-      <c r="E476" s="1" t="s">
+    <row r="480" spans="3:5">
+      <c r="E480" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="477" spans="4:5">
-      <c r="E477" s="1" t="s">
+    <row r="481" spans="3:5">
+      <c r="E481" s="1" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="478" spans="4:5">
-      <c r="E478" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="479" spans="4:5">
-      <c r="E479" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="480" spans="4:5">
-      <c r="E480" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="481" spans="3:5">
-      <c r="D481" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="482" spans="3:5">
       <c r="E482" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="483" spans="3:5">
       <c r="E483" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="484" spans="3:5">
       <c r="E484" s="1" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="485" spans="3:5">
-      <c r="E485" s="1" t="s">
-        <v>103</v>
+      <c r="D485" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="486" spans="3:5">
       <c r="E486" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="487" spans="3:5">
       <c r="E487" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="488" spans="3:5">
       <c r="E488" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="489" spans="3:5">
       <c r="E489" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="490" spans="3:5">
-      <c r="C490" s="1" t="s">
-        <v>43</v>
+      <c r="E490" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="491" spans="3:5">
-      <c r="D491" s="1" t="s">
-        <v>61</v>
+      <c r="E491" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="492" spans="3:5">
       <c r="E492" s="1" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="493" spans="3:5">
       <c r="E493" s="1" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
     </row>
     <row r="494" spans="3:5">
-      <c r="E494" s="1" t="s">
-        <v>102</v>
+      <c r="C494" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="495" spans="3:5">
-      <c r="E495" s="1" t="s">
-        <v>103</v>
+      <c r="D495" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="496" spans="3:5">
       <c r="E496" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="497" spans="4:5">
       <c r="E497" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="498" spans="4:5">
       <c r="E498" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="499" spans="4:5">
       <c r="E499" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="500" spans="4:5">
-      <c r="D500" s="1" t="s">
-        <v>62</v>
+      <c r="E500" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="501" spans="4:5">
       <c r="E501" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="502" spans="4:5">
       <c r="E502" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="503" spans="4:5">
       <c r="E503" s="1" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="504" spans="4:5">
-      <c r="E504" s="1" t="s">
-        <v>103</v>
+      <c r="D504" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="505" spans="4:5">
       <c r="E505" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="506" spans="4:5">
       <c r="E506" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="507" spans="4:5">
       <c r="E507" s="1" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="508" spans="4:5">
       <c r="E508" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="509" spans="4:5">
-      <c r="D509" s="1" t="s">
-        <v>63</v>
+      <c r="E509" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="510" spans="4:5">
       <c r="E510" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="511" spans="4:5">
       <c r="E511" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="512" spans="4:5">
       <c r="E512" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="D513" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="E514" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="E515" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="E516" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
-      <c r="E513" s="1" t="s">
+    <row r="517" spans="1:6">
+      <c r="E517" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
-      <c r="E514" s="1" t="s">
+    <row r="518" spans="1:6">
+      <c r="E518" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
-      <c r="E515" s="1" t="s">
+    <row r="519" spans="1:6">
+      <c r="E519" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
-      <c r="E516" s="1" t="s">
+    <row r="520" spans="1:6">
+      <c r="E520" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
-      <c r="E517" s="1" t="s">
+    <row r="521" spans="1:6">
+      <c r="E521" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="518" spans="1:7" s="3" customFormat="1" ht="14.4">
-      <c r="A518" s="2" t="s">
+    <row r="522" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A522" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F518" s="3" t="s">
+      <c r="F522" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
-      <c r="B519" s="1" t="s">
+    <row r="523" spans="1:6">
+      <c r="B523" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
-      <c r="B520" s="1" t="s">
+    <row r="524" spans="1:6">
+      <c r="B524" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
-      <c r="C521" s="1" t="s">
+    <row r="525" spans="1:6">
+      <c r="C525" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
-      <c r="C522" s="1" t="s">
+    <row r="526" spans="1:6">
+      <c r="C526" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
-      <c r="C523" s="1" t="s">
+    <row r="527" spans="1:6">
+      <c r="C527" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
-      <c r="C524" s="1" t="s">
+    <row r="528" spans="1:6">
+      <c r="C528" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="525" spans="1:7" s="3" customFormat="1" ht="14.4">
-      <c r="A525" s="2" t="s">
+    <row r="529" spans="1:7" s="3" customFormat="1" ht="14.4">
+      <c r="A529" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F525" s="3" t="s">
+      <c r="F529" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
-      <c r="B526" s="1" t="s">
+    <row r="530" spans="1:7">
+      <c r="B530" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
-      <c r="G527" s="1" t="s">
+    <row r="531" spans="1:7">
+      <c r="G531" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
-      <c r="G528" s="1" t="s">
+    <row r="532" spans="1:7">
+      <c r="G532" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="529" spans="7:7">
-      <c r="G529" s="1" t="s">
+    <row r="533" spans="1:7">
+      <c r="G533" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="530" spans="7:7">
-      <c r="G530" s="1" t="s">
+    <row r="534" spans="1:7">
+      <c r="G534" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="531" spans="7:7">
-      <c r="G531" s="1" t="s">
+    <row r="535" spans="1:7">
+      <c r="G535" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="532" spans="7:7">
-      <c r="G532" s="1" t="s">
+    <row r="536" spans="1:7">
+      <c r="G536" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="533" spans="7:7">
-      <c r="G533" s="1" t="s">
+    <row r="537" spans="1:7">
+      <c r="G537" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="534" spans="7:7">
-      <c r="G534" s="1" t="s">
+    <row r="538" spans="1:7">
+      <c r="G538" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="535" spans="7:7">
-      <c r="G535" s="1" t="s">
+    <row r="539" spans="1:7">
+      <c r="G539" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="536" spans="7:7">
-      <c r="G536" s="1" t="s">
+    <row r="540" spans="1:7">
+      <c r="G540" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="537" spans="7:7">
-      <c r="G537" s="1" t="s">
+    <row r="541" spans="1:7">
+      <c r="G541" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="538" spans="7:7">
-      <c r="G538" s="1" t="s">
+    <row r="542" spans="1:7">
+      <c r="G542" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="539" spans="7:7">
-      <c r="G539" s="1" t="s">
+    <row r="543" spans="1:7">
+      <c r="G543" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="540" spans="7:7">
-      <c r="G540" s="1" t="s">
+    <row r="544" spans="1:7">
+      <c r="G544" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="541" spans="7:7">
-      <c r="G541" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="542" spans="7:7">
-      <c r="G542" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="543" spans="7:7">
-      <c r="G543" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="544" spans="7:7">
-      <c r="G544" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="545" spans="2:7">
       <c r="G545" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="546" spans="2:7">
       <c r="G546" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="547" spans="2:7">
       <c r="G547" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="548" spans="2:7">
       <c r="G548" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="549" spans="2:7">
       <c r="G549" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="550" spans="2:7">
       <c r="G550" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="551" spans="2:7">
       <c r="G551" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="552" spans="2:7">
       <c r="G552" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="553" spans="2:7">
       <c r="G553" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="554" spans="2:7">
       <c r="G554" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="555" spans="2:7">
-      <c r="B555" s="1" t="s">
-        <v>39</v>
+      <c r="G555" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="556" spans="2:7">
-      <c r="C556" s="1" t="s">
-        <v>40</v>
+      <c r="G556" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="557" spans="2:7">
       <c r="G557" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="558" spans="2:7">
       <c r="G558" s="1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="559" spans="2:7">
-      <c r="G559" s="1" t="s">
-        <v>106</v>
+      <c r="B559" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="560" spans="2:7">
-      <c r="G560" s="1" t="s">
-        <v>107</v>
+      <c r="C560" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="561" spans="7:7">
       <c r="G561" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="562" spans="7:7">
       <c r="G562" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="563" spans="7:7">
       <c r="G563" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="564" spans="7:7">
       <c r="G564" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="565" spans="7:7">
       <c r="G565" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="566" spans="7:7">
       <c r="G566" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="567" spans="7:7">
       <c r="G567" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="568" spans="7:7">
       <c r="G568" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="569" spans="7:7">
       <c r="G569" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="570" spans="7:7">
       <c r="G570" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="571" spans="7:7">
       <c r="G571" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="572" spans="7:7">
       <c r="G572" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="573" spans="7:7">
       <c r="G573" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="574" spans="7:7">
       <c r="G574" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="575" spans="7:7">
       <c r="G575" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="576" spans="7:7">
       <c r="G576" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="577" spans="3:7">
       <c r="G577" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="578" spans="3:7">
       <c r="G578" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="579" spans="3:7">
       <c r="G579" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="580" spans="3:7">
       <c r="G580" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="581" spans="3:7">
       <c r="G581" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="582" spans="3:7">
       <c r="G582" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="583" spans="3:7">
       <c r="G583" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="584" spans="3:7">
       <c r="G584" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="585" spans="3:7">
-      <c r="C585" s="1" t="s">
-        <v>41</v>
+      <c r="G585" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="586" spans="3:7">
       <c r="G586" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="587" spans="3:7">
       <c r="G587" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="588" spans="3:7">
       <c r="G588" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="589" spans="3:7">
-      <c r="G589" s="1" t="s">
-        <v>107</v>
+      <c r="C589" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="590" spans="3:7">
       <c r="G590" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="591" spans="3:7">
       <c r="G591" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="592" spans="3:7">
       <c r="G592" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="593" spans="7:7">
       <c r="G593" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="594" spans="7:7">
       <c r="G594" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="595" spans="7:7">
       <c r="G595" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="596" spans="7:7">
       <c r="G596" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="597" spans="7:7">
       <c r="G597" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="598" spans="7:7">
       <c r="G598" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="599" spans="7:7">
       <c r="G599" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="600" spans="7:7">
       <c r="G600" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="601" spans="7:7">
       <c r="G601" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="602" spans="7:7">
       <c r="G602" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="603" spans="7:7">
       <c r="G603" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="604" spans="7:7">
       <c r="G604" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="605" spans="7:7">
       <c r="G605" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="606" spans="7:7">
       <c r="G606" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="607" spans="7:7">
       <c r="G607" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="608" spans="7:7">
       <c r="G608" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="609" spans="3:7">
       <c r="G609" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="610" spans="3:7">
       <c r="G610" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="611" spans="3:7">
       <c r="G611" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="612" spans="3:7">
       <c r="G612" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="613" spans="3:7">
       <c r="G613" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="614" spans="3:7">
-      <c r="C614" s="1" t="s">
-        <v>42</v>
+      <c r="G614" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="615" spans="3:7">
       <c r="G615" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="616" spans="3:7">
       <c r="G616" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="617" spans="3:7">
       <c r="G617" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="618" spans="3:7">
-      <c r="G618" s="1" t="s">
-        <v>107</v>
+      <c r="C618" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="619" spans="3:7">
       <c r="G619" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="620" spans="3:7">
       <c r="G620" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="621" spans="3:7">
       <c r="G621" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="622" spans="3:7">
       <c r="G622" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="623" spans="3:7">
       <c r="G623" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="624" spans="3:7">
       <c r="G624" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="625" spans="7:7">
       <c r="G625" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="626" spans="7:7">
       <c r="G626" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="627" spans="7:7">
       <c r="G627" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="628" spans="7:7">
       <c r="G628" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="629" spans="7:7">
       <c r="G629" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="630" spans="7:7">
       <c r="G630" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="631" spans="7:7">
       <c r="G631" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="632" spans="7:7">
       <c r="G632" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="633" spans="7:7">
       <c r="G633" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="634" spans="7:7">
       <c r="G634" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="635" spans="7:7">
       <c r="G635" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="636" spans="7:7">
       <c r="G636" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="637" spans="7:7">
       <c r="G637" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="638" spans="7:7">
       <c r="G638" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="639" spans="7:7">
       <c r="G639" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="640" spans="7:7">
       <c r="G640" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="641" spans="3:7">
       <c r="G641" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="642" spans="3:7">
       <c r="G642" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="643" spans="3:7">
-      <c r="C643" s="1" t="s">
-        <v>43</v>
+      <c r="G643" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="644" spans="3:7">
       <c r="G644" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="645" spans="3:7">
       <c r="G645" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="646" spans="3:7">
       <c r="G646" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="647" spans="3:7">
-      <c r="G647" s="1" t="s">
-        <v>107</v>
+      <c r="C647" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="648" spans="3:7">
       <c r="G648" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="649" spans="3:7">
       <c r="G649" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="650" spans="3:7">
       <c r="G650" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="651" spans="3:7">
       <c r="G651" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="652" spans="3:7">
       <c r="G652" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="653" spans="3:7">
       <c r="G653" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="654" spans="3:7">
       <c r="G654" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="655" spans="3:7">
       <c r="G655" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="656" spans="3:7">
       <c r="G656" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="657" spans="7:7">
+      <c r="G657" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="658" spans="7:7">
+      <c r="G658" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="659" spans="7:7">
+      <c r="G659" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
-      <c r="G657" s="1" t="s">
+    <row r="660" spans="7:7">
+      <c r="G660" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="661" spans="7:7">
+      <c r="G661" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
-      <c r="G658" s="1" t="s">
+    <row r="662" spans="7:7">
+      <c r="G662" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
-      <c r="G659" s="1" t="s">
+    <row r="663" spans="7:7">
+      <c r="G663" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
-      <c r="G660" s="1" t="s">
+    <row r="664" spans="7:7">
+      <c r="G664" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
-      <c r="G661" s="1" t="s">
+    <row r="665" spans="7:7">
+      <c r="G665" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
-      <c r="G662" s="1" t="s">
+    <row r="666" spans="7:7">
+      <c r="G666" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
-      <c r="G663" s="1" t="s">
+    <row r="667" spans="7:7">
+      <c r="G667" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
-      <c r="G664" s="1" t="s">
+    <row r="668" spans="7:7">
+      <c r="G668" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
-      <c r="G665" s="1" t="s">
+    <row r="669" spans="7:7">
+      <c r="G669" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
-      <c r="G666" s="1" t="s">
+    <row r="670" spans="7:7">
+      <c r="G670" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
-      <c r="G667" s="1" t="s">
+    <row r="671" spans="7:7">
+      <c r="G671" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
-      <c r="G668" s="1" t="s">
+    <row r="672" spans="7:7">
+      <c r="G672" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
-      <c r="G669" s="1" t="s">
+    <row r="673" spans="1:7">
+      <c r="G673" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
-      <c r="G670" s="1" t="s">
+    <row r="674" spans="1:7">
+      <c r="G674" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
-      <c r="G671" s="1" t="s">
+    <row r="675" spans="1:7">
+      <c r="G675" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="672" spans="1:7" s="3" customFormat="1" ht="14.4">
-      <c r="A672" s="2" t="s">
+    <row r="676" spans="1:7" s="3" customFormat="1" ht="14.4">
+      <c r="A676" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F672" s="3" t="s">
+      <c r="F676" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="673" spans="2:7">
-      <c r="B673" s="1" t="s">
+    <row r="677" spans="1:7">
+      <c r="B677" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="674" spans="2:7">
-      <c r="G674" s="1" t="s">
+    <row r="678" spans="1:7">
+      <c r="G678" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="675" spans="2:7">
-      <c r="G675" s="1" t="s">
+    <row r="679" spans="1:7">
+      <c r="G679" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="676" spans="2:7">
-      <c r="G676" s="1" t="s">
+    <row r="680" spans="1:7">
+      <c r="G680" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="677" spans="2:7">
-      <c r="G677" s="1" t="s">
+    <row r="681" spans="1:7">
+      <c r="G681" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="678" spans="2:7">
-      <c r="G678" s="1" t="s">
+    <row r="682" spans="1:7">
+      <c r="G682" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="679" spans="2:7">
-      <c r="G679" s="1" t="s">
+    <row r="683" spans="1:7">
+      <c r="G683" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="680" spans="2:7">
-      <c r="G680" s="1" t="s">
+    <row r="684" spans="1:7">
+      <c r="G684" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="681" spans="2:7">
-      <c r="G681" s="1" t="s">
+    <row r="685" spans="1:7">
+      <c r="G685" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="682" spans="2:7">
-      <c r="G682" s="1" t="s">
+    <row r="686" spans="1:7">
+      <c r="G686" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="683" spans="2:7">
-      <c r="G683" s="1" t="s">
+    <row r="687" spans="1:7">
+      <c r="G687" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="684" spans="2:7">
-      <c r="G684" s="1" t="s">
+    <row r="688" spans="1:7">
+      <c r="G688" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="685" spans="2:7">
-      <c r="G685" s="1" t="s">
+    <row r="689" spans="7:7">
+      <c r="G689" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="686" spans="2:7">
-      <c r="G686" s="1" t="s">
+    <row r="690" spans="7:7">
+      <c r="G690" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="687" spans="2:7">
-      <c r="G687" s="1" t="s">
+    <row r="691" spans="7:7">
+      <c r="G691" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="688" spans="2:7">
-      <c r="G688" s="1" t="s">
+    <row r="692" spans="7:7">
+      <c r="G692" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="689" spans="2:7">
-      <c r="G689" s="1" t="s">
+    <row r="693" spans="7:7">
+      <c r="G693" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="690" spans="2:7">
-      <c r="G690" s="1" t="s">
+    <row r="694" spans="7:7">
+      <c r="G694" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="691" spans="2:7">
-      <c r="G691" s="1" t="s">
+    <row r="695" spans="7:7">
+      <c r="G695" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="692" spans="2:7">
-      <c r="G692" s="1" t="s">
+    <row r="696" spans="7:7">
+      <c r="G696" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="693" spans="2:7">
-      <c r="G693" s="1" t="s">
+    <row r="697" spans="7:7">
+      <c r="G697" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="694" spans="2:7">
-      <c r="G694" s="1" t="s">
+    <row r="698" spans="7:7">
+      <c r="G698" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="695" spans="2:7">
-      <c r="G695" s="1" t="s">
+    <row r="699" spans="7:7">
+      <c r="G699" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="696" spans="2:7">
-      <c r="G696" s="1" t="s">
+    <row r="700" spans="7:7">
+      <c r="G700" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="697" spans="2:7">
-      <c r="G697" s="1" t="s">
+    <row r="701" spans="7:7">
+      <c r="G701" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="698" spans="2:7">
-      <c r="G698" s="1" t="s">
+    <row r="702" spans="7:7">
+      <c r="G702" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="699" spans="2:7">
-      <c r="G699" s="1" t="s">
+    <row r="703" spans="7:7">
+      <c r="G703" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="700" spans="2:7">
-      <c r="G700" s="1" t="s">
+    <row r="704" spans="7:7">
+      <c r="G704" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="701" spans="2:7">
-      <c r="G701" s="1" t="s">
+    <row r="705" spans="2:7">
+      <c r="G705" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="702" spans="2:7">
-      <c r="B702" s="1" t="s">
+    <row r="706" spans="2:7">
+      <c r="B706" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="703" spans="2:7">
-      <c r="C703" s="1" t="s">
+    <row r="707" spans="2:7">
+      <c r="C707" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="704" spans="2:7">
-      <c r="G704" s="1" t="s">
+    <row r="708" spans="2:7">
+      <c r="G708" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="705" spans="7:7">
-      <c r="G705" s="1" t="s">
+    <row r="709" spans="2:7">
+      <c r="G709" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="706" spans="7:7">
-      <c r="G706" s="1" t="s">
+    <row r="710" spans="2:7">
+      <c r="G710" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="707" spans="7:7">
-      <c r="G707" s="1" t="s">
+    <row r="711" spans="2:7">
+      <c r="G711" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="708" spans="7:7">
-      <c r="G708" s="1" t="s">
+    <row r="712" spans="2:7">
+      <c r="G712" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="709" spans="7:7">
-      <c r="G709" s="1" t="s">
+    <row r="713" spans="2:7">
+      <c r="G713" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="710" spans="7:7">
-      <c r="G710" s="1" t="s">
+    <row r="714" spans="2:7">
+      <c r="G714" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="711" spans="7:7">
-      <c r="G711" s="1" t="s">
+    <row r="715" spans="2:7">
+      <c r="G715" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="712" spans="7:7">
-      <c r="G712" s="1" t="s">
+    <row r="716" spans="2:7">
+      <c r="G716" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="713" spans="7:7">
-      <c r="G713" s="1" t="s">
+    <row r="717" spans="2:7">
+      <c r="G717" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="714" spans="7:7">
-      <c r="G714" s="1" t="s">
+    <row r="718" spans="2:7">
+      <c r="G718" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="715" spans="7:7">
-      <c r="G715" s="1" t="s">
+    <row r="719" spans="2:7">
+      <c r="G719" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="716" spans="7:7">
-      <c r="G716" s="1" t="s">
+    <row r="720" spans="2:7">
+      <c r="G720" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="717" spans="7:7">
-      <c r="G717" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="718" spans="7:7">
-      <c r="G718" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="719" spans="7:7">
-      <c r="G719" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="720" spans="7:7">
-      <c r="G720" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="721" spans="3:7">
       <c r="G721" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="722" spans="3:7">
       <c r="G722" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="723" spans="3:7">
       <c r="G723" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="724" spans="3:7">
       <c r="G724" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="725" spans="3:7">
       <c r="G725" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="726" spans="3:7">
       <c r="G726" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="727" spans="3:7">
       <c r="G727" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="728" spans="3:7">
       <c r="G728" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="729" spans="3:7">
       <c r="G729" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="730" spans="3:7">
       <c r="G730" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="731" spans="3:7">
       <c r="G731" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="732" spans="3:7">
-      <c r="C732" s="1" t="s">
-        <v>41</v>
+      <c r="G732" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="733" spans="3:7">
       <c r="G733" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="734" spans="3:7">
       <c r="G734" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="735" spans="3:7">
       <c r="G735" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="736" spans="3:7">
-      <c r="G736" s="1" t="s">
-        <v>107</v>
+      <c r="C736" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="737" spans="7:7">
       <c r="G737" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="738" spans="7:7">
       <c r="G738" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="739" spans="7:7">
       <c r="G739" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="740" spans="7:7">
       <c r="G740" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="741" spans="7:7">
       <c r="G741" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="742" spans="7:7">
       <c r="G742" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="743" spans="7:7">
       <c r="G743" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="744" spans="7:7">
       <c r="G744" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="745" spans="7:7">
       <c r="G745" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="746" spans="7:7">
       <c r="G746" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="747" spans="7:7">
       <c r="G747" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="748" spans="7:7">
       <c r="G748" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="749" spans="7:7">
       <c r="G749" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="750" spans="7:7">
       <c r="G750" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="751" spans="7:7">
       <c r="G751" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="752" spans="7:7">
       <c r="G752" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="753" spans="3:7">
       <c r="G753" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="754" spans="3:7">
       <c r="G754" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="755" spans="3:7">
       <c r="G755" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="756" spans="3:7">
       <c r="G756" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="757" spans="3:7">
       <c r="G757" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="758" spans="3:7">
       <c r="G758" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="759" spans="3:7">
       <c r="G759" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="760" spans="3:7">
       <c r="G760" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="761" spans="3:7">
-      <c r="C761" s="1" t="s">
-        <v>42</v>
+      <c r="G761" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="762" spans="3:7">
       <c r="G762" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="763" spans="3:7">
       <c r="G763" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="764" spans="3:7">
       <c r="G764" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="765" spans="3:7">
-      <c r="G765" s="1" t="s">
-        <v>107</v>
+      <c r="C765" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="766" spans="3:7">
       <c r="G766" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="767" spans="3:7">
       <c r="G767" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="768" spans="3:7">
       <c r="G768" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="769" spans="7:7">
       <c r="G769" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="770" spans="7:7">
       <c r="G770" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="771" spans="7:7">
       <c r="G771" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="772" spans="7:7">
       <c r="G772" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="773" spans="7:7">
       <c r="G773" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="774" spans="7:7">
       <c r="G774" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="775" spans="7:7">
       <c r="G775" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="776" spans="7:7">
       <c r="G776" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="777" spans="7:7">
       <c r="G777" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="778" spans="7:7">
       <c r="G778" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="779" spans="7:7">
       <c r="G779" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="780" spans="7:7">
       <c r="G780" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="781" spans="7:7">
       <c r="G781" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="782" spans="7:7">
       <c r="G782" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="783" spans="7:7">
       <c r="G783" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="784" spans="7:7">
       <c r="G784" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="785" spans="3:7">
       <c r="G785" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="786" spans="3:7">
       <c r="G786" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="787" spans="3:7">
       <c r="G787" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="788" spans="3:7">
       <c r="G788" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="789" spans="3:7">
       <c r="G789" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="790" spans="3:7">
-      <c r="C790" s="1" t="s">
-        <v>43</v>
+      <c r="G790" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="791" spans="3:7">
       <c r="G791" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="792" spans="3:7">
       <c r="G792" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="793" spans="3:7">
       <c r="G793" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="794" spans="3:7">
-      <c r="G794" s="1" t="s">
-        <v>107</v>
+      <c r="C794" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="795" spans="3:7">
       <c r="G795" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="796" spans="3:7">
       <c r="G796" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="797" spans="3:7">
       <c r="G797" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="798" spans="3:7">
       <c r="G798" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="799" spans="3:7">
       <c r="G799" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="800" spans="3:7">
       <c r="G800" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="801" spans="7:7">
       <c r="G801" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="802" spans="7:7">
       <c r="G802" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="803" spans="7:7">
       <c r="G803" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="804" spans="7:7">
       <c r="G804" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="805" spans="7:7">
       <c r="G805" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="806" spans="7:7">
       <c r="G806" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="807" spans="7:7">
       <c r="G807" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="808" spans="7:7">
       <c r="G808" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="809" spans="7:7">
       <c r="G809" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="810" spans="7:7">
       <c r="G810" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="811" spans="7:7">
       <c r="G811" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="812" spans="7:7">
       <c r="G812" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="813" spans="7:7">
       <c r="G813" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="814" spans="7:7">
       <c r="G814" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="815" spans="7:7">
       <c r="G815" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="816" spans="7:7">
       <c r="G816" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="817" spans="1:7">
       <c r="G817" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="818" spans="1:7">
       <c r="G818" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7">
+      <c r="G819" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7">
+      <c r="G820" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7">
+      <c r="G821" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7">
+      <c r="G822" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="819" spans="1:7" s="3" customFormat="1" ht="14.4">
-      <c r="A819" s="2" t="s">
+    <row r="823" spans="1:7" s="3" customFormat="1" ht="14.4">
+      <c r="A823" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F819" s="3" t="s">
+      <c r="F823" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="820" spans="1:7">
-      <c r="B820" s="1" t="s">
+    <row r="824" spans="1:7">
+      <c r="B824" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="821" spans="1:7">
-      <c r="B821" s="1" t="s">
+    <row r="825" spans="1:7">
+      <c r="B825" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="822" spans="1:7">
-      <c r="C822" s="1" t="s">
+    <row r="826" spans="1:7">
+      <c r="C826" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="823" spans="1:7">
-      <c r="C823" s="1" t="s">
+    <row r="827" spans="1:7">
+      <c r="C827" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="824" spans="1:7">
-      <c r="C824" s="1" t="s">
+    <row r="828" spans="1:7">
+      <c r="C828" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="825" spans="1:7">
-      <c r="C825" s="1" t="s">
+    <row r="829" spans="1:7">
+      <c r="C829" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="826" spans="1:7" s="3" customFormat="1" ht="14.4">
-      <c r="A826" s="2" t="s">
+    <row r="830" spans="1:7" s="3" customFormat="1" ht="14.4">
+      <c r="A830" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F826" s="3" t="s">
+      <c r="F830" s="3" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="827" spans="1:7">
-      <c r="B827" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="828" spans="1:7">
-      <c r="D828" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="829" spans="1:7">
-      <c r="D829" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="830" spans="1:7">
-      <c r="D830" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="831" spans="1:7">
       <c r="B831" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7">
+      <c r="D832" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="833" spans="2:4">
+      <c r="D833" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="834" spans="2:4">
+      <c r="D834" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="835" spans="2:4">
+      <c r="B835" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="832" spans="1:7">
-      <c r="C832" s="1" t="s">
+    <row r="836" spans="2:4">
+      <c r="C836" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="833" spans="1:6">
-      <c r="D833" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="834" spans="1:6">
-      <c r="D834" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="835" spans="1:6">
-      <c r="D835" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="836" spans="1:6">
-      <c r="C836" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="837" spans="1:6">
+    <row r="837" spans="2:4">
       <c r="D837" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="838" spans="1:6">
+    <row r="838" spans="2:4">
       <c r="D838" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="839" spans="1:6">
+    <row r="839" spans="2:4">
       <c r="D839" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="840" spans="1:6">
+    <row r="840" spans="2:4">
       <c r="C840" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="841" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="841" spans="2:4">
       <c r="D841" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="842" spans="1:6">
+    <row r="842" spans="2:4">
       <c r="D842" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="843" spans="1:6">
+    <row r="843" spans="2:4">
       <c r="D843" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="844" spans="1:6">
+    <row r="844" spans="2:4">
       <c r="C844" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="845" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="845" spans="2:4">
       <c r="D845" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="846" spans="1:6">
+    <row r="846" spans="2:4">
       <c r="D846" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="847" spans="1:6">
+    <row r="847" spans="2:4">
       <c r="D847" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="848" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A848" s="2" t="s">
+    <row r="848" spans="2:4">
+      <c r="C848" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6">
+      <c r="D849" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6">
+      <c r="D850" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6">
+      <c r="D851" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A852" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F848" s="3" t="s">
+      <c r="F852" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="849" spans="2:4">
-      <c r="B849" s="1" t="s">
+    <row r="853" spans="1:6">
+      <c r="B853" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="850" spans="2:4">
-      <c r="D850" s="1" t="s">
+    <row r="854" spans="1:6">
+      <c r="D854" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="851" spans="2:4">
-      <c r="D851" s="1" t="s">
+    <row r="855" spans="1:6">
+      <c r="D855" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="852" spans="2:4">
-      <c r="D852" s="1" t="s">
+    <row r="856" spans="1:6">
+      <c r="D856" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="853" spans="2:4">
-      <c r="D853" s="1" t="s">
+    <row r="857" spans="1:6">
+      <c r="D857" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="854" spans="2:4">
-      <c r="B854" s="1" t="s">
+    <row r="858" spans="1:6">
+      <c r="B858" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="855" spans="2:4">
-      <c r="C855" s="1" t="s">
+    <row r="859" spans="1:6">
+      <c r="C859" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="856" spans="2:4">
-      <c r="D856" s="1" t="s">
+    <row r="860" spans="1:6">
+      <c r="D860" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="857" spans="2:4">
-      <c r="D857" s="1" t="s">
+    <row r="861" spans="1:6">
+      <c r="D861" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="858" spans="2:4">
-      <c r="D858" s="1" t="s">
+    <row r="862" spans="1:6">
+      <c r="D862" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="859" spans="2:4">
-      <c r="D859" s="1" t="s">
+    <row r="863" spans="1:6">
+      <c r="D863" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="860" spans="2:4">
-      <c r="C860" s="1" t="s">
+    <row r="864" spans="1:6">
+      <c r="C864" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="861" spans="2:4">
-      <c r="D861" s="1" t="s">
+    <row r="865" spans="1:6">
+      <c r="D865" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="862" spans="2:4">
-      <c r="D862" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="863" spans="2:4">
-      <c r="D863" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="864" spans="2:4">
-      <c r="D864" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="865" spans="1:6">
-      <c r="C865" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="866" spans="1:6">
       <c r="D866" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="867" spans="1:6">
       <c r="D867" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="868" spans="1:6">
       <c r="D868" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="869" spans="1:6">
-      <c r="D869" s="1" t="s">
-        <v>67</v>
+      <c r="C869" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="870" spans="1:6">
-      <c r="C870" s="1" t="s">
-        <v>43</v>
+      <c r="D870" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="871" spans="1:6">
       <c r="D871" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="872" spans="1:6">
       <c r="D872" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="873" spans="1:6">
       <c r="D873" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="874" spans="1:6">
-      <c r="D874" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="875" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A875" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F875" s="3" t="s">
-        <v>164</v>
+      <c r="C874" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6">
+      <c r="D875" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="876" spans="1:6">
-      <c r="B876" s="1" t="s">
-        <v>38</v>
+      <c r="D876" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="877" spans="1:6">
       <c r="D877" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6">
+      <c r="D878" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A879" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F879" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6">
+      <c r="B880" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6">
+      <c r="D881" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="878" spans="1:6">
-      <c r="B878" s="1" t="s">
+    <row r="882" spans="1:6">
+      <c r="B882" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="879" spans="1:6">
-      <c r="C879" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="880" spans="1:6">
-      <c r="D880" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="881" spans="1:6">
-      <c r="C881" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="882" spans="1:6">
-      <c r="D882" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="883" spans="1:6">
       <c r="C883" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="884" spans="1:6">
@@ -5585,7 +5584,7 @@
     </row>
     <row r="885" spans="1:6">
       <c r="C885" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="886" spans="1:6">
@@ -5593,392 +5592,412 @@
         <v>85</v>
       </c>
     </row>
-    <row r="887" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A887" s="2" t="s">
+    <row r="887" spans="1:6">
+      <c r="C887" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6">
+      <c r="D888" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6">
+      <c r="C889" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6">
+      <c r="D890" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A891" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F887" s="3" t="s">
+      <c r="F891" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="888" spans="1:6">
-      <c r="B888" s="1" t="s">
+    <row r="892" spans="1:6">
+      <c r="B892" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="889" spans="1:6">
-      <c r="B889" s="1" t="s">
+    <row r="893" spans="1:6">
+      <c r="B893" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="890" spans="1:6">
-      <c r="C890" s="1" t="s">
+    <row r="894" spans="1:6">
+      <c r="C894" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="891" spans="1:6">
-      <c r="C891" s="1" t="s">
+    <row r="895" spans="1:6">
+      <c r="C895" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="892" spans="1:6">
-      <c r="C892" s="1" t="s">
+    <row r="896" spans="1:6">
+      <c r="C896" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="893" spans="1:6">
-      <c r="C893" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="894" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A894" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F894" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="895" spans="1:6">
-      <c r="B895" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="896" spans="1:6">
-      <c r="B896" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="897" spans="1:6">
       <c r="C897" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A898" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F898" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6">
+      <c r="B899" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6">
+      <c r="B900" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6">
+      <c r="C901" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="898" spans="1:6">
-      <c r="C898" s="1" t="s">
+    <row r="902" spans="1:6">
+      <c r="C902" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="899" spans="1:6">
-      <c r="C899" s="1" t="s">
+    <row r="903" spans="1:6">
+      <c r="C903" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="900" spans="1:6">
-      <c r="C900" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="901" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A901" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F901" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="902" spans="1:6">
-      <c r="B902" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="903" spans="1:6">
-      <c r="B903" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="904" spans="1:6">
       <c r="C904" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A905" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F905" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6">
+      <c r="B906" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6">
+      <c r="B907" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6">
+      <c r="C908" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="905" spans="1:6">
-      <c r="C905" s="1" t="s">
+    <row r="909" spans="1:6">
+      <c r="C909" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="906" spans="1:6">
-      <c r="C906" s="1" t="s">
+    <row r="910" spans="1:6">
+      <c r="C910" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="907" spans="1:6">
-      <c r="C907" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="908" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A908" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F908" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="909" spans="1:6">
-      <c r="B909" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="910" spans="1:6">
-      <c r="B910" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="911" spans="1:6">
       <c r="C911" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A912" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F912" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6">
+      <c r="B913" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6">
+      <c r="B914" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6">
+      <c r="C915" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="912" spans="1:6">
-      <c r="C912" s="1" t="s">
+    <row r="916" spans="1:6">
+      <c r="C916" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="913" spans="1:6">
-      <c r="C913" s="1" t="s">
+    <row r="917" spans="1:6">
+      <c r="C917" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="914" spans="1:6">
-      <c r="C914" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="915" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A915" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F915" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="916" spans="1:6">
-      <c r="B916" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="917" spans="1:6">
-      <c r="B917" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="918" spans="1:6">
       <c r="C918" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A919" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F919" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6">
+      <c r="B920" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6">
+      <c r="B921" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6">
+      <c r="C922" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="919" spans="1:6">
-      <c r="C919" s="1" t="s">
+    <row r="923" spans="1:6">
+      <c r="C923" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="920" spans="1:6">
-      <c r="C920" s="1" t="s">
+    <row r="924" spans="1:6">
+      <c r="C924" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="921" spans="1:6">
-      <c r="C921" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="922" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A922" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F922" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="923" spans="1:6">
-      <c r="B923" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="924" spans="1:6">
-      <c r="B924" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="925" spans="1:6">
       <c r="C925" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A926" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F926" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6">
+      <c r="B927" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6">
+      <c r="B928" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6">
+      <c r="C929" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="926" spans="1:6">
-      <c r="C926" s="1" t="s">
+    <row r="930" spans="1:6">
+      <c r="C930" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="927" spans="1:6">
-      <c r="C927" s="1" t="s">
+    <row r="931" spans="1:6">
+      <c r="C931" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="928" spans="1:6">
-      <c r="C928" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="929" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A929" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F929" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="930" spans="1:6">
-      <c r="B930" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="931" spans="1:6">
-      <c r="B931" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="932" spans="1:6">
       <c r="C932" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A933" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F933" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6">
+      <c r="B934" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6">
+      <c r="B935" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6">
+      <c r="C936" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="933" spans="1:6">
-      <c r="C933" s="1" t="s">
+    <row r="937" spans="1:6">
+      <c r="C937" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="934" spans="1:6">
-      <c r="C934" s="1" t="s">
+    <row r="938" spans="1:6">
+      <c r="C938" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="935" spans="1:6">
-      <c r="C935" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="936" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A936" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F936" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="937" spans="1:6">
-      <c r="B937" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="938" spans="1:6">
-      <c r="B938" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="939" spans="1:6">
       <c r="C939" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A940" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F940" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6">
+      <c r="B941" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6">
+      <c r="B942" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6">
+      <c r="C943" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="940" spans="1:6">
-      <c r="C940" s="1" t="s">
+    <row r="944" spans="1:6">
+      <c r="C944" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="941" spans="1:6">
-      <c r="C941" s="1" t="s">
+    <row r="945" spans="1:6">
+      <c r="C945" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="942" spans="1:6">
-      <c r="C942" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="943" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A943" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F943" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="944" spans="1:6">
-      <c r="B944" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="945" spans="1:6">
-      <c r="B945" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="946" spans="1:6">
       <c r="C946" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A947" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F947" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6">
+      <c r="B948" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6">
+      <c r="B949" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6">
+      <c r="C950" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="947" spans="1:6">
-      <c r="C947" s="1" t="s">
+    <row r="951" spans="1:6">
+      <c r="C951" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="948" spans="1:6">
-      <c r="C948" s="1" t="s">
+    <row r="952" spans="1:6">
+      <c r="C952" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="949" spans="1:6">
-      <c r="C949" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="950" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A950" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F950" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="951" spans="1:6">
-      <c r="B951" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="952" spans="1:6">
-      <c r="B952" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="953" spans="1:6">
       <c r="C953" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" s="3" customFormat="1" ht="14.4">
+      <c r="A954" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F954" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6">
+      <c r="B955" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6">
+      <c r="B956" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6">
+      <c r="C957" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="954" spans="1:6">
-      <c r="C954" s="1" t="s">
+    <row r="958" spans="1:6">
+      <c r="C958" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="955" spans="1:6">
-      <c r="C955" s="1" t="s">
+    <row r="959" spans="1:6">
+      <c r="C959" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="956" spans="1:6">
-      <c r="C956" s="1" t="s">
+    <row r="960" spans="1:6">
+      <c r="C960" s="1" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C518 C525:C819 C826:C887 C894 C901 C908 C915 C922 C929 C936 C943 C950 C957:C1048576" xr:uid="{37F5F245-3F31-4A57-BC8B-D55CC2678CB3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C522 C529:C823 C830:C891 C898 C905 C912 C919 C926 C933 C940 C947 C954 C961:C1048576" xr:uid="{37F5F245-3F31-4A57-BC8B-D55CC2678CB3}">
       <formula1>"VehicleType__AirCarrier, VehicleType__Battleship, VehicleType__Destroyer, VehicleType__Cruiser"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B405 B407:B1048576" xr:uid="{2B687D07-6CB6-4989-9AE5-AB45B5B2D497}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B409 B411:B1048576" xr:uid="{2B687D07-6CB6-4989-9AE5-AB45B5B2D497}">
       <formula1>"nation:germany, nation:japan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5997,7 +6016,7 @@
           <x14:formula1>
             <xm:f>'States and module list'!$F$1:$F$22</xm:f>
           </x14:formula1>
-          <xm:sqref>C822:C825 C521:C524 C953:C956 C890:C893 C897:C900 C904:C907 C911:C914 C918:C921 C925:C928 C932:C935 C939:C942 C946:C949</xm:sqref>
+          <xm:sqref>C826:C829 C525:C528 C957:C960 C894:C897 C901:C904 C908:C911 C915:C918 C922:C925 C929:C932 C936:C939 C943:C946 C950:C953</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E0BBDCF-D327-4FF7-B0FB-4F08ED1CB811}">
           <x14:formula1>
@@ -6436,7 +6455,7 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6446,7 +6465,7 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6456,7 +6475,7 @@
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6466,7 +6485,7 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6476,7 +6495,7 @@
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6486,7 +6505,7 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6496,7 +6515,7 @@
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6506,7 +6525,7 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Wows_Haifuri_VoiceMod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4786C65D-5ED3-479F-9BA3-1F4873E8C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ADADDA-4CE4-4863-8D5F-C755E69F571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
+    <workbookView xWindow="14445" yWindow="240" windowWidth="14250" windowHeight="7965" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
   <sheets>
     <sheet name="VO list" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="168">
   <si>
     <t>Play_VO_Alarm_Defective_Modules</t>
   </si>
@@ -541,13 +538,16 @@
   </si>
   <si>
     <t>Note: Call fighters is the same with catfight and figther add 1 to supplement, SM rendered</t>
+  </si>
+  <si>
+    <t>asdasdasda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,28 +1060,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
-  <dimension ref="A3:R960"/>
+  <dimension ref="A3:R967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+    <sheetView tabSelected="1" topLeftCell="A959" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I965" sqref="I965"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.09765625" style="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="14.4">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1089,54 +1089,54 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>138</v>
       </c>
@@ -1144,12 +1144,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1">
+    <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1157,202 +1157,202 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="3:5" s="5" customFormat="1">
+    <row r="17" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="5" customFormat="1">
+    <row r="18" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -1360,37 +1360,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -1398,37 +1398,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1436,137 +1436,137 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="5" customFormat="1">
+    <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="5" customFormat="1">
+    <row r="72" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D72" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="5" customFormat="1">
+    <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D73" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="5" customFormat="1">
+    <row r="74" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D74" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="5" customFormat="1">
+    <row r="75" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D75" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="5" customFormat="1">
+    <row r="76" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="5" customFormat="1">
+    <row r="77" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="5" customFormat="1">
+    <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D78" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="5" customFormat="1">
+    <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D79" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="5" customFormat="1">
+    <row r="80" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D80" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="3:4" s="5" customFormat="1">
+    <row r="81" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D81" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="3:4" s="5" customFormat="1">
+    <row r="82" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="3:4" s="5" customFormat="1">
+    <row r="83" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D83" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="3:4" s="5" customFormat="1">
+    <row r="84" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D84" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="3:4" s="5" customFormat="1">
+    <row r="85" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D85" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="3:4" s="5" customFormat="1">
+    <row r="86" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D86" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="3:4" s="5" customFormat="1">
+    <row r="87" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:4" s="5" customFormat="1">
+    <row r="88" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D88" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="3:4" s="5" customFormat="1">
+    <row r="89" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D89" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="3:4" s="5" customFormat="1">
+    <row r="90" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D90" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="3:4" s="5" customFormat="1">
+    <row r="91" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D91" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="3:4" s="5" customFormat="1">
+    <row r="92" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="3:4" s="5" customFormat="1">
+    <row r="93" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D93" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="3:4" s="5" customFormat="1">
+    <row r="94" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D94" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="3:4" s="5" customFormat="1">
+    <row r="95" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D95" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="3:4" s="5" customFormat="1">
+    <row r="96" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D96" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
@@ -1574,213 +1574,213 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="5" customFormat="1">
+    <row r="99" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D99" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="5" customFormat="1">
+    <row r="100" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D100" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="5" customFormat="1" ht="14.4">
+    <row r="101" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="D101" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="5" customFormat="1">
+    <row r="102" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D102" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="5" customFormat="1">
+    <row r="103" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D103" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="5" customFormat="1">
+    <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D104" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="5" customFormat="1">
+    <row r="105" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D105" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="5" customFormat="1">
+    <row r="107" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C107" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="5" customFormat="1">
+    <row r="108" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="5" customFormat="1">
+    <row r="109" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D109" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="5" customFormat="1">
+    <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="5" customFormat="1">
+    <row r="111" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D111" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="5" customFormat="1">
+    <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D112" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="3:4" s="5" customFormat="1">
+    <row r="113" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D113" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="3:4" s="5" customFormat="1">
+    <row r="114" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D114" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="3:4" s="5" customFormat="1">
+    <row r="116" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D116" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="3:4" s="5" customFormat="1">
+    <row r="117" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D117" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="3:4" s="5" customFormat="1">
+    <row r="118" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D118" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="3:4" s="5" customFormat="1">
+    <row r="119" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D119" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="3:4" s="5" customFormat="1">
+    <row r="120" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D120" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="3:4" s="5" customFormat="1">
+    <row r="121" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D121" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="3:4" s="5" customFormat="1">
+    <row r="122" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D122" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="3:4" s="5" customFormat="1">
+    <row r="124" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D124" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="3:4" s="5" customFormat="1">
+    <row r="125" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D125" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="3:4" s="5" customFormat="1">
+    <row r="126" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D126" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="3:4" s="5" customFormat="1">
+    <row r="127" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D127" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="3:4" s="5" customFormat="1">
+    <row r="128" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D128" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="5" customFormat="1">
+    <row r="129" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D129" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="5" customFormat="1">
+    <row r="130" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D130" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="5" customFormat="1">
+    <row r="132" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D132" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="5" customFormat="1">
+    <row r="133" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D133" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="5" customFormat="1">
+    <row r="134" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D134" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="5" customFormat="1">
+    <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D135" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="5" customFormat="1">
+    <row r="136" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D136" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="5" customFormat="1">
+    <row r="137" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D137" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="5" customFormat="1">
+    <row r="138" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D138" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
@@ -1788,207 +1788,207 @@
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="5" customFormat="1">
+    <row r="141" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D141" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="5" customFormat="1">
+    <row r="142" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D142" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="5" customFormat="1">
+    <row r="143" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D143" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="5" customFormat="1">
+    <row r="144" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D144" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:4" s="5" customFormat="1">
+    <row r="145" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D145" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="5" customFormat="1">
+    <row r="146" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D146" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="2:4">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="2:4">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="2:4" s="5" customFormat="1">
+    <row r="149" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D149" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="2:4" s="5" customFormat="1">
+    <row r="150" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D150" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="2:4" s="5" customFormat="1">
+    <row r="151" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D151" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="2:4" s="5" customFormat="1">
+    <row r="152" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D152" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="2:4" s="5" customFormat="1">
+    <row r="153" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D153" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="2:4" s="5" customFormat="1">
+    <row r="154" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D154" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="2:4" s="5" customFormat="1">
+    <row r="155" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D155" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="2:4">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="2:4" s="5" customFormat="1">
+    <row r="157" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D157" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="2:4" s="5" customFormat="1">
+    <row r="158" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D158" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="2:4" s="5" customFormat="1">
+    <row r="159" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D159" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="2:4" s="5" customFormat="1">
+    <row r="160" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D160" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="3:4" s="5" customFormat="1">
+    <row r="161" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D161" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="3:4" s="5" customFormat="1">
+    <row r="162" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D162" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="3:4" s="5" customFormat="1">
+    <row r="163" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D163" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="3:4" s="5" customFormat="1">
+    <row r="165" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D165" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="3:4" s="5" customFormat="1">
+    <row r="166" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D166" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="3:4" s="5" customFormat="1">
+    <row r="167" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D167" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="3:4" s="5" customFormat="1">
+    <row r="168" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D168" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="3:4" s="5" customFormat="1">
+    <row r="169" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D169" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="3:4" s="5" customFormat="1">
+    <row r="170" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D170" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="3:4" s="5" customFormat="1">
+    <row r="171" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D171" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="3:4">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="3:4" s="5" customFormat="1">
+    <row r="173" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D173" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="3:4" s="5" customFormat="1">
+    <row r="174" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D174" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="3:4" s="5" customFormat="1">
+    <row r="175" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D175" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="176" spans="3:4" s="5" customFormat="1">
+    <row r="176" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D176" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="5" customFormat="1">
+    <row r="177" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D177" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="5" customFormat="1">
+    <row r="178" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D178" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="5" customFormat="1">
+    <row r="179" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D179" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="180" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>6</v>
       </c>
@@ -1996,87 +1996,87 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="5" customFormat="1">
+    <row r="182" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D182" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="5" customFormat="1">
+    <row r="183" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D183" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="5" customFormat="1">
+    <row r="185" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C185" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="5" customFormat="1">
+    <row r="186" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D186" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="5" customFormat="1">
+    <row r="187" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D187" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="5" customFormat="1">
+    <row r="188" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C188" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="5" customFormat="1">
+    <row r="189" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D189" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="5" customFormat="1">
+    <row r="190" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D190" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="5" customFormat="1">
+    <row r="191" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C191" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="5" customFormat="1">
+    <row r="192" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D192" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="5" customFormat="1">
+    <row r="193" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D193" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="5" customFormat="1">
+    <row r="194" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C194" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="5" customFormat="1">
+    <row r="195" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D195" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="5" customFormat="1">
+    <row r="196" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D196" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>7</v>
       </c>
@@ -2084,37 +2084,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="5" customFormat="1">
+    <row r="198" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="5" customFormat="1">
+    <row r="199" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="5" customFormat="1">
+    <row r="200" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C200" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="5" customFormat="1">
+    <row r="201" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C201" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="5" customFormat="1">
+    <row r="202" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C202" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="5" customFormat="1">
+    <row r="203" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C203" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="204" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>8</v>
       </c>
@@ -2122,187 +2122,187 @@
         <v>139</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D206" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D207" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D208" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D209" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D210" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D211" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="212" spans="2:4">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="2:4">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C213" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="214" spans="2:4">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D214" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="215" spans="2:4">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D215" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="216" spans="2:4">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D216" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="2:4">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D217" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="2:4">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D218" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="2:4">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D219" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="2:4">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C220" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D221" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="2:4">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D222" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="2:4">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D223" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="2:4">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D224" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="3:4">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D225" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="226" spans="3:4">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D226" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="3:4">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C227" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="228" spans="3:4">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D228" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="229" spans="3:4">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D229" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="3:4">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D230" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="3:4">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D231" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="3:4">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D232" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="3:4">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D233" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="234" spans="3:4">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C234" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="3:4">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D235" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="3:4">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D236" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="3:4">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D237" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="238" spans="3:4">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D238" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="239" spans="3:4">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D239" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="240" spans="3:4">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D240" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="241" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>9</v>
       </c>
@@ -2310,137 +2310,137 @@
         <v>140</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D243" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D244" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D245" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D246" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C248" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D249" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D250" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D251" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D252" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C253" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D254" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D255" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D256" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D257" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C258" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D259" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D260" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D261" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D262" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C263" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D264" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D265" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D266" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D267" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="268" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>10</v>
       </c>
@@ -2448,37 +2448,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C271" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C272" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C273" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C274" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="275" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>11</v>
       </c>
@@ -2486,62 +2486,62 @@
         <v>141</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D277" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C279" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D280" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C281" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D282" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C283" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D284" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C285" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D286" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="287" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="287" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>12</v>
       </c>
@@ -2549,37 +2549,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C290" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C291" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C292" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C293" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="294" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>13</v>
       </c>
@@ -2587,187 +2587,187 @@
         <v>165</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D296" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E297" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E298" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E299" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E300" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E301" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C303" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D304" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="305" spans="3:5">
+    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E305" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="306" spans="3:5">
+    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E306" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="307" spans="3:5">
+    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E307" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="308" spans="3:5">
+    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E308" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="309" spans="3:5">
+    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E309" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="310" spans="3:5">
+    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C310" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="3:5">
+    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D311" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="312" spans="3:5">
+    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E312" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="3:5">
+    <row r="313" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E313" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="314" spans="3:5">
+    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E314" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="315" spans="3:5">
+    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E315" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="316" spans="3:5">
+    <row r="316" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E316" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="3:5">
+    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C317" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="318" spans="3:5">
+    <row r="318" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D318" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="3:5">
+    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E319" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="320" spans="3:5">
+    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E320" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E321" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E322" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E323" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C324" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D325" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E326" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E327" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E328" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E329" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E330" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="331" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>14</v>
       </c>
@@ -2775,37 +2775,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C334" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C335" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C336" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C337" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="338" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>131</v>
       </c>
@@ -2813,37 +2813,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C341" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C342" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C343" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C344" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="345" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>130</v>
       </c>
@@ -2851,37 +2851,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C348" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C349" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C350" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C351" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="352" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="352" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>128</v>
       </c>
@@ -2889,37 +2889,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C355" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C356" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C357" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C358" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="359" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="359" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>129</v>
       </c>
@@ -2927,37 +2927,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C362" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C363" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C364" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C365" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="366" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>15</v>
       </c>
@@ -2965,37 +2965,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C369" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C370" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C371" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C372" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="373" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>16</v>
       </c>
@@ -3003,37 +3003,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C376" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C377" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C378" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C379" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="380" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="380" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>17</v>
       </c>
@@ -3041,712 +3041,712 @@
         <v>165</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D382" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E383" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E384" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="385" spans="4:5">
+    <row r="385" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E385" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="386" spans="4:5">
+    <row r="386" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E386" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="387" spans="4:5">
+    <row r="387" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E387" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="388" spans="4:5">
+    <row r="388" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E388" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="389" spans="4:5">
+    <row r="389" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E389" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="390" spans="4:5">
+    <row r="390" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E390" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="391" spans="4:5">
+    <row r="391" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D391" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="392" spans="4:5">
+    <row r="392" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E392" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="393" spans="4:5">
+    <row r="393" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E393" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="394" spans="4:5">
+    <row r="394" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E394" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="395" spans="4:5">
+    <row r="395" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E395" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="396" spans="4:5">
+    <row r="396" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E396" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="397" spans="4:5">
+    <row r="397" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E397" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="398" spans="4:5">
+    <row r="398" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E398" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="399" spans="4:5">
+    <row r="399" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E399" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="400" spans="4:5">
+    <row r="400" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D400" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="401" spans="2:5">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E401" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="402" spans="2:5">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E402" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="403" spans="2:5">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E403" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="404" spans="2:5">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E404" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="405" spans="2:5">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E405" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="406" spans="2:5">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E406" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="407" spans="2:5">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E407" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="408" spans="2:5">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E408" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="409" spans="2:5">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="410" spans="2:5">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C410" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="2:5">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D411" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="412" spans="2:5">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E412" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="413" spans="2:5">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E413" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="414" spans="2:5">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E414" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="415" spans="2:5">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E415" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="416" spans="2:5">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E416" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="417" spans="4:5">
+    <row r="417" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E417" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="418" spans="4:5">
+    <row r="418" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E418" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="419" spans="4:5">
+    <row r="419" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E419" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="420" spans="4:5">
+    <row r="420" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D420" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="421" spans="4:5">
+    <row r="421" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E421" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="4:5">
+    <row r="422" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E422" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="423" spans="4:5">
+    <row r="423" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E423" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="424" spans="4:5">
+    <row r="424" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E424" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="425" spans="4:5">
+    <row r="425" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E425" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="426" spans="4:5">
+    <row r="426" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E426" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="427" spans="4:5">
+    <row r="427" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E427" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="428" spans="4:5">
+    <row r="428" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E428" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="429" spans="4:5">
+    <row r="429" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D429" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="430" spans="4:5">
+    <row r="430" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E430" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="431" spans="4:5">
+    <row r="431" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E431" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="432" spans="4:5">
+    <row r="432" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E432" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="433" spans="3:5">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E433" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="434" spans="3:5">
+    <row r="434" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E434" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="435" spans="3:5">
+    <row r="435" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E435" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="436" spans="3:5">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E436" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="437" spans="3:5">
+    <row r="437" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E437" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="438" spans="3:5">
+    <row r="438" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C438" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="439" spans="3:5">
+    <row r="439" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D439" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="440" spans="3:5">
+    <row r="440" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E440" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="441" spans="3:5">
+    <row r="441" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E441" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="442" spans="3:5">
+    <row r="442" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E442" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="443" spans="3:5">
+    <row r="443" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E443" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="444" spans="3:5">
+    <row r="444" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E444" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="445" spans="3:5">
+    <row r="445" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E445" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="446" spans="3:5">
+    <row r="446" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E446" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="447" spans="3:5">
+    <row r="447" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E447" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="448" spans="3:5">
+    <row r="448" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D448" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="449" spans="4:5">
+    <row r="449" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E449" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="450" spans="4:5">
+    <row r="450" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E450" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="451" spans="4:5">
+    <row r="451" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E451" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="452" spans="4:5">
+    <row r="452" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E452" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="453" spans="4:5">
+    <row r="453" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E453" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="454" spans="4:5">
+    <row r="454" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E454" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="455" spans="4:5">
+    <row r="455" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E455" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="456" spans="4:5">
+    <row r="456" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E456" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="457" spans="4:5">
+    <row r="457" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D457" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="4:5">
+    <row r="458" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E458" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="459" spans="4:5">
+    <row r="459" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E459" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="460" spans="4:5">
+    <row r="460" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E460" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="461" spans="4:5">
+    <row r="461" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E461" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="462" spans="4:5">
+    <row r="462" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E462" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="463" spans="4:5">
+    <row r="463" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E463" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="464" spans="4:5">
+    <row r="464" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E464" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="465" spans="3:5">
+    <row r="465" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E465" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="466" spans="3:5">
+    <row r="466" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C466" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="467" spans="3:5">
+    <row r="467" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D467" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="468" spans="3:5">
+    <row r="468" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E468" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="469" spans="3:5">
+    <row r="469" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E469" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="470" spans="3:5">
+    <row r="470" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E470" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="471" spans="3:5">
+    <row r="471" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E471" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="472" spans="3:5">
+    <row r="472" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E472" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="473" spans="3:5">
+    <row r="473" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E473" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="474" spans="3:5">
+    <row r="474" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E474" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="475" spans="3:5">
+    <row r="475" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E475" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="476" spans="3:5">
+    <row r="476" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D476" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="477" spans="3:5">
+    <row r="477" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E477" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="478" spans="3:5">
+    <row r="478" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E478" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="479" spans="3:5">
+    <row r="479" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E479" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="480" spans="3:5">
+    <row r="480" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E480" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="481" spans="3:5">
+    <row r="481" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E481" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="482" spans="3:5">
+    <row r="482" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E482" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="483" spans="3:5">
+    <row r="483" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E483" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="484" spans="3:5">
+    <row r="484" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E484" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="485" spans="3:5">
+    <row r="485" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D485" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="486" spans="3:5">
+    <row r="486" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E486" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="487" spans="3:5">
+    <row r="487" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E487" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="488" spans="3:5">
+    <row r="488" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E488" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="489" spans="3:5">
+    <row r="489" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E489" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="490" spans="3:5">
+    <row r="490" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E490" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="491" spans="3:5">
+    <row r="491" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E491" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="492" spans="3:5">
+    <row r="492" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E492" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="493" spans="3:5">
+    <row r="493" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E493" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="494" spans="3:5">
+    <row r="494" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C494" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="495" spans="3:5">
+    <row r="495" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D495" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="496" spans="3:5">
+    <row r="496" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E496" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="497" spans="4:5">
+    <row r="497" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E497" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="498" spans="4:5">
+    <row r="498" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E498" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="499" spans="4:5">
+    <row r="499" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E499" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="500" spans="4:5">
+    <row r="500" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E500" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="501" spans="4:5">
+    <row r="501" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E501" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="502" spans="4:5">
+    <row r="502" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E502" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="503" spans="4:5">
+    <row r="503" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E503" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="504" spans="4:5">
+    <row r="504" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D504" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="505" spans="4:5">
+    <row r="505" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E505" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="506" spans="4:5">
+    <row r="506" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E506" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="507" spans="4:5">
+    <row r="507" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E507" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="508" spans="4:5">
+    <row r="508" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E508" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="509" spans="4:5">
+    <row r="509" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E509" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="510" spans="4:5">
+    <row r="510" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E510" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="511" spans="4:5">
+    <row r="511" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E511" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="512" spans="4:5">
+    <row r="512" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E512" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D513" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E514" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E515" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E516" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E517" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E518" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E519" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E520" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E521" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="522" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="522" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>18</v>
       </c>
@@ -3754,37 +3754,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C525" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C526" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C527" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C528" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="529" spans="1:7" s="3" customFormat="1" ht="14.4">
+    <row r="529" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>19</v>
       </c>
@@ -3792,737 +3792,737 @@
         <v>164</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G531" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G532" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G533" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G534" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G535" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G536" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G537" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G538" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G539" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G540" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G541" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G542" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G543" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G544" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="545" spans="2:7">
+    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G545" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="546" spans="2:7">
+    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G546" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="547" spans="2:7">
+    <row r="547" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G547" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="548" spans="2:7">
+    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G548" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="549" spans="2:7">
+    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G549" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="550" spans="2:7">
+    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G550" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="2:7">
+    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G551" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="552" spans="2:7">
+    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G552" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="553" spans="2:7">
+    <row r="553" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G553" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="554" spans="2:7">
+    <row r="554" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G554" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="555" spans="2:7">
+    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G555" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="556" spans="2:7">
+    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G556" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="557" spans="2:7">
+    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G557" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="558" spans="2:7">
+    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G558" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="559" spans="2:7">
+    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B559" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="560" spans="2:7">
+    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C560" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="561" spans="7:7">
+    <row r="561" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G561" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="562" spans="7:7">
+    <row r="562" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G562" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="563" spans="7:7">
+    <row r="563" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G563" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="564" spans="7:7">
+    <row r="564" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G564" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="565" spans="7:7">
+    <row r="565" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G565" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="566" spans="7:7">
+    <row r="566" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G566" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="567" spans="7:7">
+    <row r="567" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G567" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="568" spans="7:7">
+    <row r="568" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G568" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="569" spans="7:7">
+    <row r="569" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G569" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="570" spans="7:7">
+    <row r="570" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G570" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="571" spans="7:7">
+    <row r="571" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G571" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="572" spans="7:7">
+    <row r="572" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G572" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="573" spans="7:7">
+    <row r="573" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G573" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="574" spans="7:7">
+    <row r="574" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G574" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="575" spans="7:7">
+    <row r="575" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G575" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="576" spans="7:7">
+    <row r="576" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G576" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="577" spans="3:7">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G577" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="578" spans="3:7">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G578" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="579" spans="3:7">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G579" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="580" spans="3:7">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G580" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="3:7">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G581" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="582" spans="3:7">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G582" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="3:7">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G583" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="584" spans="3:7">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G584" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="585" spans="3:7">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G585" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="586" spans="3:7">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G586" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="587" spans="3:7">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G587" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="588" spans="3:7">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G588" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="589" spans="3:7">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C589" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="590" spans="3:7">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G590" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="591" spans="3:7">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G591" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="592" spans="3:7">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G592" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="593" spans="7:7">
+    <row r="593" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G593" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="594" spans="7:7">
+    <row r="594" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G594" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="595" spans="7:7">
+    <row r="595" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G595" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="596" spans="7:7">
+    <row r="596" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G596" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="597" spans="7:7">
+    <row r="597" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G597" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="598" spans="7:7">
+    <row r="598" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G598" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="599" spans="7:7">
+    <row r="599" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G599" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="600" spans="7:7">
+    <row r="600" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G600" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="601" spans="7:7">
+    <row r="601" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G601" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="602" spans="7:7">
+    <row r="602" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G602" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="603" spans="7:7">
+    <row r="603" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G603" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="604" spans="7:7">
+    <row r="604" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G604" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="605" spans="7:7">
+    <row r="605" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G605" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="606" spans="7:7">
+    <row r="606" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G606" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="607" spans="7:7">
+    <row r="607" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G607" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="608" spans="7:7">
+    <row r="608" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G608" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="609" spans="3:7">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G609" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="610" spans="3:7">
+    <row r="610" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G610" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="611" spans="3:7">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G611" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="612" spans="3:7">
+    <row r="612" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G612" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="613" spans="3:7">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G613" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="614" spans="3:7">
+    <row r="614" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G614" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="615" spans="3:7">
+    <row r="615" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G615" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="616" spans="3:7">
+    <row r="616" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G616" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="617" spans="3:7">
+    <row r="617" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G617" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="618" spans="3:7">
+    <row r="618" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C618" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="619" spans="3:7">
+    <row r="619" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G619" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="620" spans="3:7">
+    <row r="620" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G620" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="621" spans="3:7">
+    <row r="621" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G621" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="622" spans="3:7">
+    <row r="622" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G622" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="623" spans="3:7">
+    <row r="623" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G623" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="624" spans="3:7">
+    <row r="624" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G624" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="625" spans="7:7">
+    <row r="625" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G625" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="626" spans="7:7">
+    <row r="626" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G626" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="627" spans="7:7">
+    <row r="627" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G627" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="628" spans="7:7">
+    <row r="628" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G628" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="629" spans="7:7">
+    <row r="629" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G629" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="630" spans="7:7">
+    <row r="630" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G630" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="631" spans="7:7">
+    <row r="631" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G631" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="632" spans="7:7">
+    <row r="632" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G632" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="633" spans="7:7">
+    <row r="633" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G633" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="634" spans="7:7">
+    <row r="634" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G634" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="635" spans="7:7">
+    <row r="635" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G635" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="636" spans="7:7">
+    <row r="636" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G636" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="637" spans="7:7">
+    <row r="637" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G637" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="638" spans="7:7">
+    <row r="638" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G638" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="639" spans="7:7">
+    <row r="639" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G639" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="640" spans="7:7">
+    <row r="640" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G640" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="641" spans="3:7">
+    <row r="641" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G641" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="642" spans="3:7">
+    <row r="642" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G642" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="643" spans="3:7">
+    <row r="643" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G643" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="644" spans="3:7">
+    <row r="644" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G644" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="645" spans="3:7">
+    <row r="645" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G645" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="646" spans="3:7">
+    <row r="646" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G646" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="647" spans="3:7">
+    <row r="647" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C647" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="648" spans="3:7">
+    <row r="648" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G648" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="649" spans="3:7">
+    <row r="649" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G649" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="650" spans="3:7">
+    <row r="650" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G650" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="651" spans="3:7">
+    <row r="651" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G651" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="652" spans="3:7">
+    <row r="652" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G652" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="653" spans="3:7">
+    <row r="653" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G653" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="654" spans="3:7">
+    <row r="654" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G654" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="655" spans="3:7">
+    <row r="655" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G655" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="656" spans="3:7">
+    <row r="656" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G656" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="657" spans="7:7">
+    <row r="657" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G657" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="658" spans="7:7">
+    <row r="658" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G658" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="659" spans="7:7">
+    <row r="659" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G659" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="660" spans="7:7">
+    <row r="660" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G660" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="661" spans="7:7">
+    <row r="661" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G661" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="662" spans="7:7">
+    <row r="662" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G662" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="663" spans="7:7">
+    <row r="663" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G663" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="664" spans="7:7">
+    <row r="664" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G664" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="665" spans="7:7">
+    <row r="665" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G665" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="666" spans="7:7">
+    <row r="666" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G666" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="667" spans="7:7">
+    <row r="667" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G667" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="668" spans="7:7">
+    <row r="668" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G668" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="669" spans="7:7">
+    <row r="669" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G669" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="670" spans="7:7">
+    <row r="670" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G670" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="671" spans="7:7">
+    <row r="671" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G671" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="672" spans="7:7">
+    <row r="672" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G672" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G673" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G674" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G675" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="676" spans="1:7" s="3" customFormat="1" ht="14.4">
+    <row r="676" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>20</v>
       </c>
@@ -4530,737 +4530,737 @@
         <v>164</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B677" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G678" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G679" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G680" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G681" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G682" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G683" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G684" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G685" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G686" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G687" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G688" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="689" spans="7:7">
+    <row r="689" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G689" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="690" spans="7:7">
+    <row r="690" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G690" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="691" spans="7:7">
+    <row r="691" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G691" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="692" spans="7:7">
+    <row r="692" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G692" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="693" spans="7:7">
+    <row r="693" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G693" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="694" spans="7:7">
+    <row r="694" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G694" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="695" spans="7:7">
+    <row r="695" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G695" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="696" spans="7:7">
+    <row r="696" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G696" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="697" spans="7:7">
+    <row r="697" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G697" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="698" spans="7:7">
+    <row r="698" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G698" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="699" spans="7:7">
+    <row r="699" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G699" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="700" spans="7:7">
+    <row r="700" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G700" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="701" spans="7:7">
+    <row r="701" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G701" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="702" spans="7:7">
+    <row r="702" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G702" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="703" spans="7:7">
+    <row r="703" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G703" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="704" spans="7:7">
+    <row r="704" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G704" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="705" spans="2:7">
+    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G705" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="706" spans="2:7">
+    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B706" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="707" spans="2:7">
+    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C707" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="708" spans="2:7">
+    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G708" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="709" spans="2:7">
+    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G709" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="710" spans="2:7">
+    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G710" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="711" spans="2:7">
+    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G711" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="712" spans="2:7">
+    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G712" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="713" spans="2:7">
+    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G713" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="714" spans="2:7">
+    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G714" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="715" spans="2:7">
+    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G715" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="716" spans="2:7">
+    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G716" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="717" spans="2:7">
+    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G717" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="718" spans="2:7">
+    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G718" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="719" spans="2:7">
+    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G719" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="720" spans="2:7">
+    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G720" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="721" spans="3:7">
+    <row r="721" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G721" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="722" spans="3:7">
+    <row r="722" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G722" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="723" spans="3:7">
+    <row r="723" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G723" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="724" spans="3:7">
+    <row r="724" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G724" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="725" spans="3:7">
+    <row r="725" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G725" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="726" spans="3:7">
+    <row r="726" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G726" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="727" spans="3:7">
+    <row r="727" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G727" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="728" spans="3:7">
+    <row r="728" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G728" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="729" spans="3:7">
+    <row r="729" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G729" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="730" spans="3:7">
+    <row r="730" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G730" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="731" spans="3:7">
+    <row r="731" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G731" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="732" spans="3:7">
+    <row r="732" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G732" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="733" spans="3:7">
+    <row r="733" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G733" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="734" spans="3:7">
+    <row r="734" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G734" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="735" spans="3:7">
+    <row r="735" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G735" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="736" spans="3:7">
+    <row r="736" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C736" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="737" spans="7:7">
+    <row r="737" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G737" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="738" spans="7:7">
+    <row r="738" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G738" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="739" spans="7:7">
+    <row r="739" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G739" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="740" spans="7:7">
+    <row r="740" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G740" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="741" spans="7:7">
+    <row r="741" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G741" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="742" spans="7:7">
+    <row r="742" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G742" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="743" spans="7:7">
+    <row r="743" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G743" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="744" spans="7:7">
+    <row r="744" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G744" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="745" spans="7:7">
+    <row r="745" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G745" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="746" spans="7:7">
+    <row r="746" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G746" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="747" spans="7:7">
+    <row r="747" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G747" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="748" spans="7:7">
+    <row r="748" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G748" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="749" spans="7:7">
+    <row r="749" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G749" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="750" spans="7:7">
+    <row r="750" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G750" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="751" spans="7:7">
+    <row r="751" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G751" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="752" spans="7:7">
+    <row r="752" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G752" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="753" spans="3:7">
+    <row r="753" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G753" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="754" spans="3:7">
+    <row r="754" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G754" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="755" spans="3:7">
+    <row r="755" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G755" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="756" spans="3:7">
+    <row r="756" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G756" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="757" spans="3:7">
+    <row r="757" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G757" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="758" spans="3:7">
+    <row r="758" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G758" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="759" spans="3:7">
+    <row r="759" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G759" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="760" spans="3:7">
+    <row r="760" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G760" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="761" spans="3:7">
+    <row r="761" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G761" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="762" spans="3:7">
+    <row r="762" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G762" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="763" spans="3:7">
+    <row r="763" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G763" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="764" spans="3:7">
+    <row r="764" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G764" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="765" spans="3:7">
+    <row r="765" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C765" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="766" spans="3:7">
+    <row r="766" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G766" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="767" spans="3:7">
+    <row r="767" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G767" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="768" spans="3:7">
+    <row r="768" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G768" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="769" spans="7:7">
+    <row r="769" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G769" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="770" spans="7:7">
+    <row r="770" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G770" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="771" spans="7:7">
+    <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="772" spans="7:7">
+    <row r="772" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G772" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="773" spans="7:7">
+    <row r="773" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G773" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="774" spans="7:7">
+    <row r="774" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G774" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="775" spans="7:7">
+    <row r="775" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G775" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="776" spans="7:7">
+    <row r="776" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G776" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="777" spans="7:7">
+    <row r="777" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G777" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="778" spans="7:7">
+    <row r="778" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G778" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="779" spans="7:7">
+    <row r="779" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G779" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="780" spans="7:7">
+    <row r="780" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G780" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="781" spans="7:7">
+    <row r="781" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G781" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="782" spans="7:7">
+    <row r="782" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G782" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="783" spans="7:7">
+    <row r="783" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G783" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="784" spans="7:7">
+    <row r="784" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G784" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="785" spans="3:7">
+    <row r="785" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G785" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="786" spans="3:7">
+    <row r="786" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G786" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="787" spans="3:7">
+    <row r="787" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G787" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="788" spans="3:7">
+    <row r="788" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G788" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="789" spans="3:7">
+    <row r="789" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G789" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="790" spans="3:7">
+    <row r="790" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G790" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="791" spans="3:7">
+    <row r="791" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G791" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="792" spans="3:7">
+    <row r="792" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G792" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="793" spans="3:7">
+    <row r="793" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G793" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="794" spans="3:7">
+    <row r="794" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C794" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="795" spans="3:7">
+    <row r="795" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G795" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="796" spans="3:7">
+    <row r="796" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G796" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="797" spans="3:7">
+    <row r="797" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G797" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="798" spans="3:7">
+    <row r="798" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G798" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="799" spans="3:7">
+    <row r="799" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G799" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="800" spans="3:7">
+    <row r="800" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G800" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="801" spans="7:7">
+    <row r="801" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G801" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="802" spans="7:7">
+    <row r="802" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G802" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="803" spans="7:7">
+    <row r="803" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G803" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="804" spans="7:7">
+    <row r="804" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G804" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="805" spans="7:7">
+    <row r="805" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G805" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="806" spans="7:7">
+    <row r="806" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G806" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="807" spans="7:7">
+    <row r="807" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G807" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="808" spans="7:7">
+    <row r="808" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G808" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="809" spans="7:7">
+    <row r="809" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G809" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="810" spans="7:7">
+    <row r="810" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G810" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="811" spans="7:7">
+    <row r="811" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G811" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="812" spans="7:7">
+    <row r="812" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G812" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="813" spans="7:7">
+    <row r="813" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G813" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="814" spans="7:7">
+    <row r="814" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G814" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="815" spans="7:7">
+    <row r="815" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G815" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="816" spans="7:7">
+    <row r="816" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G816" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="817" spans="1:7">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G817" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="818" spans="1:7">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G818" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="819" spans="1:7">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G819" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="820" spans="1:7">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G820" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="821" spans="1:7">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G821" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="822" spans="1:7">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G822" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="823" spans="1:7" s="3" customFormat="1" ht="14.4">
+    <row r="823" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
         <v>21</v>
       </c>
@@ -5268,37 +5268,37 @@
         <v>163</v>
       </c>
     </row>
-    <row r="824" spans="1:7">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B824" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="825" spans="1:7">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B825" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="826" spans="1:7">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C826" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="827" spans="1:7">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C827" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="828" spans="1:7">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C828" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="829" spans="1:7">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C829" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="830" spans="1:7" s="3" customFormat="1" ht="14.4">
+    <row r="830" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>22</v>
       </c>
@@ -5306,112 +5306,112 @@
         <v>165</v>
       </c>
     </row>
-    <row r="831" spans="1:7">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B831" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="832" spans="1:7">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D832" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="833" spans="2:4">
+    <row r="833" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D833" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="834" spans="2:4">
+    <row r="834" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D834" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="835" spans="2:4">
+    <row r="835" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B835" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="836" spans="2:4">
+    <row r="836" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C836" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="837" spans="2:4">
+    <row r="837" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D837" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="838" spans="2:4">
+    <row r="838" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D838" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="839" spans="2:4">
+    <row r="839" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D839" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="840" spans="2:4">
+    <row r="840" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C840" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="841" spans="2:4">
+    <row r="841" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D841" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="842" spans="2:4">
+    <row r="842" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D842" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="843" spans="2:4">
+    <row r="843" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D843" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="844" spans="2:4">
+    <row r="844" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C844" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="845" spans="2:4">
+    <row r="845" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D845" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="846" spans="2:4">
+    <row r="846" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D846" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="847" spans="2:4">
+    <row r="847" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D847" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="848" spans="2:4">
+    <row r="848" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C848" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="849" spans="1:6">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D849" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="850" spans="1:6">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D850" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="851" spans="1:6">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D851" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="852" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="852" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>23</v>
       </c>
@@ -5419,137 +5419,137 @@
         <v>165</v>
       </c>
     </row>
-    <row r="853" spans="1:6">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B853" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="854" spans="1:6">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D854" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="855" spans="1:6">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D855" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="856" spans="1:6">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D856" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="857" spans="1:6">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D857" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="858" spans="1:6">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B858" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="859" spans="1:6">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C859" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="860" spans="1:6">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D860" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="861" spans="1:6">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D861" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="862" spans="1:6">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D862" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="863" spans="1:6">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D863" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="864" spans="1:6">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C864" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="865" spans="1:6">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D865" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="866" spans="1:6">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D866" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="867" spans="1:6">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D867" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="868" spans="1:6">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D868" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="869" spans="1:6">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C869" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="870" spans="1:6">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D870" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="871" spans="1:6">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D871" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="872" spans="1:6">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D872" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="873" spans="1:6">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D873" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="874" spans="1:6">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C874" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="875" spans="1:6">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D875" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="876" spans="1:6">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D876" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="877" spans="1:6">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D877" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="878" spans="1:6">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D878" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="879" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="879" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>24</v>
       </c>
@@ -5557,62 +5557,62 @@
         <v>164</v>
       </c>
     </row>
-    <row r="880" spans="1:6">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B880" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="881" spans="1:6">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D881" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="882" spans="1:6">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B882" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="883" spans="1:6">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C883" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="884" spans="1:6">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D884" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="885" spans="1:6">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C885" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="886" spans="1:6">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D886" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="887" spans="1:6">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C887" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="888" spans="1:6">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D888" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="889" spans="1:6">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C889" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="890" spans="1:6">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D890" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="891" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="891" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
         <v>25</v>
       </c>
@@ -5620,37 +5620,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="892" spans="1:6">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B892" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="893" spans="1:6">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B893" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="894" spans="1:6">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C894" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="895" spans="1:6">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C895" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="896" spans="1:6">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C896" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="897" spans="1:6">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C897" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="898" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="898" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
         <v>26</v>
       </c>
@@ -5658,37 +5658,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="899" spans="1:6">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B899" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="900" spans="1:6">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B900" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="901" spans="1:6">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C901" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="902" spans="1:6">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C902" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="903" spans="1:6">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C903" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="904" spans="1:6">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C904" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="905" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="905" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
         <v>27</v>
       </c>
@@ -5696,37 +5696,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="906" spans="1:6">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="907" spans="1:6">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="908" spans="1:6">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C908" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="909" spans="1:6">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C909" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="910" spans="1:6">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C910" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="911" spans="1:6">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C911" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="912" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="912" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>28</v>
       </c>
@@ -5734,37 +5734,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="913" spans="1:6">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B913" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="914" spans="1:6">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B914" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="915" spans="1:6">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C915" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="916" spans="1:6">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C916" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="917" spans="1:6">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C917" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="918" spans="1:6">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C918" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="919" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="919" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
         <v>29</v>
       </c>
@@ -5772,37 +5772,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="920" spans="1:6">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B920" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="921" spans="1:6">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B921" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="922" spans="1:6">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C922" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="923" spans="1:6">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C923" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="924" spans="1:6">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C924" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="925" spans="1:6">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C925" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="926" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="926" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
         <v>30</v>
       </c>
@@ -5810,37 +5810,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="927" spans="1:6">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="928" spans="1:6">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B928" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="929" spans="1:6">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C929" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="930" spans="1:6">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C930" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="931" spans="1:6">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C931" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="932" spans="1:6">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C932" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="933" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="933" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
         <v>31</v>
       </c>
@@ -5848,37 +5848,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="934" spans="1:6">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B934" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="935" spans="1:6">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B935" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="936" spans="1:6">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C936" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="937" spans="1:6">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C937" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="938" spans="1:6">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C938" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="939" spans="1:6">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C939" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="940" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="940" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2" t="s">
         <v>32</v>
       </c>
@@ -5886,37 +5886,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="941" spans="1:6">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B941" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="942" spans="1:6">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B942" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="943" spans="1:6">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C943" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="944" spans="1:6">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C944" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="945" spans="1:6">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C945" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="946" spans="1:6">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C946" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="947" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="947" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
         <v>33</v>
       </c>
@@ -5924,37 +5924,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="948" spans="1:6">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B948" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="949" spans="1:6">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B949" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="950" spans="1:6">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C950" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="951" spans="1:6">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C951" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="952" spans="1:6">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C952" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="953" spans="1:6">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C953" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="954" spans="1:6" s="3" customFormat="1" ht="14.4">
+    <row r="954" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
         <v>34</v>
       </c>
@@ -5962,34 +5962,39 @@
         <v>165</v>
       </c>
     </row>
-    <row r="955" spans="1:6">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B955" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="956" spans="1:6">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B956" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="957" spans="1:6">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C957" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="958" spans="1:6">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C958" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="959" spans="1:6">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C959" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="960" spans="1:6">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C960" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="967" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F967" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6044,9 +6049,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -6057,7 +6062,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -6068,7 +6073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -6079,7 +6084,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -6090,7 +6095,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -6101,7 +6106,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -6112,7 +6117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -6123,7 +6128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -6134,7 +6139,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -6145,7 +6150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -6156,7 +6161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -6167,7 +6172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -6178,7 +6183,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -6189,7 +6194,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -6200,7 +6205,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -6211,7 +6216,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -6222,7 +6227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -6233,7 +6238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6244,7 +6249,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -6255,7 +6260,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -6266,7 +6271,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -6277,7 +6282,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -6288,7 +6293,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -6299,7 +6304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -6310,7 +6315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -6318,7 +6323,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -6326,92 +6331,92 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -6429,7 +6434,7 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6444,92 +6449,92 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="14.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="14.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="14.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="14.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="14.4">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="14.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="14.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>158</v>
       </c>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ADADDA-4CE4-4863-8D5F-C755E69F571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF13078-2F2E-48D7-A97C-50230616FACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="240" windowWidth="14250" windowHeight="7965" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
   <sheets>
     <sheet name="VO list" sheetId="1" r:id="rId1"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
   <dimension ref="A3:R967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A959" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I965" sqref="I965"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,183 +2122,183 @@
         <v>139</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B205" s="1" t="s">
+    <row r="205" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D206" s="1" t="s">
+    <row r="206" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D207" s="1" t="s">
+    <row r="207" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D208" s="1" t="s">
+    <row r="208" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D209" s="1" t="s">
+    <row r="209" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D210" s="1" t="s">
+    <row r="210" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D211" s="1" t="s">
+    <row r="211" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
+    <row r="212" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C213" s="1" t="s">
+    <row r="213" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C213" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D214" s="1" t="s">
+    <row r="214" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D215" s="1" t="s">
+    <row r="215" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D215" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D216" s="1" t="s">
+    <row r="216" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D216" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D217" s="1" t="s">
+    <row r="217" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D217" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D218" s="1" t="s">
+    <row r="218" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D218" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D219" s="1" t="s">
+    <row r="219" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D219" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C220" s="1" t="s">
+    <row r="220" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C220" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D221" s="1" t="s">
+    <row r="221" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D221" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D222" s="1" t="s">
+    <row r="222" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D222" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D223" s="1" t="s">
+    <row r="223" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D223" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D224" s="1" t="s">
+    <row r="224" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D224" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D225" s="1" t="s">
+    <row r="225" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D225" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D226" s="1" t="s">
+    <row r="226" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D226" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C227" s="1" t="s">
+    <row r="227" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C227" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D228" s="1" t="s">
+    <row r="228" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D228" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D229" s="1" t="s">
+    <row r="229" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D229" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D230" s="1" t="s">
+    <row r="230" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D230" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D231" s="1" t="s">
+    <row r="231" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D231" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D232" s="1" t="s">
+    <row r="232" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D232" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D233" s="1" t="s">
+    <row r="233" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D233" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C234" s="1" t="s">
+    <row r="234" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C234" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D235" s="1" t="s">
+    <row r="235" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D235" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D236" s="1" t="s">
+    <row r="236" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D236" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D237" s="1" t="s">
+    <row r="237" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D237" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D238" s="1" t="s">
+    <row r="238" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D238" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D239" s="1" t="s">
+    <row r="239" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D239" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D240" s="1" t="s">
+    <row r="240" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D240" s="5" t="s">
         <v>83</v>
       </c>
     </row>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Documents\GitHub Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF13078-2F2E-48D7-A97C-50230616FACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D989C-AEDF-489B-B2AA-E363D828DC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="169">
   <si>
     <t>Play_VO_Alarm_Defective_Modules</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>asdasdasda</t>
+  </si>
+  <si>
+    <t>Tite ko malaki para kay rose</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
-  <dimension ref="A3:R967"/>
+  <dimension ref="A3:R968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H222" sqref="H222"/>
+    <sheetView tabSelected="1" topLeftCell="A930" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F969" sqref="F969"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5995,6 +5998,11 @@
     <row r="967" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F967" s="1" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="968" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F968" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Documents\GitHub Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D989C-AEDF-489B-B2AA-E363D828DC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E016F-1F86-4F89-BF05-9A84E37F8AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
+    <workbookView xWindow="90" yWindow="225" windowWidth="14250" windowHeight="7965" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
   <sheets>
     <sheet name="VO list" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="173">
   <si>
     <t>Play_VO_Alarm_Defective_Modules</t>
   </si>
@@ -544,6 +544,18 @@
   </si>
   <si>
     <t>Tite ko malaki para kay rose</t>
+  </si>
+  <si>
+    <t>VO_Domination_Advantage_Ally</t>
+  </si>
+  <si>
+    <t>VO_Domination_Advantage_Enemy</t>
+  </si>
+  <si>
+    <t>VO_Domination_Close_Win_Enemy</t>
+  </si>
+  <si>
+    <t>VO_Domination_Close_Win_Ally</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
   <dimension ref="A3:R968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A930" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F969" sqref="F969"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H263" sqref="H263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,24 +2330,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D243" s="1" t="s">
+    <row r="243" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D243" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D244" s="1" t="s">
+      <c r="F243" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D244" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D245" s="1" t="s">
+      <c r="F244" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D245" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D246" s="1" t="s">
+      <c r="F245" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D246" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -2348,23 +2372,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D249" s="1" t="s">
+    <row r="249" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D249" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D250" s="1" t="s">
+    <row r="250" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D250" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D251" s="1" t="s">
+    <row r="251" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D251" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D252" s="1" t="s">
+    <row r="252" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D252" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2373,23 +2397,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D254" s="1" t="s">
+    <row r="254" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D254" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D255" s="1" t="s">
+    <row r="255" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D255" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D256" s="1" t="s">
+    <row r="256" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D256" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D257" s="1" t="s">
+    <row r="257" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D257" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2398,23 +2422,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D259" s="1" t="s">
+    <row r="259" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D259" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D260" s="1" t="s">
+    <row r="260" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D260" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D261" s="1" t="s">
+    <row r="261" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D261" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D262" s="1" t="s">
+    <row r="262" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D262" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2423,23 +2447,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D264" s="1" t="s">
+    <row r="264" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D264" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D265" s="1" t="s">
+    <row r="265" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D265" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D266" s="1" t="s">
+    <row r="266" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D266" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D267" s="1" t="s">
+    <row r="267" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D267" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6438,7 +6462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE8D90-371B-4FA4-BEF6-9B8645E31B40}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="D4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Documents\GitHub Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E016F-1F86-4F89-BF05-9A84E37F8AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F4442-0336-4F75-A67B-77E0395BE46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="225" windowWidth="14250" windowHeight="7965" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
+    <workbookView xWindow="14400" yWindow="7125" windowWidth="14400" windowHeight="8625" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
   <sheets>
     <sheet name="VO list" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +608,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -621,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -636,6 +642,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
   <dimension ref="A3:R968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H263" sqref="H263"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,33 +2482,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B269" s="1" t="s">
+    <row r="269" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B270" s="1" t="s">
+    <row r="270" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C271" s="1" t="s">
+    <row r="271" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C271" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C272" s="1" t="s">
+    <row r="272" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C272" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C273" s="1" t="s">
+    <row r="273" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C273" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C274" s="1" t="s">
+    <row r="274" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C274" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2518,8 +2525,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D277" s="1" t="s">
+    <row r="277" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D277" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2528,43 +2535,43 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C279" s="1" t="s">
+    <row r="279" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C279" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D280" s="1" t="s">
+    <row r="280" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D280" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C281" s="1" t="s">
+    <row r="281" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C281" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D282" s="1" t="s">
+    <row r="282" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D282" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C283" s="1" t="s">
+    <row r="283" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C283" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D284" s="1" t="s">
+    <row r="284" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D284" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C285" s="1" t="s">
+    <row r="285" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C285" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D286" s="1" t="s">
+    <row r="286" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D286" s="8" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Documents\GitHub Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F4442-0336-4F75-A67B-77E0395BE46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B5FA5-97AE-48E3-9A8B-8F68111B7DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="7125" windowWidth="14400" windowHeight="8625" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
+    <workbookView xWindow="12885" yWindow="2175" windowWidth="14250" windowHeight="7965" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
   <sheets>
     <sheet name="VO list" sheetId="1" r:id="rId1"/>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
   <dimension ref="A3:R968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A332" sqref="A332:XFD337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,33 +2583,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B288" s="1" t="s">
+    <row r="288" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B289" s="1" t="s">
+    <row r="289" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C290" s="1" t="s">
+    <row r="290" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C290" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C291" s="1" t="s">
+    <row r="291" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C291" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C292" s="1" t="s">
+    <row r="292" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C292" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C293" s="1" t="s">
+    <row r="293" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C293" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2621,183 +2621,183 @@
         <v>165</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B295" s="1" t="s">
+    <row r="295" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D296" s="1" t="s">
+    <row r="296" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D296" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E297" s="1" t="s">
+    <row r="297" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E297" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E298" s="1" t="s">
+    <row r="298" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E298" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E299" s="1" t="s">
+    <row r="299" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E299" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E300" s="1" t="s">
+    <row r="300" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E300" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E301" s="1" t="s">
+    <row r="301" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E301" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B302" s="1" t="s">
+    <row r="302" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C303" s="1" t="s">
+    <row r="303" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C303" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D304" s="1" t="s">
+    <row r="304" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D304" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E305" s="1" t="s">
+    <row r="305" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E305" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E306" s="1" t="s">
+    <row r="306" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E306" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E307" s="1" t="s">
+    <row r="307" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E307" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E308" s="1" t="s">
+    <row r="308" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E308" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E309" s="1" t="s">
+    <row r="309" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E309" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C310" s="1" t="s">
+    <row r="310" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C310" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D311" s="1" t="s">
+    <row r="311" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D311" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E312" s="1" t="s">
+    <row r="312" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E312" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E313" s="1" t="s">
+    <row r="313" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E313" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E314" s="1" t="s">
+    <row r="314" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E314" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E315" s="1" t="s">
+    <row r="315" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E315" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="316" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E316" s="1" t="s">
+    <row r="316" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E316" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C317" s="1" t="s">
+    <row r="317" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C317" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="318" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D318" s="1" t="s">
+    <row r="318" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D318" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E319" s="1" t="s">
+    <row r="319" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E319" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E320" s="1" t="s">
+    <row r="320" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E320" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E321" s="1" t="s">
+    <row r="321" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E321" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E322" s="1" t="s">
+    <row r="322" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E322" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E323" s="1" t="s">
+    <row r="323" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E323" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C324" s="1" t="s">
+    <row r="324" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C324" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D325" s="1" t="s">
+    <row r="325" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D325" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E326" s="1" t="s">
+    <row r="326" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E326" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E327" s="1" t="s">
+    <row r="327" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E327" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E328" s="1" t="s">
+    <row r="328" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E328" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E329" s="1" t="s">
+    <row r="329" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E329" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E330" s="1" t="s">
+    <row r="330" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E330" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2809,33 +2809,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B332" s="1" t="s">
+    <row r="332" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B333" s="1" t="s">
+    <row r="333" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C334" s="1" t="s">
+    <row r="334" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C334" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C335" s="1" t="s">
+    <row r="335" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C335" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C336" s="1" t="s">
+    <row r="336" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C336" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C337" s="1" t="s">
+    <row r="337" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C337" s="5" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Documents\GitHub Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B5FA5-97AE-48E3-9A8B-8F68111B7DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A38787-DA79-4B0A-B4DC-9E05372BE3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12885" yWindow="2175" windowWidth="14250" windowHeight="7965" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
   <dimension ref="A3:R968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A332" sqref="A332:XFD337"/>
+    <sheetView tabSelected="1" topLeftCell="A519" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C524" sqref="C524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,33 +2847,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B339" s="1" t="s">
+    <row r="339" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B340" s="1" t="s">
+    <row r="340" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C341" s="1" t="s">
+    <row r="341" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C341" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C342" s="1" t="s">
+    <row r="342" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C342" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C343" s="1" t="s">
+    <row r="343" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C343" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C344" s="1" t="s">
+    <row r="344" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C344" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2885,33 +2885,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B346" s="1" t="s">
+    <row r="346" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B347" s="1" t="s">
+    <row r="347" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C348" s="1" t="s">
+    <row r="348" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C348" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C349" s="1" t="s">
+    <row r="349" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C349" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C350" s="1" t="s">
+    <row r="350" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C350" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C351" s="1" t="s">
+    <row r="351" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C351" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2923,33 +2923,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B353" s="1" t="s">
+    <row r="353" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B354" s="1" t="s">
+    <row r="354" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C355" s="1" t="s">
+    <row r="355" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C355" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C356" s="1" t="s">
+    <row r="356" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C356" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C357" s="1" t="s">
+    <row r="357" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C357" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C358" s="1" t="s">
+    <row r="358" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C358" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2961,33 +2961,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B360" s="1" t="s">
+    <row r="360" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B361" s="1" t="s">
+    <row r="361" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C362" s="1" t="s">
+    <row r="362" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C362" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C363" s="1" t="s">
+    <row r="363" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C363" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C364" s="1" t="s">
+    <row r="364" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C364" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C365" s="1" t="s">
+    <row r="365" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C365" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2999,33 +2999,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B367" s="1" t="s">
+    <row r="367" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B368" s="1" t="s">
+    <row r="368" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C369" s="1" t="s">
+    <row r="369" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C369" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C370" s="1" t="s">
+    <row r="370" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C370" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C371" s="1" t="s">
+    <row r="371" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C371" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C372" s="1" t="s">
+    <row r="372" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C372" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3037,33 +3037,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B374" s="1" t="s">
+    <row r="374" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B374" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B375" s="1" t="s">
+    <row r="375" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B375" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C376" s="1" t="s">
+    <row r="376" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C376" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C377" s="1" t="s">
+    <row r="377" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C377" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C378" s="1" t="s">
+    <row r="378" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C378" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C379" s="1" t="s">
+    <row r="379" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C379" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3075,708 +3075,708 @@
         <v>165</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B381" s="1" t="s">
+    <row r="381" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D382" s="1" t="s">
+    <row r="382" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D382" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E383" s="1" t="s">
+    <row r="383" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E383" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E384" s="1" t="s">
+    <row r="384" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E384" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="385" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E385" s="1" t="s">
+    <row r="385" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E385" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="386" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E386" s="1" t="s">
+    <row r="386" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E386" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="387" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E387" s="1" t="s">
+    <row r="387" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E387" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="388" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E388" s="1" t="s">
+    <row r="388" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E388" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="389" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E389" s="1" t="s">
+    <row r="389" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E389" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="390" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E390" s="1" t="s">
+    <row r="390" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E390" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="391" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D391" s="1" t="s">
+    <row r="391" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D391" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="392" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E392" s="1" t="s">
+    <row r="392" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E392" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="393" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E393" s="1" t="s">
+    <row r="393" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E393" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="394" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E394" s="1" t="s">
+    <row r="394" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E394" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="395" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E395" s="1" t="s">
+    <row r="395" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E395" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="396" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E396" s="1" t="s">
+    <row r="396" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E396" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="397" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E397" s="1" t="s">
+    <row r="397" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E397" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="398" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E398" s="1" t="s">
+    <row r="398" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E398" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="399" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E399" s="1" t="s">
+    <row r="399" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E399" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="400" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D400" s="1" t="s">
+    <row r="400" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D400" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E401" s="1" t="s">
+    <row r="401" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E401" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E402" s="1" t="s">
+    <row r="402" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E402" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E403" s="1" t="s">
+    <row r="403" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E403" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E404" s="1" t="s">
+    <row r="404" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E404" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E405" s="1" t="s">
+    <row r="405" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E405" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E406" s="1" t="s">
+    <row r="406" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E406" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E407" s="1" t="s">
+    <row r="407" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E407" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E408" s="1" t="s">
+    <row r="408" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E408" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B409" s="1" t="s">
+    <row r="409" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B409" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C410" s="1" t="s">
+    <row r="410" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C410" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D411" s="1" t="s">
+    <row r="411" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D411" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E412" s="1" t="s">
+    <row r="412" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E412" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E413" s="1" t="s">
+    <row r="413" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E413" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E414" s="1" t="s">
+    <row r="414" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E414" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E415" s="1" t="s">
+    <row r="415" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E415" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E416" s="1" t="s">
+    <row r="416" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E416" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="417" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E417" s="1" t="s">
+    <row r="417" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E417" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="418" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E418" s="1" t="s">
+    <row r="418" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E418" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="419" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E419" s="1" t="s">
+    <row r="419" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E419" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="420" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D420" s="1" t="s">
+    <row r="420" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D420" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="421" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E421" s="1" t="s">
+    <row r="421" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E421" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E422" s="1" t="s">
+    <row r="422" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E422" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="423" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E423" s="1" t="s">
+    <row r="423" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E423" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="424" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E424" s="1" t="s">
+    <row r="424" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E424" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="425" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E425" s="1" t="s">
+    <row r="425" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E425" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="426" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E426" s="1" t="s">
+    <row r="426" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E426" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="427" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E427" s="1" t="s">
+    <row r="427" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E427" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="428" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E428" s="1" t="s">
+    <row r="428" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E428" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="429" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D429" s="1" t="s">
+    <row r="429" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D429" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="430" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E430" s="1" t="s">
+    <row r="430" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E430" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="431" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E431" s="1" t="s">
+    <row r="431" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E431" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="432" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E432" s="1" t="s">
+    <row r="432" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E432" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E433" s="1" t="s">
+    <row r="433" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E433" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="434" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E434" s="1" t="s">
+    <row r="434" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E434" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="435" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E435" s="1" t="s">
+    <row r="435" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E435" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="436" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E436" s="1" t="s">
+    <row r="436" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E436" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="437" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E437" s="1" t="s">
+    <row r="437" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E437" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="438" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C438" s="1" t="s">
+    <row r="438" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C438" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="439" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D439" s="1" t="s">
+    <row r="439" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D439" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="440" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E440" s="1" t="s">
+    <row r="440" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E440" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="441" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E441" s="1" t="s">
+    <row r="441" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E441" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="442" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E442" s="1" t="s">
+    <row r="442" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E442" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="443" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E443" s="1" t="s">
+    <row r="443" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E443" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="444" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E444" s="1" t="s">
+    <row r="444" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E444" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="445" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E445" s="1" t="s">
+    <row r="445" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E445" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="446" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E446" s="1" t="s">
+    <row r="446" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E446" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="447" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E447" s="1" t="s">
+    <row r="447" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E447" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="448" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D448" s="1" t="s">
+    <row r="448" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D448" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="449" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E449" s="1" t="s">
+    <row r="449" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E449" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="450" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E450" s="1" t="s">
+    <row r="450" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E450" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="451" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E451" s="1" t="s">
+    <row r="451" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E451" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="452" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E452" s="1" t="s">
+    <row r="452" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E452" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="453" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E453" s="1" t="s">
+    <row r="453" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E453" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="454" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E454" s="1" t="s">
+    <row r="454" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E454" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="455" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E455" s="1" t="s">
+    <row r="455" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E455" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="456" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E456" s="1" t="s">
+    <row r="456" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E456" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="457" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D457" s="1" t="s">
+    <row r="457" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D457" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E458" s="1" t="s">
+    <row r="458" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E458" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="459" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E459" s="1" t="s">
+    <row r="459" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E459" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="460" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E460" s="1" t="s">
+    <row r="460" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E460" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="461" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E461" s="1" t="s">
+    <row r="461" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E461" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="462" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E462" s="1" t="s">
+    <row r="462" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E462" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="463" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E463" s="1" t="s">
+    <row r="463" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E463" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="464" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E464" s="1" t="s">
+    <row r="464" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E464" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="465" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E465" s="1" t="s">
+    <row r="465" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E465" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="466" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C466" s="1" t="s">
+    <row r="466" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C466" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="467" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D467" s="1" t="s">
+    <row r="467" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D467" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="468" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E468" s="1" t="s">
+    <row r="468" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E468" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="469" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E469" s="1" t="s">
+    <row r="469" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E469" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="470" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E470" s="1" t="s">
+    <row r="470" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E470" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="471" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E471" s="1" t="s">
+    <row r="471" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E471" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="472" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E472" s="1" t="s">
+    <row r="472" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E472" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="473" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E473" s="1" t="s">
+    <row r="473" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E473" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="474" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E474" s="1" t="s">
+    <row r="474" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E474" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="475" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E475" s="1" t="s">
+    <row r="475" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E475" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="476" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D476" s="1" t="s">
+    <row r="476" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D476" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="477" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E477" s="1" t="s">
+    <row r="477" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E477" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="478" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E478" s="1" t="s">
+    <row r="478" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E478" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="479" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E479" s="1" t="s">
+    <row r="479" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E479" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E480" s="1" t="s">
+    <row r="480" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E480" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="481" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E481" s="1" t="s">
+    <row r="481" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E481" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E482" s="1" t="s">
+    <row r="482" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E482" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="483" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E483" s="1" t="s">
+    <row r="483" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E483" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E484" s="1" t="s">
+    <row r="484" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E484" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="485" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D485" s="1" t="s">
+    <row r="485" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D485" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="486" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E486" s="1" t="s">
+    <row r="486" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E486" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="487" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E487" s="1" t="s">
+    <row r="487" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E487" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="488" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E488" s="1" t="s">
+    <row r="488" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E488" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="489" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E489" s="1" t="s">
+    <row r="489" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E489" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="490" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E490" s="1" t="s">
+    <row r="490" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E490" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="491" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E491" s="1" t="s">
+    <row r="491" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E491" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="492" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E492" s="1" t="s">
+    <row r="492" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E492" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="493" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E493" s="1" t="s">
+    <row r="493" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E493" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="494" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C494" s="1" t="s">
+    <row r="494" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C494" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="495" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D495" s="1" t="s">
+    <row r="495" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D495" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="496" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E496" s="1" t="s">
+    <row r="496" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E496" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="497" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E497" s="1" t="s">
+    <row r="497" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E497" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="498" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E498" s="1" t="s">
+    <row r="498" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E498" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="499" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E499" s="1" t="s">
+    <row r="499" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E499" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="500" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E500" s="1" t="s">
+    <row r="500" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E500" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="501" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E501" s="1" t="s">
+    <row r="501" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E501" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="502" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E502" s="1" t="s">
+    <row r="502" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E502" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="503" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E503" s="1" t="s">
+    <row r="503" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E503" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="504" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D504" s="1" t="s">
+    <row r="504" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D504" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="505" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E505" s="1" t="s">
+    <row r="505" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E505" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="506" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E506" s="1" t="s">
+    <row r="506" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E506" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="507" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E507" s="1" t="s">
+    <row r="507" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E507" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="508" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E508" s="1" t="s">
+    <row r="508" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E508" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="509" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E509" s="1" t="s">
+    <row r="509" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E509" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="510" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E510" s="1" t="s">
+    <row r="510" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E510" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="511" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E511" s="1" t="s">
+    <row r="511" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E511" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="512" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E512" s="1" t="s">
+    <row r="512" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E512" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D513" s="1" t="s">
+    <row r="513" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D513" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E514" s="1" t="s">
+    <row r="514" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E514" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E515" s="1" t="s">
+    <row r="515" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E515" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E516" s="1" t="s">
+    <row r="516" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E516" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E517" s="1" t="s">
+    <row r="517" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E517" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E518" s="1" t="s">
+    <row r="518" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E518" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E519" s="1" t="s">
+    <row r="519" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E519" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E520" s="1" t="s">
+    <row r="520" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E520" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E521" s="1" t="s">
+    <row r="521" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E521" s="8" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3788,33 +3788,33 @@
         <v>165</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B523" s="1" t="s">
+    <row r="523" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B523" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B524" s="1" t="s">
+    <row r="524" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B524" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C525" s="1" t="s">
+    <row r="525" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C525" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C526" s="1" t="s">
+    <row r="526" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C526" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C527" s="1" t="s">
+    <row r="527" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C527" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C528" s="1" t="s">
+    <row r="528" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C528" s="8" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Documents\GitHub Projects\Wows_Haifuri_VoiceMod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A38787-DA79-4B0A-B4DC-9E05372BE3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659BA4DA-E41C-4DA1-A195-F356672A5F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="2175" windowWidth="14250" windowHeight="7965" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
+    <workbookView xWindow="300" yWindow="5616" windowWidth="11064" windowHeight="6744" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
   <sheets>
     <sheet name="VO list" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -562,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,26 +1087,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
   <dimension ref="A3:R968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C524" sqref="C524"/>
+    <sheetView tabSelected="1" topLeftCell="E545" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E550" sqref="A550:XFD550"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.09765625" style="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,54 +1114,54 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15">
       <c r="B6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15">
       <c r="B7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15">
       <c r="D8" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15">
       <c r="E9" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15">
       <c r="E10" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15">
       <c r="D11" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15">
       <c r="E12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15">
       <c r="D13" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15">
       <c r="E14" s="1" t="s">
         <v>138</v>
       </c>
@@ -1166,12 +1169,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="15">
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1179,202 +1182,202 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="D17" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E18" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="15">
       <c r="D19" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="15">
       <c r="E20" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="15">
       <c r="E21" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="15">
       <c r="D22" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="15">
       <c r="E23" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="15">
       <c r="D24" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="15">
       <c r="E25" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" ht="15">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" ht="15">
       <c r="D27" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" ht="15">
       <c r="E28" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" ht="15">
       <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" ht="15">
       <c r="E30" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" ht="15">
       <c r="E31" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" ht="15">
       <c r="D32" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" ht="15">
       <c r="E33" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" ht="15">
       <c r="D34" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" ht="15">
       <c r="E35" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" ht="15">
       <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" ht="15">
       <c r="D37" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" ht="15">
       <c r="E38" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" ht="15">
       <c r="D39" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" ht="15">
       <c r="E40" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" ht="15">
       <c r="E41" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" ht="15">
       <c r="D42" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" ht="15">
       <c r="E43" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" ht="15">
       <c r="D44" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" ht="15">
       <c r="E45" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" ht="15">
       <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" ht="15">
       <c r="D47" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" ht="15">
       <c r="E48" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15">
       <c r="D49" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15">
       <c r="E50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15">
       <c r="E51" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15">
       <c r="D52" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15">
       <c r="E53" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15">
       <c r="D54" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15">
       <c r="E55" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -1382,37 +1385,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15">
       <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15">
       <c r="B58" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15">
       <c r="C59" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15">
       <c r="C60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15">
       <c r="C61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15">
       <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -1420,37 +1423,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15">
       <c r="B64" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15">
       <c r="B65" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15">
       <c r="C66" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15">
       <c r="C67" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15">
       <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15">
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1458,137 +1461,137 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B71" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D72" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D73" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D74" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D75" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B76" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C77" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D78" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D79" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D80" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D81" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="C82" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D83" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D84" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D85" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D86" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="C87" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D88" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D89" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D90" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D91" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="C92" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D93" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D94" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D95" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D96" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
@@ -1596,213 +1599,213 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15">
       <c r="B98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D99" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D100" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="A101" s="6"/>
       <c r="D101" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D102" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D103" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D104" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D105" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15">
       <c r="B106" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C107" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D108" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D109" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D111" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D112" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D113" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D114" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" ht="15">
       <c r="C115" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D116" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D117" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D118" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D119" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D120" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D121" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D122" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" ht="15">
       <c r="C123" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D124" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D125" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D126" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D127" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D128" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D129" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D130" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15">
       <c r="C131" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D132" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D133" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D134" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D135" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D136" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D137" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D138" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
@@ -1810,207 +1813,207 @@
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15">
       <c r="B140" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D141" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D142" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D143" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D144" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D145" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D146" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" ht="15">
       <c r="B147" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" ht="15">
       <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D149" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D150" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D151" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D152" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D153" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D154" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D155" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" ht="15">
       <c r="C156" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D157" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D158" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D159" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D160" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D161" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D162" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D163" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" ht="15">
       <c r="C164" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D165" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D166" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D167" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D168" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D169" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D170" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D171" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" ht="15">
       <c r="C172" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D173" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D174" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D175" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="176" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D176" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D177" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D178" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D179" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A180" s="2" t="s">
         <v>6</v>
       </c>
@@ -2018,87 +2021,87 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15">
       <c r="B181" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D182" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D183" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15">
       <c r="B184" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C185" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D186" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D187" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C188" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D189" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D190" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C191" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D192" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D193" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C194" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D195" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D196" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A197" s="2" t="s">
         <v>7</v>
       </c>
@@ -2106,37 +2109,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B198" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B199" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C200" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C201" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C202" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C203" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A204" s="2" t="s">
         <v>8</v>
       </c>
@@ -2144,187 +2147,187 @@
         <v>139</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B205" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D206" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D207" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D208" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D209" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D210" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="211" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D211" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="212" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="B212" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C213" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="214" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D214" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="215" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D215" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="216" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D216" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D217" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D218" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D219" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C220" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D221" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D222" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D223" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="D224" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D225" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="226" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D226" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="C227" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="228" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D228" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="229" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D229" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D230" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D231" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D232" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D233" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="234" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="C234" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D235" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D236" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D237" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="238" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D238" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="239" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D239" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="240" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:4" s="5" customFormat="1" ht="15">
       <c r="D240" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A241" s="2" t="s">
         <v>9</v>
       </c>
@@ -2332,12 +2335,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15">
       <c r="B242" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D243" s="5" t="s">
         <v>86</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D244" s="5" t="s">
         <v>87</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D245" s="5" t="s">
         <v>88</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D246" s="5" t="s">
         <v>89</v>
       </c>
@@ -2369,112 +2372,112 @@
         <v>171</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="15">
       <c r="B247" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15">
       <c r="C248" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D249" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D250" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D251" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D252" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="15">
       <c r="C253" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D254" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D255" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D256" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D257" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15">
       <c r="C258" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D259" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D260" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D261" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D262" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="15">
       <c r="C263" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D264" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D265" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D266" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D267" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A268" s="2" t="s">
         <v>10</v>
       </c>
@@ -2482,37 +2485,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B269" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B270" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C271" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C272" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C273" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C274" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A275" s="2" t="s">
         <v>11</v>
       </c>
@@ -2520,62 +2523,62 @@
         <v>141</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15">
       <c r="B276" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="D277" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15">
       <c r="B278" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C279" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="D280" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C281" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="D282" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C283" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="D284" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="285" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C285" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="D286" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="287" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A287" s="2" t="s">
         <v>12</v>
       </c>
@@ -2583,37 +2586,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="288" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B288" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B289" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="290" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C290" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C291" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C292" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C293" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A294" s="2" t="s">
         <v>13</v>
       </c>
@@ -2621,187 +2624,187 @@
         <v>165</v>
       </c>
     </row>
-    <row r="295" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B295" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D296" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E297" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E298" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="299" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E299" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="300" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E300" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="301" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E301" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B302" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="303" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C303" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="304" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D304" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="305" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E305" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="306" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E306" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="307" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E307" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="308" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E308" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="309" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E309" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="310" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="C310" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="D311" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="312" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E312" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E313" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="314" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E314" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="315" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E315" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="316" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E316" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="C317" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="318" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="D318" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E319" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="320" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:5" s="5" customFormat="1" ht="15">
       <c r="E320" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E321" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="322" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E322" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E323" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="324" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C324" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="D325" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="326" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E326" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E327" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="328" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E328" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E329" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="330" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="E330" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A331" s="2" t="s">
         <v>14</v>
       </c>
@@ -2809,37 +2812,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B332" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="333" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="B333" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C334" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C335" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C336" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="C337" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A338" s="2" t="s">
         <v>131</v>
       </c>
@@ -2847,37 +2850,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B339" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B340" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C341" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C342" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C343" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C344" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A345" s="2" t="s">
         <v>130</v>
       </c>
@@ -2885,37 +2888,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B346" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B347" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C348" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="349" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C349" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C350" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C351" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="352" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A352" s="2" t="s">
         <v>128</v>
       </c>
@@ -2923,37 +2926,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="353" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B353" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B354" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C355" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="356" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C356" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C357" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="358" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C358" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="359" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A359" s="2" t="s">
         <v>129</v>
       </c>
@@ -2961,37 +2964,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="360" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B360" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="361" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B361" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="362" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C362" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C363" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C364" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="365" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C365" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A366" s="2" t="s">
         <v>15</v>
       </c>
@@ -2999,37 +3002,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B367" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="368" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B368" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="369" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C369" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="370" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C370" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C371" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="372" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C372" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A373" s="2" t="s">
         <v>16</v>
       </c>
@@ -3037,37 +3040,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="374" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="B374" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="375" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B375" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="376" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C376" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="377" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C377" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C378" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C379" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="380" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A380" s="2" t="s">
         <v>17</v>
       </c>
@@ -3075,712 +3078,712 @@
         <v>165</v>
       </c>
     </row>
-    <row r="381" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B381" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="382" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="D382" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="383" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E383" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E384" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="385" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E385" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="386" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E386" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="387" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E387" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="388" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E388" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="389" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E389" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="390" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E390" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="391" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="D391" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="392" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E392" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="393" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E393" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="394" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E394" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="395" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E395" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="396" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E396" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="397" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E397" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="398" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E398" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="399" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E399" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="400" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="D400" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="401" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E401" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="402" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E402" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="403" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E403" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="404" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E404" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="405" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E405" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="406" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E406" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="407" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E407" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="408" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E408" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="409" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="B409" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="410" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="C410" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="D411" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="412" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E412" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="413" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E413" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="414" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E414" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="415" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E415" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="416" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:5" s="8" customFormat="1" ht="15">
       <c r="E416" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="417" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E417" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="418" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E418" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="419" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E419" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="420" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="D420" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="421" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E421" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E422" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="423" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E423" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="424" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E424" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="425" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E425" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="426" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E426" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="427" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E427" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="428" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E428" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="429" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="D429" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="430" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E430" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="431" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E431" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="432" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E432" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="433" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E433" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="434" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E434" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="435" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E435" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="436" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E436" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="437" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E437" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="438" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="C438" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="439" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="D439" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="440" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E440" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="441" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E441" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="442" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E442" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="443" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E443" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="444" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E444" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="445" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E445" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="446" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E446" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="447" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E447" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="448" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="D448" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="449" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E449" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="450" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E450" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="451" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E451" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="452" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E452" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="453" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E453" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="454" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E454" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="455" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E455" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="456" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E456" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="457" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="D457" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E458" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="459" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E459" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="460" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E460" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="461" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E461" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="462" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E462" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="463" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E463" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="464" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E464" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="465" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E465" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="466" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="C466" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="467" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="D467" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="468" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E468" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="469" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E469" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="470" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E470" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="471" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E471" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="472" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E472" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="473" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E473" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="474" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E474" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="475" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E475" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="476" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="D476" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="477" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E477" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="478" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E478" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="479" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E479" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="480" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E480" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="481" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E481" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="482" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E482" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="483" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E483" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="484" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E484" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="485" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="D485" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="486" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E486" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="487" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E487" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="488" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E488" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="489" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E489" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="490" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E490" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="491" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E491" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="492" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E492" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="493" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E493" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="494" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="C494" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="495" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="D495" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="496" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:5" s="8" customFormat="1" ht="15">
       <c r="E496" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="497" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E497" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="498" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E498" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="499" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E499" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="500" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E500" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="501" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E501" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="502" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E502" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="503" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E503" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="504" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="D504" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="505" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E505" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="506" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E506" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="507" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E507" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="508" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E508" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="509" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E509" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="510" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E510" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="511" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E511" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="512" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:5" s="8" customFormat="1" ht="15">
       <c r="E512" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="513" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="D513" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="514" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E514" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="515" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E515" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="516" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E516" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="517" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E517" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="518" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E518" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="519" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E519" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="520" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E520" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="521" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="E521" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="522" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A522" s="2" t="s">
         <v>18</v>
       </c>
@@ -3788,37 +3791,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="523" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B523" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="524" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="B524" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="525" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C525" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="526" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C526" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="527" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C527" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="528" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="C528" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="529" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A529" s="2" t="s">
         <v>19</v>
       </c>
@@ -3826,737 +3829,737 @@
         <v>164</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="15">
       <c r="B530" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G531" s="1" t="s">
+    <row r="531" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G531" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G532" s="1" t="s">
+    <row r="532" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G532" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G533" s="1" t="s">
+    <row r="533" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G533" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G534" s="1" t="s">
+    <row r="534" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G534" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G535" s="1" t="s">
+    <row r="535" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G535" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G536" s="1" t="s">
+    <row r="536" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G536" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G537" s="1" t="s">
+    <row r="537" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G537" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G538" s="1" t="s">
+    <row r="538" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G538" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G539" s="1" t="s">
+    <row r="539" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G539" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G540" s="1" t="s">
+    <row r="540" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G540" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G541" s="1" t="s">
+    <row r="541" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G541" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G542" s="1" t="s">
+    <row r="542" spans="1:7" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="G542" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G543" s="1" t="s">
+    <row r="543" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G543" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G544" s="1" t="s">
+    <row r="544" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="G544" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G545" s="1" t="s">
+    <row r="545" spans="2:7" s="5" customFormat="1" ht="15">
+      <c r="G545" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G546" s="1" t="s">
+    <row r="546" spans="2:7" s="5" customFormat="1" ht="15">
+      <c r="G546" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="547" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G547" s="1" t="s">
+    <row r="547" spans="2:7" s="5" customFormat="1" ht="15">
+      <c r="G547" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G548" s="1" t="s">
+    <row r="548" spans="2:7" s="5" customFormat="1" ht="15">
+      <c r="G548" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G549" s="1" t="s">
+    <row r="549" spans="2:7" s="5" customFormat="1" ht="15">
+      <c r="G549" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G550" s="1" t="s">
+    <row r="550" spans="2:7" s="5" customFormat="1" ht="15">
+      <c r="G550" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:7" ht="15">
       <c r="G551" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:7" ht="15">
       <c r="G552" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="553" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:7">
       <c r="G553" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="554" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:7">
       <c r="G554" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:7">
       <c r="G555" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:7">
       <c r="G556" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:7">
       <c r="G557" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:7">
       <c r="G558" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:7">
       <c r="B559" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:7">
       <c r="C560" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="561" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="7:7">
       <c r="G561" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="562" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="7:7">
       <c r="G562" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="563" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="7:7">
       <c r="G563" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="564" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="7:7">
       <c r="G564" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="565" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="7:7">
       <c r="G565" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="566" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="7:7">
       <c r="G566" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="567" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="7:7">
       <c r="G567" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="568" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="7:7">
       <c r="G568" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="569" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="7:7">
       <c r="G569" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="570" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="7:7">
       <c r="G570" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="571" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="7:7">
       <c r="G571" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="572" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="7:7">
       <c r="G572" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="573" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="7:7">
       <c r="G573" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="574" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="7:7">
       <c r="G574" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="575" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="7:7">
       <c r="G575" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="576" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="7:7">
       <c r="G576" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:7">
       <c r="G577" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:7">
       <c r="G578" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:7">
       <c r="G579" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:7">
       <c r="G580" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:7">
       <c r="G581" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:7">
       <c r="G582" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:7">
       <c r="G583" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:7">
       <c r="G584" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:7">
       <c r="G585" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:7">
       <c r="G586" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:7">
       <c r="G587" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:7">
       <c r="G588" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:7">
       <c r="C589" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:7">
       <c r="G590" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:7">
       <c r="G591" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:7">
       <c r="G592" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="593" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="7:7">
       <c r="G593" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="594" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="7:7">
       <c r="G594" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="595" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="7:7">
       <c r="G595" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="596" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="7:7">
       <c r="G596" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="597" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="7:7">
       <c r="G597" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="598" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="7:7">
       <c r="G598" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="599" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="7:7">
       <c r="G599" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="600" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="7:7">
       <c r="G600" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="601" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="7:7">
       <c r="G601" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="602" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="7:7">
       <c r="G602" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="603" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="7:7">
       <c r="G603" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="604" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="7:7">
       <c r="G604" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="605" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="7:7">
       <c r="G605" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="606" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="7:7">
       <c r="G606" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="607" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="7:7">
       <c r="G607" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="608" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="7:7">
       <c r="G608" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:7">
       <c r="G609" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:7">
       <c r="G610" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:7">
       <c r="G611" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:7">
       <c r="G612" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:7">
       <c r="G613" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:7">
       <c r="G614" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:7">
       <c r="G615" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:7">
       <c r="G616" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:7">
       <c r="G617" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:7">
       <c r="C618" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:7">
       <c r="G619" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:7">
       <c r="G620" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:7">
       <c r="G621" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:7">
       <c r="G622" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:7">
       <c r="G623" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:7">
       <c r="G624" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="625" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="7:7">
       <c r="G625" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="626" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="7:7">
       <c r="G626" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="627" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="7:7">
       <c r="G627" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="628" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="7:7">
       <c r="G628" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="629" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="7:7">
       <c r="G629" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="630" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="7:7">
       <c r="G630" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="631" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="7:7">
       <c r="G631" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="632" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="7:7">
       <c r="G632" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="633" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="7:7">
       <c r="G633" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="634" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="7:7">
       <c r="G634" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="635" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="7:7">
       <c r="G635" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="636" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="7:7">
       <c r="G636" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="637" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="7:7">
       <c r="G637" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="638" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="7:7">
       <c r="G638" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="639" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="7:7">
       <c r="G639" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="640" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="7:7">
       <c r="G640" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:7">
       <c r="G641" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:7">
       <c r="G642" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:7">
       <c r="G643" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:7">
       <c r="G644" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:7">
       <c r="G645" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:7">
       <c r="G646" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:7">
       <c r="C647" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:7">
       <c r="G648" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:7">
       <c r="G649" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:7">
       <c r="G650" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:7">
       <c r="G651" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:7">
       <c r="G652" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:7">
       <c r="G653" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:7">
       <c r="G654" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:7">
       <c r="G655" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:7">
       <c r="G656" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="657" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="7:7">
       <c r="G657" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="658" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="7:7">
       <c r="G658" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="659" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="7:7">
       <c r="G659" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="660" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="7:7">
       <c r="G660" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="661" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="7:7">
       <c r="G661" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="662" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="7:7">
       <c r="G662" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="663" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="7:7">
       <c r="G663" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="664" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="7:7">
       <c r="G664" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="665" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="7:7">
       <c r="G665" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="666" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="7:7">
       <c r="G666" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="667" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="7:7">
       <c r="G667" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="668" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="7:7">
       <c r="G668" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="669" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="7:7">
       <c r="G669" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="670" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="7:7">
       <c r="G670" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="671" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="7:7">
       <c r="G671" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="672" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="7:7">
       <c r="G672" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7">
       <c r="G673" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7">
       <c r="G674" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7">
       <c r="G675" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="676" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" s="3" customFormat="1" ht="14.4">
       <c r="A676" s="2" t="s">
         <v>20</v>
       </c>
@@ -4564,737 +4567,737 @@
         <v>164</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7">
       <c r="B677" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7">
       <c r="G678" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7">
       <c r="G679" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7">
       <c r="G680" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7">
       <c r="G681" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7">
       <c r="G682" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7">
       <c r="G683" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7">
       <c r="G684" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7">
       <c r="G685" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7">
       <c r="G686" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7">
       <c r="G687" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7">
       <c r="G688" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="689" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="7:7">
       <c r="G689" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="690" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="7:7">
       <c r="G690" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="691" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="7:7">
       <c r="G691" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="692" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="7:7">
       <c r="G692" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="693" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="7:7">
       <c r="G693" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="694" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="7:7">
       <c r="G694" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="695" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="7:7">
       <c r="G695" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="696" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="7:7">
       <c r="G696" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="697" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="7:7">
       <c r="G697" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="698" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="7:7">
       <c r="G698" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="699" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="7:7">
       <c r="G699" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="700" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="7:7">
       <c r="G700" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="701" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="7:7">
       <c r="G701" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="702" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="7:7">
       <c r="G702" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="703" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="7:7">
       <c r="G703" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="704" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="7:7">
       <c r="G704" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:7">
       <c r="G705" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:7">
       <c r="B706" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:7">
       <c r="C707" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:7">
       <c r="G708" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:7">
       <c r="G709" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:7">
       <c r="G710" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:7">
       <c r="G711" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:7">
       <c r="G712" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:7">
       <c r="G713" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:7">
       <c r="G714" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:7">
       <c r="G715" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:7">
       <c r="G716" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:7">
       <c r="G717" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:7">
       <c r="G718" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:7">
       <c r="G719" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:7">
       <c r="G720" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="721" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:7">
       <c r="G721" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="722" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:7">
       <c r="G722" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="723" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:7">
       <c r="G723" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="724" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:7">
       <c r="G724" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="725" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:7">
       <c r="G725" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="726" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:7">
       <c r="G726" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="727" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:7">
       <c r="G727" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="728" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:7">
       <c r="G728" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="729" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:7">
       <c r="G729" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="730" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:7">
       <c r="G730" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="731" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:7">
       <c r="G731" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="732" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:7">
       <c r="G732" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="733" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:7">
       <c r="G733" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="734" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:7">
       <c r="G734" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="735" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:7">
       <c r="G735" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="736" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:7">
       <c r="C736" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="737" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="7:7">
       <c r="G737" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="738" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="7:7">
       <c r="G738" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="739" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="7:7">
       <c r="G739" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="740" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="7:7">
       <c r="G740" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="741" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="7:7">
       <c r="G741" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="742" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="7:7">
       <c r="G742" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="743" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="7:7">
       <c r="G743" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="744" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="7:7">
       <c r="G744" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="745" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="7:7">
       <c r="G745" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="746" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="7:7">
       <c r="G746" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="747" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="7:7">
       <c r="G747" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="748" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="7:7">
       <c r="G748" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="749" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="7:7">
       <c r="G749" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="750" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="7:7">
       <c r="G750" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="751" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="7:7">
       <c r="G751" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="752" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="7:7">
       <c r="G752" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="753" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:7">
       <c r="G753" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="754" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:7">
       <c r="G754" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="755" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:7">
       <c r="G755" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="756" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:7">
       <c r="G756" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="757" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:7">
       <c r="G757" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="758" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:7">
       <c r="G758" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="759" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:7">
       <c r="G759" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="760" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:7">
       <c r="G760" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="761" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:7">
       <c r="G761" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="762" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:7">
       <c r="G762" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="763" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:7">
       <c r="G763" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="764" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:7">
       <c r="G764" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="765" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:7">
       <c r="C765" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="766" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:7">
       <c r="G766" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="767" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:7">
       <c r="G767" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="768" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:7">
       <c r="G768" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="769" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="7:7">
       <c r="G769" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="770" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="7:7">
       <c r="G770" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="771" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="7:7">
       <c r="G771" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="772" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="7:7">
       <c r="G772" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="773" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="7:7">
       <c r="G773" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="774" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="7:7">
       <c r="G774" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="775" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="7:7">
       <c r="G775" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="776" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="7:7">
       <c r="G776" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="777" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="7:7">
       <c r="G777" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="778" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="7:7">
       <c r="G778" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="779" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="7:7">
       <c r="G779" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="780" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="7:7">
       <c r="G780" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="781" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="7:7">
       <c r="G781" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="782" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="7:7">
       <c r="G782" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="783" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="7:7">
       <c r="G783" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="784" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="7:7">
       <c r="G784" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="785" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:7">
       <c r="G785" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="786" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:7">
       <c r="G786" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="787" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:7">
       <c r="G787" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="788" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:7">
       <c r="G788" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="789" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:7">
       <c r="G789" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="790" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:7">
       <c r="G790" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="791" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:7">
       <c r="G791" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="792" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:7">
       <c r="G792" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="793" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:7">
       <c r="G793" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="794" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:7">
       <c r="C794" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="795" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:7">
       <c r="G795" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="796" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:7">
       <c r="G796" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="797" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:7">
       <c r="G797" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="798" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:7">
       <c r="G798" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="799" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:7">
       <c r="G799" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="800" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:7">
       <c r="G800" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="801" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="7:7">
       <c r="G801" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="802" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="7:7">
       <c r="G802" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="803" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="7:7">
       <c r="G803" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="804" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="7:7">
       <c r="G804" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="805" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="7:7">
       <c r="G805" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="806" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="7:7">
       <c r="G806" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="807" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="7:7">
       <c r="G807" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="808" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="7:7">
       <c r="G808" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="809" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="7:7">
       <c r="G809" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="810" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="7:7">
       <c r="G810" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="811" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="7:7">
       <c r="G811" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="812" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="7:7">
       <c r="G812" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="813" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="7:7">
       <c r="G813" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="814" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="7:7">
       <c r="G814" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="815" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="7:7">
       <c r="G815" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="816" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="7:7">
       <c r="G816" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7">
       <c r="G817" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7">
       <c r="G818" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7">
       <c r="G819" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7">
       <c r="G820" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7">
       <c r="G821" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7">
       <c r="G822" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="823" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" s="3" customFormat="1" ht="14.4">
       <c r="A823" s="2" t="s">
         <v>21</v>
       </c>
@@ -5302,37 +5305,37 @@
         <v>163</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7">
       <c r="B824" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7">
       <c r="B825" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7">
       <c r="C826" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7">
       <c r="C827" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7">
       <c r="C828" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7">
       <c r="C829" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="830" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" s="3" customFormat="1" ht="14.4">
       <c r="A830" s="2" t="s">
         <v>22</v>
       </c>
@@ -5340,112 +5343,112 @@
         <v>165</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7">
       <c r="B831" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7">
       <c r="D832" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="833" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:4">
       <c r="D833" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="834" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:4">
       <c r="D834" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="835" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:4">
       <c r="B835" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="836" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:4">
       <c r="C836" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="837" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:4">
       <c r="D837" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="838" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:4">
       <c r="D838" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="839" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:4">
       <c r="D839" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="840" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:4">
       <c r="C840" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="841" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:4">
       <c r="D841" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="842" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:4">
       <c r="D842" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="843" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:4">
       <c r="D843" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="844" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:4">
       <c r="C844" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="845" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:4">
       <c r="D845" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="846" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:4">
       <c r="D846" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="847" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:4">
       <c r="D847" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="848" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:4">
       <c r="C848" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6">
       <c r="D849" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6">
       <c r="D850" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6">
       <c r="D851" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="852" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A852" s="2" t="s">
         <v>23</v>
       </c>
@@ -5453,137 +5456,137 @@
         <v>165</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6">
       <c r="B853" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6">
       <c r="D854" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6">
       <c r="D855" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6">
       <c r="D856" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6">
       <c r="D857" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6">
       <c r="B858" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6">
       <c r="C859" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6">
       <c r="D860" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6">
       <c r="D861" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6">
       <c r="D862" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6">
       <c r="D863" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6">
       <c r="C864" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6">
       <c r="D865" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6">
       <c r="D866" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6">
       <c r="D867" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6">
       <c r="D868" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6">
       <c r="C869" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6">
       <c r="D870" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6">
       <c r="D871" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6">
       <c r="D872" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6">
       <c r="D873" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6">
       <c r="C874" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6">
       <c r="D875" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6">
       <c r="D876" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6">
       <c r="D877" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6">
       <c r="D878" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="879" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A879" s="2" t="s">
         <v>24</v>
       </c>
@@ -5591,62 +5594,62 @@
         <v>164</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6">
       <c r="B880" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6">
       <c r="D881" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6">
       <c r="B882" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6">
       <c r="C883" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6">
       <c r="D884" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6">
       <c r="C885" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6">
       <c r="D886" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6">
       <c r="C887" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6">
       <c r="D888" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6">
       <c r="C889" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6">
       <c r="D890" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="891" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A891" s="2" t="s">
         <v>25</v>
       </c>
@@ -5654,37 +5657,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6">
       <c r="B892" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6">
       <c r="B893" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6">
       <c r="C894" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6">
       <c r="C895" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6">
       <c r="C896" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6">
       <c r="C897" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="898" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A898" s="2" t="s">
         <v>26</v>
       </c>
@@ -5692,37 +5695,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6">
       <c r="B899" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6">
       <c r="B900" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6">
       <c r="C901" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6">
       <c r="C902" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6">
       <c r="C903" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6">
       <c r="C904" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="905" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A905" s="2" t="s">
         <v>27</v>
       </c>
@@ -5730,37 +5733,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6">
       <c r="B906" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6">
       <c r="B907" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6">
       <c r="C908" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6">
       <c r="C909" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6">
       <c r="C910" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6">
       <c r="C911" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="912" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A912" s="2" t="s">
         <v>28</v>
       </c>
@@ -5768,37 +5771,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6">
       <c r="B913" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6">
       <c r="B914" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6">
       <c r="C915" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6">
       <c r="C916" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6">
       <c r="C917" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6">
       <c r="C918" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="919" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A919" s="2" t="s">
         <v>29</v>
       </c>
@@ -5806,37 +5809,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6">
       <c r="B920" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6">
       <c r="B921" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6">
       <c r="C922" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6">
       <c r="C923" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6">
       <c r="C924" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6">
       <c r="C925" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="926" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A926" s="2" t="s">
         <v>30</v>
       </c>
@@ -5844,37 +5847,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6">
       <c r="B927" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6">
       <c r="B928" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6">
       <c r="C929" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6">
       <c r="C930" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6">
       <c r="C931" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6">
       <c r="C932" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="933" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A933" s="2" t="s">
         <v>31</v>
       </c>
@@ -5882,37 +5885,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6">
       <c r="B934" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6">
       <c r="B935" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6">
       <c r="C936" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6">
       <c r="C937" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6">
       <c r="C938" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6">
       <c r="C939" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="940" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A940" s="2" t="s">
         <v>32</v>
       </c>
@@ -5920,37 +5923,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6">
       <c r="B941" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6">
       <c r="B942" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6">
       <c r="C943" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6">
       <c r="C944" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6">
       <c r="C945" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6">
       <c r="C946" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="947" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A947" s="2" t="s">
         <v>33</v>
       </c>
@@ -5958,37 +5961,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6">
       <c r="B948" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6">
       <c r="B949" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6">
       <c r="C950" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6">
       <c r="C951" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6">
       <c r="C952" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6">
       <c r="C953" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="954" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" s="3" customFormat="1" ht="14.4">
       <c r="A954" s="2" t="s">
         <v>34</v>
       </c>
@@ -5996,42 +5999,42 @@
         <v>165</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6">
       <c r="B955" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6">
       <c r="B956" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6">
       <c r="C957" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6">
       <c r="C958" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6">
       <c r="C959" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6">
       <c r="C960" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="967" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="6:6">
       <c r="F967" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="968" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="6:6">
       <c r="F968" s="1" t="s">
         <v>168</v>
       </c>
@@ -6088,9 +6091,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -6145,7 +6148,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -6189,7 +6192,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -6244,7 +6247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -6277,7 +6280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -6370,92 +6373,92 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -6469,11 +6472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE8D90-371B-4FA4-BEF6-9B8645E31B40}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="O16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6488,92 +6491,92 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2">
       <c r="B4" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2">
       <c r="B5" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2">
       <c r="B6" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2">
       <c r="B7" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2">
       <c r="B9" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2">
       <c r="B12" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2">
       <c r="B13" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2">
       <c r="B15" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2">
       <c r="B16" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
         <v>158</v>
       </c>

--- a/Haifuri Mod VO Spreadsheet.xlsx
+++ b/Haifuri Mod VO Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Wows_Haifuri_VoiceMod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nightstalkers\Documents\GitHub Projects\Wows_Haifuri_VoiceMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659BA4DA-E41C-4DA1-A195-F356672A5F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990C47FB-4AB1-439E-BC67-4DEE01FD6D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="5616" windowWidth="11064" windowHeight="6744" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5CFBD424-2FA9-4BA6-BF78-1A890E70EE99}"/>
   </bookViews>
   <sheets>
     <sheet name="VO list" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="173">
   <si>
     <t>Play_VO_Alarm_Defective_Modules</t>
   </si>
@@ -565,7 +562,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,28 +1082,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759EC224-9B23-4D49-A9A9-4E8008F27D18}">
-  <dimension ref="A3:R968"/>
+  <dimension ref="A3:R964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E545" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E550" sqref="A550:XFD550"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.09765625" style="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="15">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1114,54 +1111,54 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>138</v>
       </c>
@@ -1169,12 +1166,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" ht="15">
+    <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1182,202 +1179,202 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="17" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="18" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="15">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="15">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="15">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="15">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="15">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="15">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="15">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="15">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="15">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="3:5" ht="15">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="15">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="3:5" ht="15">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="15">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="15">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="15">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="15">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="3:5" ht="15">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="3:5" ht="15">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="3:5" ht="15">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="15">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="3:5" ht="15">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="15">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="15">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="3:5" ht="15">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="15">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="3:5" ht="15">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="3:5" ht="15">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="15">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="15">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -1385,37 +1382,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -1423,37 +1420,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1461,137 +1458,137 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="72" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D72" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D73" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="74" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D74" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="75" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D75" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="76" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="77" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D78" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D79" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="80" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D80" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="81" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D81" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="82" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="83" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D83" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="84" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D84" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="85" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D85" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="86" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D86" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="87" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="88" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D88" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="89" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D89" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="90" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D90" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="91" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D91" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="92" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="93" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D93" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="94" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D94" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="95" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D95" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="96" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D96" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
@@ -1599,213 +1596,213 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="99" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D99" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="100" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D100" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="101" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="D101" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="102" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D102" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="103" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D103" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D104" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="105" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D105" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="107" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C107" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="108" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="109" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D109" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="111" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D111" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D112" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="113" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D113" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="114" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D114" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="3:4" ht="15">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="116" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D116" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="117" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D117" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="118" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D118" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="119" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D119" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="120" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D120" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="121" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D121" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="122" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D122" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="3:4" ht="15">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="124" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D124" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="125" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D125" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="126" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D126" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="127" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D127" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="128" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D128" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="129" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D129" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="130" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D130" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="132" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D132" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="133" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D133" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="134" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D134" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D135" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="136" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D136" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="137" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D137" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="138" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D138" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
@@ -1813,207 +1810,207 @@
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="141" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D141" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="142" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D142" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="143" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D143" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="144" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D144" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="145" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D145" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="146" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D146" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="2:4" ht="15">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="2:4" ht="15">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="149" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D149" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="150" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D150" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="151" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D151" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="152" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D152" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="153" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D153" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="154" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D154" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="155" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D155" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="2:4" ht="15">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="157" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D157" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="158" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D158" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="159" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D159" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="160" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D160" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="161" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D161" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="162" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D162" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="163" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D163" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="3:4" ht="15">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="165" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D165" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="166" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D166" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="167" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D167" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="168" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D168" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="169" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D169" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="170" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D170" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="171" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D171" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="3:4" ht="15">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="173" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D173" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="174" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D174" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="175" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D175" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="176" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="176" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D176" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="177" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D177" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="178" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D178" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="179" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D179" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="180" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>6</v>
       </c>
@@ -2021,87 +2018,87 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="182" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D182" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="183" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D183" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="185" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C185" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="186" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D186" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="187" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D187" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="188" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C188" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="189" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D189" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="190" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D190" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="191" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C191" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="192" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D192" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="193" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D193" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="194" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C194" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="195" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D195" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="196" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D196" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>7</v>
       </c>
@@ -2109,37 +2106,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="198" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="199" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="200" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C200" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="201" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C201" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="202" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C202" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="203" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C203" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="204" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>8</v>
       </c>
@@ -2147,187 +2144,187 @@
         <v>139</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="205" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="206" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D206" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="207" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D207" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="208" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D208" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="209" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D209" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="210" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D210" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="211" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="211" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D211" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="212" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="212" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="213" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C213" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="214" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="214" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D214" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="215" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="215" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D215" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="216" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="216" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D216" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="217" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D217" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="218" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D218" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="219" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D219" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="220" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C220" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="221" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D221" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="222" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D222" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="223" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D223" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="2:4" s="5" customFormat="1" ht="15">
+    <row r="224" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D224" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="225" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D225" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="226" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="226" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D226" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="227" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C227" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="228" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="228" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D228" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="229" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="229" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D229" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="230" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D230" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="231" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D231" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="232" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D232" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="233" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D233" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="234" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="234" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C234" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="235" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D235" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="236" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D236" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="237" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D237" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="238" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="238" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D238" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="239" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="239" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D239" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="240" spans="3:4" s="5" customFormat="1" ht="15">
+    <row r="240" spans="3:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D240" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="241" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>9</v>
       </c>
@@ -2335,12 +2332,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="243" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D243" s="5" t="s">
         <v>86</v>
       </c>
@@ -2348,7 +2345,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="244" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D244" s="5" t="s">
         <v>87</v>
       </c>
@@ -2356,7 +2353,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="245" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D245" s="5" t="s">
         <v>88</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="246" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D246" s="5" t="s">
         <v>89</v>
       </c>
@@ -2372,112 +2369,112 @@
         <v>171</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C248" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="249" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D249" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="250" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D250" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="251" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D251" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="252" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D252" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C253" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="254" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D254" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="255" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D255" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="256" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D256" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="257" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D257" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C258" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="259" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D259" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="260" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D260" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="261" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D261" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="262" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D262" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C263" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="264" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D264" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="265" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D265" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="266" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D266" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="267" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D267" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="268" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>10</v>
       </c>
@@ -2485,37 +2482,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="269" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="270" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="271" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C271" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="272" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C272" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="273" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C273" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="274" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C274" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="275" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>11</v>
       </c>
@@ -2523,62 +2520,62 @@
         <v>141</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="277" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D277" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="279" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C279" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="280" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D280" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="281" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C281" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="282" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D282" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="283" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C283" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="284" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D284" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="285" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="285" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C285" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="286" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D286" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="287" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="287" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>12</v>
       </c>
@@ -2586,37 +2583,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="288" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="288" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="289" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="290" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="290" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C290" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="291" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C291" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="292" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C292" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="293" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C293" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="294" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>13</v>
       </c>
@@ -2624,187 +2621,187 @@
         <v>165</v>
       </c>
     </row>
-    <row r="295" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="295" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B295" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="296" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D296" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="297" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E297" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="298" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E298" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="299" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="299" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E299" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="300" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="300" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E300" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="301" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="301" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E301" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="302" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B302" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="303" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="303" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C303" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="304" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="304" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D304" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="305" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="305" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E305" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="306" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="306" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E306" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="307" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="307" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E307" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="308" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="308" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E308" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="309" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="309" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E309" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="310" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="310" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C310" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="311" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D311" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="312" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="312" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E312" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="313" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E313" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="314" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="314" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E314" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="315" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="315" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E315" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="316" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="316" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E316" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="317" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C317" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="318" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="318" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D318" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="319" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E319" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="320" spans="3:5" s="5" customFormat="1" ht="15">
+    <row r="320" spans="3:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E320" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="321" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E321" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="322" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="322" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E322" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="323" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E323" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="324" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="324" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C324" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="325" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D325" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="326" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="326" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E326" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="327" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E327" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="328" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="328" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E328" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="329" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E329" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="330" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="330" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E330" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="331" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>14</v>
       </c>
@@ -2812,37 +2809,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="332" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B332" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="333" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="333" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B333" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="334" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C334" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="335" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C335" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="336" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C336" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="5" customFormat="1" ht="15">
+    <row r="337" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C337" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="338" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>131</v>
       </c>
@@ -2850,37 +2847,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="339" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="340" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B340" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="341" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C341" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="342" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C342" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="343" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C343" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="344" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C344" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="345" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>130</v>
       </c>
@@ -2888,37 +2885,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="346" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B346" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="347" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B347" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="348" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C348" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="349" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="349" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C349" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="350" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C350" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="351" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C351" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="352" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="352" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>128</v>
       </c>
@@ -2926,37 +2923,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="353" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="353" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B353" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="354" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B354" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="355" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C355" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="356" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="356" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C356" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="357" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C357" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="358" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="358" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C358" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="359" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="359" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>129</v>
       </c>
@@ -2964,37 +2961,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="360" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="360" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="361" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="361" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="362" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="362" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C362" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="363" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C363" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="364" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C364" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="365" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="365" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C365" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="366" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>15</v>
       </c>
@@ -3002,37 +2999,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="367" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B367" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="368" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="368" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B368" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="369" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="369" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C369" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="370" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="370" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C370" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="371" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C371" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="372" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="372" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C372" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="373" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>16</v>
       </c>
@@ -3040,37 +3037,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="374" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1">
+    <row r="374" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="375" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="375" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B375" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="376" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="376" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C376" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="377" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="377" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C377" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="378" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C378" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="379" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C379" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="380" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="380" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>17</v>
       </c>
@@ -3078,712 +3075,712 @@
         <v>165</v>
       </c>
     </row>
-    <row r="381" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="381" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B381" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="382" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="382" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D382" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="383" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="383" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E383" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="384" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E384" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="385" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="385" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E385" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="386" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="386" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E386" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="387" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="387" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E387" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="388" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="388" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E388" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="389" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="389" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E389" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="390" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="390" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E390" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="391" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="391" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D391" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="392" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="392" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E392" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="393" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="393" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E393" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="394" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="394" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E394" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="395" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="395" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E395" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="396" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="396" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E396" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="397" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="397" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E397" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="398" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="398" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E398" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="399" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="399" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E399" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="400" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="400" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D400" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="401" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="401" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E401" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="402" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="402" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E402" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="403" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="403" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E403" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="404" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="404" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E404" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="405" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="405" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E405" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="406" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="406" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E406" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="407" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="407" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E407" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="408" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="408" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E408" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="409" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="409" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B409" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="410" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="410" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C410" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="411" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D411" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="412" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="412" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E412" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="413" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="413" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E413" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="414" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="414" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E414" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="415" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="415" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E415" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="416" spans="2:5" s="8" customFormat="1" ht="15">
+    <row r="416" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E416" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="417" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="417" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E417" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="418" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="418" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E418" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="419" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="419" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E419" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="420" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="420" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D420" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="421" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="421" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E421" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="422" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E422" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="423" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="423" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E423" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="424" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="424" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E424" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="425" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="425" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E425" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="426" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="426" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E426" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="427" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="427" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E427" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="428" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="428" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E428" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="429" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="429" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D429" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="430" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="430" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E430" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="431" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="431" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E431" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="432" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="432" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E432" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="433" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="433" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E433" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="434" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="434" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E434" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="435" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="435" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E435" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="436" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="436" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E436" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="437" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="437" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E437" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="438" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="438" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C438" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="439" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="439" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D439" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="440" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="440" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E440" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="441" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="441" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E441" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="442" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="442" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E442" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="443" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="443" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E443" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="444" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="444" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E444" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="445" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="445" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E445" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="446" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="446" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E446" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="447" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="447" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E447" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="448" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="448" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D448" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="449" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="449" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E449" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="450" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="450" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E450" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="451" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="451" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E451" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="452" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="452" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E452" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="453" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="453" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E453" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="454" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="454" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E454" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="455" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="455" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E455" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="456" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="456" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E456" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="457" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="457" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D457" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="458" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E458" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="459" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="459" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E459" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="460" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="460" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E460" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="461" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="461" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E461" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="462" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="462" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E462" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="463" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="463" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E463" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="464" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="464" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E464" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="465" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="465" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E465" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="466" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="466" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C466" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="467" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="467" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D467" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="468" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="468" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E468" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="469" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="469" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E469" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="470" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="470" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E470" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="471" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="471" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E471" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="472" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="472" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E472" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="473" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="473" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E473" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="474" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="474" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E474" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="475" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="475" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E475" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="476" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="476" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D476" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="477" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="477" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E477" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="478" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="478" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E478" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="479" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="479" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E479" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="480" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="480" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E480" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="481" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="481" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E481" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="482" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="482" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E482" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="483" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="483" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E483" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="484" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="484" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E484" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="485" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="485" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D485" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="486" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="486" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E486" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="487" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="487" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E487" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="488" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="488" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E488" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="489" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="489" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E489" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="490" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="490" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E490" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="491" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="491" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E491" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="492" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="492" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E492" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="493" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="493" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E493" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="494" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="494" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C494" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="495" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="495" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D495" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="496" spans="3:5" s="8" customFormat="1" ht="15">
+    <row r="496" spans="3:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E496" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="497" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="497" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E497" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="498" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="498" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E498" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="499" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="499" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E499" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="500" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="500" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E500" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="501" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="501" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E501" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="502" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="502" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E502" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="503" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="503" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E503" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="504" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="504" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D504" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="505" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="505" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E505" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="506" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="506" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E506" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="507" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="507" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E507" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="508" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="508" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E508" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="509" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="509" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E509" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="510" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="510" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E510" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="511" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="511" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E511" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="512" spans="4:5" s="8" customFormat="1" ht="15">
+    <row r="512" spans="4:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E512" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="513" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="513" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D513" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="514" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="514" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E514" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="515" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="515" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E515" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="516" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="516" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E516" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="517" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="517" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E517" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="518" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="518" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E518" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="519" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="519" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E519" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="520" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="520" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E520" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="521" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="521" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E521" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="522" spans="1:6" s="3" customFormat="1" ht="15">
+    <row r="522" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>18</v>
       </c>
@@ -3791,37 +3788,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="523" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="523" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B523" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="524" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="524" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B524" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="525" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="525" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C525" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="526" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="526" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C526" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="527" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="527" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C527" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="528" spans="1:6" s="8" customFormat="1" ht="15">
+    <row r="528" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C528" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="529" spans="1:7" s="3" customFormat="1" ht="15">
+    <row r="529" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>19</v>
       </c>
@@ -3829,2219 +3826,2199 @@
         <v>164</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="15">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="531" spans="1:7" s="5" customFormat="1" ht="15">
+    <row r="531" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G531" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="532" spans="1:7" s="5" customFormat="1" ht="15">
+    <row r="532" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G532" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="533" spans="1:7" s="5" customFormat="1" ht="15">
+    <row r="533" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G533" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="534" spans="1:7" s="5" customFormat="1" ht="15">
+    <row r="534" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G534" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="535" spans="1:7" s="5" customFormat="1" ht="15">
+    <row r="535" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G535" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="536" spans="1:7" s="5" customFormat="1" ht="15">
+    <row r="536" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G536" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G537" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G538" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G539" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G540" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G541" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G542" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G543" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G544" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="545" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G545" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="546" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G546" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="547" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G547" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="548" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G548" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="549" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G549" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="550" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G550" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="551" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G551" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="552" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G552" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="553" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G553" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="554" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G554" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B555" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="556" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C556" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="557" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G557" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="558" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G558" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="559" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G559" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="560" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G560" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="561" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G561" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="537" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="G537" s="5" t="s">
+    <row r="562" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G562" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="538" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="G538" s="5" t="s">
+    <row r="563" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G563" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="564" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G564" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="539" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="G539" s="5" t="s">
+    <row r="565" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G565" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="540" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="G540" s="5" t="s">
+    <row r="566" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G566" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="541" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="G541" s="5" t="s">
+    <row r="567" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G567" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="542" spans="1:7" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="G542" s="5" t="s">
+    <row r="568" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G568" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="543" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="G543" s="5" t="s">
+    <row r="569" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G569" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="544" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="G544" s="5" t="s">
+    <row r="570" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G570" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="545" spans="2:7" s="5" customFormat="1" ht="15">
-      <c r="G545" s="5" t="s">
+    <row r="571" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G571" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="546" spans="2:7" s="5" customFormat="1" ht="15">
-      <c r="G546" s="5" t="s">
+    <row r="572" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G572" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="547" spans="2:7" s="5" customFormat="1" ht="15">
-      <c r="G547" s="5" t="s">
+    <row r="573" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G573" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="548" spans="2:7" s="5" customFormat="1" ht="15">
-      <c r="G548" s="5" t="s">
+    <row r="574" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G574" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="549" spans="2:7" s="5" customFormat="1" ht="15">
-      <c r="G549" s="5" t="s">
+    <row r="575" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G575" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="550" spans="2:7" s="5" customFormat="1" ht="15">
-      <c r="G550" s="5" t="s">
+    <row r="576" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G576" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="2:7" ht="15">
-      <c r="G551" s="1" t="s">
+    <row r="577" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G577" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="552" spans="2:7" ht="15">
-      <c r="G552" s="1" t="s">
+    <row r="578" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G578" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="553" spans="2:7">
-      <c r="G553" s="1" t="s">
+    <row r="579" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G579" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="554" spans="2:7">
-      <c r="G554" s="1" t="s">
+    <row r="580" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G580" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="555" spans="2:7">
-      <c r="G555" s="1" t="s">
+    <row r="581" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G581" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="556" spans="2:7">
-      <c r="G556" s="1" t="s">
+    <row r="582" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G582" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="557" spans="2:7">
-      <c r="G557" s="1" t="s">
+    <row r="583" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G583" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="558" spans="2:7">
-      <c r="G558" s="1" t="s">
+    <row r="584" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G584" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="559" spans="2:7">
-      <c r="B559" s="1" t="s">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C585" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="586" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G586" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="587" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G587" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="588" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G588" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="589" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G589" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="590" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G590" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="591" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G591" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="592" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G592" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="593" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G593" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="594" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G594" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="595" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G595" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="596" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G596" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="597" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G597" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="598" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G598" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="599" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G599" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="600" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G600" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="601" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G601" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="602" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G602" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="603" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G603" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="604" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G604" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="605" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G605" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="606" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G606" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="607" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G607" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="608" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G608" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="609" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G609" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="610" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G610" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="611" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G611" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="612" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G612" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="613" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G613" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="614" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C614" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="615" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G615" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="616" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G616" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="617" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G617" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="618" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G618" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="619" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G619" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="620" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G620" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="621" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G621" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="622" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G622" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="623" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G623" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="624" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G624" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="625" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G625" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="626" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G626" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="627" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G627" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="628" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G628" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="629" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G629" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="630" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G630" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="631" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G631" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="632" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G632" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="633" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G633" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="634" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G634" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="635" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G635" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="636" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G636" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="637" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G637" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="638" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G638" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="639" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G639" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="640" spans="7:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G640" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="641" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G641" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="642" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G642" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="643" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C643" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="644" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G644" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="645" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G645" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="646" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G646" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="647" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G647" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="648" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G648" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="649" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G649" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="650" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G650" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="651" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G651" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="652" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G652" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="653" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G653" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="654" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G654" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="655" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G655" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="656" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G656" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G657" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G658" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G659" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G660" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G661" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G662" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G663" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G664" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G665" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G666" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G667" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G668" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G669" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G670" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G671" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B673" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G674" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G675" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G676" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G677" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G678" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G679" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G680" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G681" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G682" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G683" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G684" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G685" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G686" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G687" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G688" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G689" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G690" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G691" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G692" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G693" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G694" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G695" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G696" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G697" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G698" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G699" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G700" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G701" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B702" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="560" spans="2:7">
-      <c r="C560" s="1" t="s">
+    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C703" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="561" spans="7:7">
-      <c r="G561" s="1" t="s">
+    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G704" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="562" spans="7:7">
-      <c r="G562" s="1" t="s">
+    <row r="705" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G705" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="563" spans="7:7">
-      <c r="G563" s="1" t="s">
+    <row r="706" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G706" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="564" spans="7:7">
-      <c r="G564" s="1" t="s">
+    <row r="707" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G707" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="565" spans="7:7">
-      <c r="G565" s="1" t="s">
+    <row r="708" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G708" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="566" spans="7:7">
-      <c r="G566" s="1" t="s">
+    <row r="709" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G709" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="567" spans="7:7">
-      <c r="G567" s="1" t="s">
+    <row r="710" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G710" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="568" spans="7:7">
-      <c r="G568" s="1" t="s">
+    <row r="711" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G711" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="569" spans="7:7">
-      <c r="G569" s="1" t="s">
+    <row r="712" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G712" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="570" spans="7:7">
-      <c r="G570" s="1" t="s">
+    <row r="713" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G713" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="571" spans="7:7">
-      <c r="G571" s="1" t="s">
+    <row r="714" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G714" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="572" spans="7:7">
-      <c r="G572" s="1" t="s">
+    <row r="715" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G715" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="573" spans="7:7">
-      <c r="G573" s="1" t="s">
+    <row r="716" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G716" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="574" spans="7:7">
-      <c r="G574" s="1" t="s">
+    <row r="717" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G717" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="575" spans="7:7">
-      <c r="G575" s="1" t="s">
+    <row r="718" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G718" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="576" spans="7:7">
-      <c r="G576" s="1" t="s">
+    <row r="719" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G719" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="577" spans="3:7">
-      <c r="G577" s="1" t="s">
+    <row r="720" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G720" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="578" spans="3:7">
-      <c r="G578" s="1" t="s">
+    <row r="721" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G721" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="579" spans="3:7">
-      <c r="G579" s="1" t="s">
+    <row r="722" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G722" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="580" spans="3:7">
-      <c r="G580" s="1" t="s">
+    <row r="723" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G723" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="3:7">
-      <c r="G581" s="1" t="s">
+    <row r="724" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G724" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="582" spans="3:7">
-      <c r="G582" s="1" t="s">
+    <row r="725" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G725" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="3:7">
-      <c r="G583" s="1" t="s">
+    <row r="726" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G726" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="584" spans="3:7">
-      <c r="G584" s="1" t="s">
+    <row r="727" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G727" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="585" spans="3:7">
-      <c r="G585" s="1" t="s">
+    <row r="728" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G728" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="586" spans="3:7">
-      <c r="G586" s="1" t="s">
+    <row r="729" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G729" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="587" spans="3:7">
-      <c r="G587" s="1" t="s">
+    <row r="730" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G730" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="588" spans="3:7">
-      <c r="G588" s="1" t="s">
+    <row r="731" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G731" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="589" spans="3:7">
-      <c r="C589" s="1" t="s">
+    <row r="732" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C732" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="590" spans="3:7">
-      <c r="G590" s="1" t="s">
+    <row r="733" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G733" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="591" spans="3:7">
-      <c r="G591" s="1" t="s">
+    <row r="734" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G734" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="592" spans="3:7">
-      <c r="G592" s="1" t="s">
+    <row r="735" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G735" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="593" spans="7:7">
-      <c r="G593" s="1" t="s">
+    <row r="736" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G736" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="594" spans="7:7">
-      <c r="G594" s="1" t="s">
+    <row r="737" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G737" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="595" spans="7:7">
-      <c r="G595" s="1" t="s">
+    <row r="738" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G738" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="596" spans="7:7">
-      <c r="G596" s="1" t="s">
+    <row r="739" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G739" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="597" spans="7:7">
-      <c r="G597" s="1" t="s">
+    <row r="740" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G740" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="598" spans="7:7">
-      <c r="G598" s="1" t="s">
+    <row r="741" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G741" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="599" spans="7:7">
-      <c r="G599" s="1" t="s">
+    <row r="742" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G742" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="600" spans="7:7">
-      <c r="G600" s="1" t="s">
+    <row r="743" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G743" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="601" spans="7:7">
-      <c r="G601" s="1" t="s">
+    <row r="744" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G744" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="602" spans="7:7">
-      <c r="G602" s="1" t="s">
+    <row r="745" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G745" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="603" spans="7:7">
-      <c r="G603" s="1" t="s">
+    <row r="746" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G746" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="604" spans="7:7">
-      <c r="G604" s="1" t="s">
+    <row r="747" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G747" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="605" spans="7:7">
-      <c r="G605" s="1" t="s">
+    <row r="748" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G748" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="606" spans="7:7">
-      <c r="G606" s="1" t="s">
+    <row r="749" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G749" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="607" spans="7:7">
-      <c r="G607" s="1" t="s">
+    <row r="750" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G750" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="608" spans="7:7">
-      <c r="G608" s="1" t="s">
+    <row r="751" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G751" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="609" spans="3:7">
-      <c r="G609" s="1" t="s">
+    <row r="752" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G752" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="610" spans="3:7">
-      <c r="G610" s="1" t="s">
+    <row r="753" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G753" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="611" spans="3:7">
-      <c r="G611" s="1" t="s">
+    <row r="754" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G754" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="612" spans="3:7">
-      <c r="G612" s="1" t="s">
+    <row r="755" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G755" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="613" spans="3:7">
-      <c r="G613" s="1" t="s">
+    <row r="756" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G756" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="614" spans="3:7">
-      <c r="G614" s="1" t="s">
+    <row r="757" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G757" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="615" spans="3:7">
-      <c r="G615" s="1" t="s">
+    <row r="758" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G758" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="616" spans="3:7">
-      <c r="G616" s="1" t="s">
+    <row r="759" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G759" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="617" spans="3:7">
-      <c r="G617" s="1" t="s">
+    <row r="760" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G760" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="618" spans="3:7">
-      <c r="C618" s="1" t="s">
+    <row r="761" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C761" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="619" spans="3:7">
-      <c r="G619" s="1" t="s">
+    <row r="762" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G762" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="620" spans="3:7">
-      <c r="G620" s="1" t="s">
+    <row r="763" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G763" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="621" spans="3:7">
-      <c r="G621" s="1" t="s">
+    <row r="764" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G764" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="622" spans="3:7">
-      <c r="G622" s="1" t="s">
+    <row r="765" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G765" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="623" spans="3:7">
-      <c r="G623" s="1" t="s">
+    <row r="766" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G766" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="624" spans="3:7">
-      <c r="G624" s="1" t="s">
+    <row r="767" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G767" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="625" spans="7:7">
-      <c r="G625" s="1" t="s">
+    <row r="768" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G768" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="626" spans="7:7">
-      <c r="G626" s="1" t="s">
+    <row r="769" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G769" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="627" spans="7:7">
-      <c r="G627" s="1" t="s">
+    <row r="770" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G770" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="628" spans="7:7">
-      <c r="G628" s="1" t="s">
+    <row r="771" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G771" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="629" spans="7:7">
-      <c r="G629" s="1" t="s">
+    <row r="772" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G772" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="630" spans="7:7">
-      <c r="G630" s="1" t="s">
+    <row r="773" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G773" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="631" spans="7:7">
-      <c r="G631" s="1" t="s">
+    <row r="774" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G774" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="632" spans="7:7">
-      <c r="G632" s="1" t="s">
+    <row r="775" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G775" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="633" spans="7:7">
-      <c r="G633" s="1" t="s">
+    <row r="776" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G776" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="634" spans="7:7">
-      <c r="G634" s="1" t="s">
+    <row r="777" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G777" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="635" spans="7:7">
-      <c r="G635" s="1" t="s">
+    <row r="778" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G778" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="636" spans="7:7">
-      <c r="G636" s="1" t="s">
+    <row r="779" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G779" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="637" spans="7:7">
-      <c r="G637" s="1" t="s">
+    <row r="780" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G780" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="638" spans="7:7">
-      <c r="G638" s="1" t="s">
+    <row r="781" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G781" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="639" spans="7:7">
-      <c r="G639" s="1" t="s">
+    <row r="782" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G782" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="640" spans="7:7">
-      <c r="G640" s="1" t="s">
+    <row r="783" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G783" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="641" spans="3:7">
-      <c r="G641" s="1" t="s">
+    <row r="784" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G784" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="642" spans="3:7">
-      <c r="G642" s="1" t="s">
+    <row r="785" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G785" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="643" spans="3:7">
-      <c r="G643" s="1" t="s">
+    <row r="786" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G786" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="644" spans="3:7">
-      <c r="G644" s="1" t="s">
+    <row r="787" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G787" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="645" spans="3:7">
-      <c r="G645" s="1" t="s">
+    <row r="788" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G788" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="646" spans="3:7">
-      <c r="G646" s="1" t="s">
+    <row r="789" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G789" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="647" spans="3:7">
-      <c r="C647" s="1" t="s">
+    <row r="790" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C790" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="648" spans="3:7">
-      <c r="G648" s="1" t="s">
+    <row r="791" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G791" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="649" spans="3:7">
-      <c r="G649" s="1" t="s">
+    <row r="792" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G792" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="650" spans="3:7">
-      <c r="G650" s="1" t="s">
+    <row r="793" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G793" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="651" spans="3:7">
-      <c r="G651" s="1" t="s">
+    <row r="794" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G794" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="652" spans="3:7">
-      <c r="G652" s="1" t="s">
+    <row r="795" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G795" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="653" spans="3:7">
-      <c r="G653" s="1" t="s">
+    <row r="796" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G796" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="654" spans="3:7">
-      <c r="G654" s="1" t="s">
+    <row r="797" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G797" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="655" spans="3:7">
-      <c r="G655" s="1" t="s">
+    <row r="798" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G798" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="656" spans="3:7">
-      <c r="G656" s="1" t="s">
+    <row r="799" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G799" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="657" spans="7:7">
-      <c r="G657" s="1" t="s">
+    <row r="800" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G800" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="658" spans="7:7">
-      <c r="G658" s="1" t="s">
+    <row r="801" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G801" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="659" spans="7:7">
-      <c r="G659" s="1" t="s">
+    <row r="802" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G802" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="660" spans="7:7">
-      <c r="G660" s="1" t="s">
+    <row r="803" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G803" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="661" spans="7:7">
-      <c r="G661" s="1" t="s">
+    <row r="804" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G804" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="662" spans="7:7">
-      <c r="G662" s="1" t="s">
+    <row r="805" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G805" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="663" spans="7:7">
-      <c r="G663" s="1" t="s">
+    <row r="806" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G806" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="664" spans="7:7">
-      <c r="G664" s="1" t="s">
+    <row r="807" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G807" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="665" spans="7:7">
-      <c r="G665" s="1" t="s">
+    <row r="808" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G808" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="666" spans="7:7">
-      <c r="G666" s="1" t="s">
+    <row r="809" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G809" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="667" spans="7:7">
-      <c r="G667" s="1" t="s">
+    <row r="810" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G810" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="668" spans="7:7">
-      <c r="G668" s="1" t="s">
+    <row r="811" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G811" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="669" spans="7:7">
-      <c r="G669" s="1" t="s">
+    <row r="812" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G812" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="670" spans="7:7">
-      <c r="G670" s="1" t="s">
+    <row r="813" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G813" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="671" spans="7:7">
-      <c r="G671" s="1" t="s">
+    <row r="814" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G814" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="672" spans="7:7">
-      <c r="G672" s="1" t="s">
+    <row r="815" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G815" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
-      <c r="G673" s="1" t="s">
+    <row r="816" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G816" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
-      <c r="G674" s="1" t="s">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G817" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
-      <c r="G675" s="1" t="s">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G818" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="676" spans="1:7" s="3" customFormat="1" ht="14.4">
-      <c r="A676" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F676" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="677" spans="1:7">
-      <c r="B677" s="1" t="s">
+    <row r="819" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F819" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B820" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
-      <c r="G678" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="679" spans="1:7">
-      <c r="G679" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="680" spans="1:7">
-      <c r="G680" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="681" spans="1:7">
-      <c r="G681" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="682" spans="1:7">
-      <c r="G682" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="683" spans="1:7">
-      <c r="G683" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="684" spans="1:7">
-      <c r="G684" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="685" spans="1:7">
-      <c r="G685" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="686" spans="1:7">
-      <c r="G686" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="687" spans="1:7">
-      <c r="G687" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="688" spans="1:7">
-      <c r="G688" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="689" spans="7:7">
-      <c r="G689" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="690" spans="7:7">
-      <c r="G690" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="691" spans="7:7">
-      <c r="G691" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="692" spans="7:7">
-      <c r="G692" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="693" spans="7:7">
-      <c r="G693" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="694" spans="7:7">
-      <c r="G694" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="695" spans="7:7">
-      <c r="G695" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="696" spans="7:7">
-      <c r="G696" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="697" spans="7:7">
-      <c r="G697" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="698" spans="7:7">
-      <c r="G698" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="699" spans="7:7">
-      <c r="G699" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="700" spans="7:7">
-      <c r="G700" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="701" spans="7:7">
-      <c r="G701" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="702" spans="7:7">
-      <c r="G702" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="703" spans="7:7">
-      <c r="G703" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="704" spans="7:7">
-      <c r="G704" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="705" spans="2:7">
-      <c r="G705" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="706" spans="2:7">
-      <c r="B706" s="1" t="s">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B821" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="707" spans="2:7">
-      <c r="C707" s="1" t="s">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C822" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="708" spans="2:7">
-      <c r="G708" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="709" spans="2:7">
-      <c r="G709" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="710" spans="2:7">
-      <c r="G710" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="711" spans="2:7">
-      <c r="G711" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="712" spans="2:7">
-      <c r="G712" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="713" spans="2:7">
-      <c r="G713" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="714" spans="2:7">
-      <c r="G714" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="715" spans="2:7">
-      <c r="G715" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="716" spans="2:7">
-      <c r="G716" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="717" spans="2:7">
-      <c r="G717" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="718" spans="2:7">
-      <c r="G718" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="719" spans="2:7">
-      <c r="G719" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="720" spans="2:7">
-      <c r="G720" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="721" spans="3:7">
-      <c r="G721" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="722" spans="3:7">
-      <c r="G722" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="723" spans="3:7">
-      <c r="G723" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="724" spans="3:7">
-      <c r="G724" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="725" spans="3:7">
-      <c r="G725" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="726" spans="3:7">
-      <c r="G726" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="727" spans="3:7">
-      <c r="G727" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="728" spans="3:7">
-      <c r="G728" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="729" spans="3:7">
-      <c r="G729" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="730" spans="3:7">
-      <c r="G730" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="731" spans="3:7">
-      <c r="G731" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="732" spans="3:7">
-      <c r="G732" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="733" spans="3:7">
-      <c r="G733" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="734" spans="3:7">
-      <c r="G734" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="735" spans="3:7">
-      <c r="G735" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="736" spans="3:7">
-      <c r="C736" s="1" t="s">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C823" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="737" spans="7:7">
-      <c r="G737" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="738" spans="7:7">
-      <c r="G738" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="739" spans="7:7">
-      <c r="G739" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="740" spans="7:7">
-      <c r="G740" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="741" spans="7:7">
-      <c r="G741" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="742" spans="7:7">
-      <c r="G742" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="743" spans="7:7">
-      <c r="G743" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="744" spans="7:7">
-      <c r="G744" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="745" spans="7:7">
-      <c r="G745" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="746" spans="7:7">
-      <c r="G746" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="747" spans="7:7">
-      <c r="G747" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="748" spans="7:7">
-      <c r="G748" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="749" spans="7:7">
-      <c r="G749" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="750" spans="7:7">
-      <c r="G750" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="751" spans="7:7">
-      <c r="G751" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="752" spans="7:7">
-      <c r="G752" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="753" spans="3:7">
-      <c r="G753" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="754" spans="3:7">
-      <c r="G754" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="755" spans="3:7">
-      <c r="G755" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="756" spans="3:7">
-      <c r="G756" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="757" spans="3:7">
-      <c r="G757" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="758" spans="3:7">
-      <c r="G758" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="759" spans="3:7">
-      <c r="G759" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="760" spans="3:7">
-      <c r="G760" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="761" spans="3:7">
-      <c r="G761" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="762" spans="3:7">
-      <c r="G762" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="763" spans="3:7">
-      <c r="G763" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="764" spans="3:7">
-      <c r="G764" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="765" spans="3:7">
-      <c r="C765" s="1" t="s">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C824" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="766" spans="3:7">
-      <c r="G766" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="767" spans="3:7">
-      <c r="G767" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="768" spans="3:7">
-      <c r="G768" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="769" spans="7:7">
-      <c r="G769" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="770" spans="7:7">
-      <c r="G770" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="771" spans="7:7">
-      <c r="G771" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="772" spans="7:7">
-      <c r="G772" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="773" spans="7:7">
-      <c r="G773" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="774" spans="7:7">
-      <c r="G774" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="775" spans="7:7">
-      <c r="G775" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="776" spans="7:7">
-      <c r="G776" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="777" spans="7:7">
-      <c r="G777" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="778" spans="7:7">
-      <c r="G778" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="779" spans="7:7">
-      <c r="G779" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="780" spans="7:7">
-      <c r="G780" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="781" spans="7:7">
-      <c r="G781" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="782" spans="7:7">
-      <c r="G782" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="783" spans="7:7">
-      <c r="G783" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="784" spans="7:7">
-      <c r="G784" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="785" spans="3:7">
-      <c r="G785" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="786" spans="3:7">
-      <c r="G786" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="787" spans="3:7">
-      <c r="G787" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="788" spans="3:7">
-      <c r="G788" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="789" spans="3:7">
-      <c r="G789" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="790" spans="3:7">
-      <c r="G790" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="791" spans="3:7">
-      <c r="G791" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="792" spans="3:7">
-      <c r="G792" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="793" spans="3:7">
-      <c r="G793" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="794" spans="3:7">
-      <c r="C794" s="1" t="s">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C825" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="795" spans="3:7">
-      <c r="G795" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="796" spans="3:7">
-      <c r="G796" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="797" spans="3:7">
-      <c r="G797" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="798" spans="3:7">
-      <c r="G798" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="799" spans="3:7">
-      <c r="G799" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="800" spans="3:7">
-      <c r="G800" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="801" spans="7:7">
-      <c r="G801" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="802" spans="7:7">
-      <c r="G802" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="803" spans="7:7">
-      <c r="G803" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="804" spans="7:7">
-      <c r="G804" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="805" spans="7:7">
-      <c r="G805" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="806" spans="7:7">
-      <c r="G806" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="807" spans="7:7">
-      <c r="G807" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="808" spans="7:7">
-      <c r="G808" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="809" spans="7:7">
-      <c r="G809" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="810" spans="7:7">
-      <c r="G810" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="811" spans="7:7">
-      <c r="G811" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="812" spans="7:7">
-      <c r="G812" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="813" spans="7:7">
-      <c r="G813" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="814" spans="7:7">
-      <c r="G814" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="815" spans="7:7">
-      <c r="G815" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="816" spans="7:7">
-      <c r="G816" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="817" spans="1:7">
-      <c r="G817" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="818" spans="1:7">
-      <c r="G818" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="819" spans="1:7">
-      <c r="G819" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="820" spans="1:7">
-      <c r="G820" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="821" spans="1:7">
-      <c r="G821" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="822" spans="1:7">
-      <c r="G822" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="823" spans="1:7" s="3" customFormat="1" ht="14.4">
-      <c r="A823" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F823" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="824" spans="1:7">
-      <c r="B824" s="1" t="s">
+    <row r="826" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A826" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B827" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="825" spans="1:7">
-      <c r="B825" s="1" t="s">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D828" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D829" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D830" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B831" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="826" spans="1:7">
-      <c r="C826" s="1" t="s">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C832" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="827" spans="1:7">
-      <c r="C827" s="1" t="s">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D833" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D834" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D835" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C836" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="828" spans="1:7">
-      <c r="C828" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="829" spans="1:7">
-      <c r="C829" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="830" spans="1:7" s="3" customFormat="1" ht="14.4">
-      <c r="A830" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F830" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="831" spans="1:7">
-      <c r="B831" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="832" spans="1:7">
-      <c r="D832" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="833" spans="2:4">
-      <c r="D833" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="834" spans="2:4">
-      <c r="D834" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="835" spans="2:4">
-      <c r="B835" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="836" spans="2:4">
-      <c r="C836" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="837" spans="2:4">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D837" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="838" spans="2:4">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D838" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="839" spans="2:4">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D839" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="840" spans="2:4">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C840" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="841" spans="2:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D841" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="842" spans="2:4">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D842" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="843" spans="2:4">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D843" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="844" spans="2:4">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C844" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="845" spans="2:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D845" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="846" spans="2:4">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D846" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="847" spans="2:4">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D847" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="848" spans="2:4">
-      <c r="C848" s="1" t="s">
+    <row r="848" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A848" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F848" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="849" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B849" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="850" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D850" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="851" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D851" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="852" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D852" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="853" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D853" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="854" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B854" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="855" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C855" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="856" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D856" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="857" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D857" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="858" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D858" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="859" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D859" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="860" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C860" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="861" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D861" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="862" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D862" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="863" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D863" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="864" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D864" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C865" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D866" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D867" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D868" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D869" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C870" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="849" spans="1:6">
-      <c r="D849" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="850" spans="1:6">
-      <c r="D850" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="851" spans="1:6">
-      <c r="D851" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="852" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A852" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F852" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="853" spans="1:6">
-      <c r="B853" s="1" t="s">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D871" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D872" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D873" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D874" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A875" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F875" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B876" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="854" spans="1:6">
-      <c r="D854" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="855" spans="1:6">
-      <c r="D855" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="856" spans="1:6">
-      <c r="D856" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="857" spans="1:6">
-      <c r="D857" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="858" spans="1:6">
-      <c r="B858" s="1" t="s">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D877" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B878" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="859" spans="1:6">
-      <c r="C859" s="1" t="s">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C879" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="860" spans="1:6">
-      <c r="D860" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="861" spans="1:6">
-      <c r="D861" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="862" spans="1:6">
-      <c r="D862" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="863" spans="1:6">
-      <c r="D863" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="864" spans="1:6">
-      <c r="C864" s="1" t="s">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D880" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C881" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="865" spans="1:6">
-      <c r="D865" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="866" spans="1:6">
-      <c r="D866" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="867" spans="1:6">
-      <c r="D867" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="868" spans="1:6">
-      <c r="D868" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="869" spans="1:6">
-      <c r="C869" s="1" t="s">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D882" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C883" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="870" spans="1:6">
-      <c r="D870" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="871" spans="1:6">
-      <c r="D871" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="872" spans="1:6">
-      <c r="D872" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="873" spans="1:6">
-      <c r="D873" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="874" spans="1:6">
-      <c r="C874" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="875" spans="1:6">
-      <c r="D875" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="876" spans="1:6">
-      <c r="D876" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="877" spans="1:6">
-      <c r="D877" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="878" spans="1:6">
-      <c r="D878" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="879" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A879" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F879" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="880" spans="1:6">
-      <c r="B880" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="881" spans="1:6">
-      <c r="D881" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="882" spans="1:6">
-      <c r="B882" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="883" spans="1:6">
-      <c r="C883" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="884" spans="1:6">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D884" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="885" spans="1:6">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C885" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="886" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D886" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="887" spans="1:6">
-      <c r="C887" s="1" t="s">
+    <row r="887" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A887" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F887" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B888" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B889" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C890" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C891" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C892" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="888" spans="1:6">
-      <c r="D888" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="889" spans="1:6">
-      <c r="C889" s="1" t="s">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C893" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="890" spans="1:6">
-      <c r="D890" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="891" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A891" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F891" s="3" t="s">
+    <row r="894" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A894" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F894" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B895" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B896" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C897" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C898" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C899" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C900" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A901" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F901" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="892" spans="1:6">
-      <c r="B892" s="1" t="s">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B902" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="893" spans="1:6">
-      <c r="B893" s="1" t="s">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B903" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="894" spans="1:6">
-      <c r="C894" s="1" t="s">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C904" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="895" spans="1:6">
-      <c r="C895" s="1" t="s">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C905" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="896" spans="1:6">
-      <c r="C896" s="1" t="s">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C906" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="897" spans="1:6">
-      <c r="C897" s="1" t="s">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C907" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="898" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A898" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F898" s="3" t="s">
+    <row r="908" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A908" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F908" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B909" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B910" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C911" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C912" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C913" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C914" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A915" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F915" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B916" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B917" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C918" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C919" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C920" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C921" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A922" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F922" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B923" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B924" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C925" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C926" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C927" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C928" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A929" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F929" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B930" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B931" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C932" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C933" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C934" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C935" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A936" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F936" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="899" spans="1:6">
-      <c r="B899" s="1" t="s">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B937" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="900" spans="1:6">
-      <c r="B900" s="1" t="s">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B938" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="901" spans="1:6">
-      <c r="C901" s="1" t="s">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C939" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="902" spans="1:6">
-      <c r="C902" s="1" t="s">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C940" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="903" spans="1:6">
-      <c r="C903" s="1" t="s">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C941" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="904" spans="1:6">
-      <c r="C904" s="1" t="s">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C942" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="905" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A905" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F905" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="906" spans="1:6">
-      <c r="B906" s="1" t="s">
+    <row r="943" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A943" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F943" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B944" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="907" spans="1:6">
-      <c r="B907" s="1" t="s">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B945" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="908" spans="1:6">
-      <c r="C908" s="1" t="s">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C946" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="909" spans="1:6">
-      <c r="C909" s="1" t="s">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C947" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="910" spans="1:6">
-      <c r="C910" s="1" t="s">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C948" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="911" spans="1:6">
-      <c r="C911" s="1" t="s">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C949" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="912" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A912" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F912" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="913" spans="1:6">
-      <c r="B913" s="1" t="s">
+    <row r="950" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A950" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F950" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B951" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="914" spans="1:6">
-      <c r="B914" s="1" t="s">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B952" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="915" spans="1:6">
-      <c r="C915" s="1" t="s">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C953" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="916" spans="1:6">
-      <c r="C916" s="1" t="s">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C954" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="917" spans="1:6">
-      <c r="C917" s="1" t="s">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C955" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="918" spans="1:6">
-      <c r="C918" s="1" t="s">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C956" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="919" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A919" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F919" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="920" spans="1:6">
-      <c r="B920" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="921" spans="1:6">
-      <c r="B921" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="922" spans="1:6">
-      <c r="C922" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="923" spans="1:6">
-      <c r="C923" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="924" spans="1:6">
-      <c r="C924" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="925" spans="1:6">
-      <c r="C925" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="926" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A926" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F926" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="927" spans="1:6">
-      <c r="B927" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="928" spans="1:6">
-      <c r="B928" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="929" spans="1:6">
-      <c r="C929" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="930" spans="1:6">
-      <c r="C930" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="931" spans="1:6">
-      <c r="C931" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="932" spans="1:6">
-      <c r="C932" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="933" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A933" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F933" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="934" spans="1:6">
-      <c r="B934" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="935" spans="1:6">
-      <c r="B935" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="936" spans="1:6">
-      <c r="C936" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="937" spans="1:6">
-      <c r="C937" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="938" spans="1:6">
-      <c r="C938" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="939" spans="1:6">
-      <c r="C939" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="940" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A940" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F940" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="941" spans="1:6">
-      <c r="B941" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="942" spans="1:6">
-      <c r="B942" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="943" spans="1:6">
-      <c r="C943" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="944" spans="1:6">
-      <c r="C944" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="945" spans="1:6">
-      <c r="C945" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="946" spans="1:6">
-      <c r="C946" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="947" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A947" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F947" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="948" spans="1:6">
-      <c r="B948" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="949" spans="1:6">
-      <c r="B949" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="950" spans="1:6">
-      <c r="C950" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="951" spans="1:6">
-      <c r="C951" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="952" spans="1:6">
-      <c r="C952" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="953" spans="1:6">
-      <c r="C953" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="954" spans="1:6" s="3" customFormat="1" ht="14.4">
-      <c r="A954" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F954" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="955" spans="1:6">
-      <c r="B955" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="956" spans="1:6">
-      <c r="B956" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="957" spans="1:6">
-      <c r="C957" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="958" spans="1:6">
-      <c r="C958" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="959" spans="1:6">
-      <c r="C959" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="960" spans="1:6">
-      <c r="C960" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="967" spans="6:6">
-      <c r="F967" s="1" t="s">
+    <row r="963" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F963" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="968" spans="6:6">
-      <c r="F968" s="1" t="s">
+    <row r="964" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F964" s="1" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C522 C529:C823 C830:C891 C898 C905 C912 C919 C926 C933 C940 C947 C954 C961:C1048576" xr:uid="{37F5F245-3F31-4A57-BC8B-D55CC2678CB3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C522 C826:C887 C894 C901 C908 C915 C922 C929 C936 C943 C950 C957:C1048576 C529:C819" xr:uid="{37F5F245-3F31-4A57-BC8B-D55CC2678CB3}">
       <formula1>"VehicleType__AirCarrier, VehicleType__Battleship, VehicleType__Destroyer, VehicleType__Cruiser"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B409 B411:B1048576" xr:uid="{2B687D07-6CB6-4989-9AE5-AB45B5B2D497}">
@@ -6053,17 +6030,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43219622-0FAC-4B62-8D6F-AAC43325C334}">
+          <x14:formula1>
+            <xm:f>'States and module list'!$F$1:$F$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>C822:C825 C525:C528 C953:C956 C890:C893 C897:C900 C904:C907 C911:C914 C918:C921 C925:C928 C932:C935 C939:C942 C946:C949</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F74D5A6-F466-43A7-9135-E5885E8A0026}">
           <x14:formula1>
             <xm:f>'States and module list'!$J$1:$J$24</xm:f>
           </x14:formula1>
           <xm:sqref>G1:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43219622-0FAC-4B62-8D6F-AAC43325C334}">
-          <x14:formula1>
-            <xm:f>'States and module list'!$F$1:$F$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C826:C829 C525:C528 C957:C960 C894:C897 C901:C904 C908:C911 C915:C918 C922:C925 C929:C932 C936:C939 C943:C946 C950:C953</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E0BBDCF-D327-4FF7-B0FB-4F08ED1CB811}">
           <x14:formula1>
@@ -6091,9 +6068,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -6104,7 +6081,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -6115,7 +6092,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -6126,7 +6103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -6137,7 +6114,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -6148,7 +6125,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -6159,7 +6136,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -6170,7 +6147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -6181,7 +6158,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -6192,7 +6169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -6203,7 +6180,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -6214,7 +6191,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -6225,7 +6202,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -6236,7 +6213,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -6247,7 +6224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -6258,7 +6235,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -6269,7 +6246,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -6280,7 +6257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6291,7 +6268,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -6302,7 +6279,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -6313,7 +6290,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -6324,7 +6301,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -6335,7 +6312,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -6346,7 +6323,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -6357,7 +6334,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -6365,7 +6342,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -6373,92 +6350,92 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -6476,7 +6453,7 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6491,92 +6468,92 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>158</v>
       </c>
